--- a/formQR.xlsx
+++ b/formQR.xlsx
@@ -524,12 +524,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -538,48 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1047,1112 +1047,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:99" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="39"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
       <c r="O1" s="39"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="39"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="38"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
       <c r="AS1" s="39"/>
       <c r="AT1" s="38"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
       <c r="BC1" s="39"/>
       <c r="BD1" s="38"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="86"/>
       <c r="BM1" s="39"/>
       <c r="BN1" s="38"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
+      <c r="BO1" s="86"/>
+      <c r="BP1" s="86"/>
+      <c r="BQ1" s="86"/>
+      <c r="BT1" s="86"/>
+      <c r="BU1" s="86"/>
+      <c r="BV1" s="86"/>
       <c r="BW1" s="39"/>
       <c r="BX1" s="38"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CD1" s="81"/>
-      <c r="CE1" s="81"/>
-      <c r="CF1" s="81"/>
+      <c r="BY1" s="86"/>
+      <c r="BZ1" s="86"/>
+      <c r="CA1" s="86"/>
+      <c r="CD1" s="86"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
       <c r="CG1" s="39"/>
       <c r="CH1" s="38"/>
-      <c r="CI1" s="81"/>
-      <c r="CJ1" s="81"/>
-      <c r="CK1" s="81"/>
-      <c r="CN1" s="81"/>
-      <c r="CO1" s="81"/>
-      <c r="CP1" s="81"/>
+      <c r="CI1" s="86"/>
+      <c r="CJ1" s="86"/>
+      <c r="CK1" s="86"/>
+      <c r="CN1" s="86"/>
+      <c r="CO1" s="86"/>
+      <c r="CP1" s="86"/>
       <c r="CQ1" s="39"/>
       <c r="CR1" s="38"/>
-      <c r="CS1" s="81"/>
-      <c r="CT1" s="81"/>
-      <c r="CU1" s="81"/>
+      <c r="CS1" s="86"/>
+      <c r="CT1" s="86"/>
+      <c r="CU1" s="86"/>
     </row>
     <row r="2" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="34"/>
       <c r="E2" s="71"/>
       <c r="F2" s="72"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="34"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="34"/>
       <c r="O2" s="71"/>
       <c r="P2" s="72"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
       <c r="S2" s="34"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
       <c r="X2" s="34"/>
       <c r="Y2" s="71"/>
       <c r="Z2" s="72"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
       <c r="AC2" s="34"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
       <c r="AH2" s="34"/>
       <c r="AI2" s="71"/>
       <c r="AJ2" s="72"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
       <c r="AM2" s="34"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="71"/>
       <c r="AT2" s="72"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
       <c r="AW2" s="34"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
       <c r="BB2" s="34"/>
       <c r="BC2" s="71"/>
       <c r="BD2" s="72"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
       <c r="BG2" s="34"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85"/>
       <c r="BL2" s="34"/>
       <c r="BM2" s="71"/>
       <c r="BN2" s="72"/>
-      <c r="BO2" s="82"/>
-      <c r="BP2" s="82"/>
+      <c r="BO2" s="85"/>
+      <c r="BP2" s="85"/>
       <c r="BQ2" s="34"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="82"/>
+      <c r="BT2" s="85"/>
+      <c r="BU2" s="85"/>
       <c r="BV2" s="34"/>
       <c r="BW2" s="71"/>
       <c r="BX2" s="72"/>
-      <c r="BY2" s="82"/>
-      <c r="BZ2" s="82"/>
+      <c r="BY2" s="85"/>
+      <c r="BZ2" s="85"/>
       <c r="CA2" s="34"/>
-      <c r="CD2" s="82"/>
-      <c r="CE2" s="82"/>
+      <c r="CD2" s="85"/>
+      <c r="CE2" s="85"/>
       <c r="CF2" s="34"/>
       <c r="CG2" s="71"/>
       <c r="CH2" s="72"/>
-      <c r="CI2" s="82"/>
-      <c r="CJ2" s="82"/>
+      <c r="CI2" s="85"/>
+      <c r="CJ2" s="85"/>
       <c r="CK2" s="34"/>
-      <c r="CN2" s="82"/>
-      <c r="CO2" s="82"/>
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="85"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="71"/>
       <c r="CR2" s="72"/>
-      <c r="CS2" s="82"/>
-      <c r="CT2" s="82"/>
+      <c r="CS2" s="85"/>
+      <c r="CT2" s="85"/>
       <c r="CU2" s="34"/>
     </row>
     <row r="3" spans="2:99" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="50"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="50"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
       <c r="V3" s="49"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
       <c r="Y3" s="50"/>
       <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
       <c r="AF3" s="49"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
       <c r="AI3" s="50"/>
       <c r="AJ3" s="49"/>
       <c r="AK3" s="49"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
       <c r="AP3" s="49"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
       <c r="AS3" s="50"/>
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
       <c r="AZ3" s="49"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
       <c r="BC3" s="50"/>
       <c r="BD3" s="49"/>
       <c r="BE3" s="49"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
       <c r="BJ3" s="49"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
       <c r="BM3" s="50"/>
       <c r="BN3" s="49"/>
       <c r="BO3" s="49"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
       <c r="BT3" s="49"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
+      <c r="BU3" s="84"/>
+      <c r="BV3" s="84"/>
       <c r="BW3" s="50"/>
       <c r="BX3" s="49"/>
       <c r="BY3" s="49"/>
-      <c r="BZ3" s="75"/>
-      <c r="CA3" s="75"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="84"/>
       <c r="CD3" s="49"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="75"/>
+      <c r="CE3" s="84"/>
+      <c r="CF3" s="84"/>
       <c r="CG3" s="50"/>
       <c r="CH3" s="49"/>
       <c r="CI3" s="49"/>
-      <c r="CJ3" s="75"/>
-      <c r="CK3" s="75"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
       <c r="CN3" s="49"/>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="75"/>
+      <c r="CO3" s="84"/>
+      <c r="CP3" s="84"/>
       <c r="CQ3" s="50"/>
       <c r="CR3" s="49"/>
       <c r="CS3" s="49"/>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="75"/>
+      <c r="CT3" s="84"/>
+      <c r="CU3" s="84"/>
     </row>
     <row r="4" spans="2:99" s="51" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="53"/>
       <c r="F4" s="54"/>
       <c r="G4" s="52"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
       <c r="L4" s="52"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
       <c r="O4" s="53"/>
       <c r="P4" s="54"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="V4" s="52"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
       <c r="Y4" s="53"/>
       <c r="Z4" s="54"/>
       <c r="AA4" s="52"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
       <c r="AF4" s="52"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
       <c r="AI4" s="53"/>
       <c r="AJ4" s="54"/>
       <c r="AK4" s="52"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
       <c r="AP4" s="52"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
       <c r="AS4" s="53"/>
       <c r="AT4" s="54"/>
       <c r="AU4" s="52"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
       <c r="AZ4" s="52"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
       <c r="BC4" s="53"/>
       <c r="BD4" s="54"/>
       <c r="BE4" s="52"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="74"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
       <c r="BJ4" s="52"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="74"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
       <c r="BM4" s="53"/>
       <c r="BN4" s="54"/>
       <c r="BO4" s="52"/>
-      <c r="BP4" s="74"/>
-      <c r="BQ4" s="74"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
       <c r="BT4" s="52"/>
-      <c r="BU4" s="74"/>
-      <c r="BV4" s="74"/>
+      <c r="BU4" s="83"/>
+      <c r="BV4" s="83"/>
       <c r="BW4" s="53"/>
       <c r="BX4" s="54"/>
       <c r="BY4" s="52"/>
-      <c r="BZ4" s="74"/>
-      <c r="CA4" s="74"/>
+      <c r="BZ4" s="83"/>
+      <c r="CA4" s="83"/>
       <c r="CD4" s="52"/>
-      <c r="CE4" s="74"/>
-      <c r="CF4" s="74"/>
+      <c r="CE4" s="83"/>
+      <c r="CF4" s="83"/>
       <c r="CG4" s="53"/>
       <c r="CH4" s="54"/>
       <c r="CI4" s="52"/>
-      <c r="CJ4" s="74"/>
-      <c r="CK4" s="74"/>
+      <c r="CJ4" s="83"/>
+      <c r="CK4" s="83"/>
       <c r="CN4" s="52"/>
-      <c r="CO4" s="74"/>
-      <c r="CP4" s="74"/>
+      <c r="CO4" s="83"/>
+      <c r="CP4" s="83"/>
       <c r="CQ4" s="53"/>
       <c r="CR4" s="54"/>
       <c r="CS4" s="52"/>
-      <c r="CT4" s="74"/>
-      <c r="CU4" s="74"/>
+      <c r="CT4" s="83"/>
+      <c r="CU4" s="83"/>
     </row>
     <row r="5" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="22"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
       <c r="O5" s="22"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
       <c r="Y5" s="22"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
       <c r="AS5" s="22"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
       <c r="AZ5" s="3"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="84"/>
       <c r="BC5" s="22"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="75"/>
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="84"/>
       <c r="BJ5" s="3"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
+      <c r="BK5" s="84"/>
+      <c r="BL5" s="84"/>
       <c r="BM5" s="22"/>
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
-      <c r="BP5" s="75"/>
-      <c r="BQ5" s="75"/>
+      <c r="BP5" s="84"/>
+      <c r="BQ5" s="84"/>
       <c r="BT5" s="3"/>
-      <c r="BU5" s="75"/>
-      <c r="BV5" s="75"/>
+      <c r="BU5" s="84"/>
+      <c r="BV5" s="84"/>
       <c r="BW5" s="22"/>
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
-      <c r="BZ5" s="75"/>
-      <c r="CA5" s="75"/>
+      <c r="BZ5" s="84"/>
+      <c r="CA5" s="84"/>
       <c r="CD5" s="3"/>
-      <c r="CE5" s="75"/>
-      <c r="CF5" s="75"/>
+      <c r="CE5" s="84"/>
+      <c r="CF5" s="84"/>
       <c r="CG5" s="22"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="75"/>
-      <c r="CK5" s="75"/>
+      <c r="CJ5" s="84"/>
+      <c r="CK5" s="84"/>
       <c r="CN5" s="3"/>
-      <c r="CO5" s="75"/>
-      <c r="CP5" s="75"/>
+      <c r="CO5" s="84"/>
+      <c r="CP5" s="84"/>
       <c r="CQ5" s="22"/>
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
-      <c r="CT5" s="75"/>
-      <c r="CU5" s="75"/>
+      <c r="CT5" s="84"/>
+      <c r="CU5" s="84"/>
     </row>
     <row r="6" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="22"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
       <c r="O6" s="22"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
       <c r="AF6" s="13"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="88"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
       <c r="AS6" s="22"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="88"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
       <c r="AZ6" s="3"/>
-      <c r="BA6" s="75"/>
-      <c r="BB6" s="75"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="84"/>
       <c r="BC6" s="22"/>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
-      <c r="BF6" s="75"/>
-      <c r="BG6" s="75"/>
+      <c r="BF6" s="84"/>
+      <c r="BG6" s="84"/>
       <c r="BJ6" s="3"/>
-      <c r="BK6" s="75"/>
-      <c r="BL6" s="75"/>
+      <c r="BK6" s="84"/>
+      <c r="BL6" s="84"/>
       <c r="BM6" s="22"/>
       <c r="BN6" s="3"/>
       <c r="BO6" s="3"/>
-      <c r="BP6" s="75"/>
-      <c r="BQ6" s="75"/>
+      <c r="BP6" s="84"/>
+      <c r="BQ6" s="84"/>
       <c r="BT6" s="3"/>
-      <c r="BU6" s="75"/>
-      <c r="BV6" s="75"/>
+      <c r="BU6" s="84"/>
+      <c r="BV6" s="84"/>
       <c r="BW6" s="22"/>
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
-      <c r="BZ6" s="75"/>
-      <c r="CA6" s="75"/>
+      <c r="BZ6" s="84"/>
+      <c r="CA6" s="84"/>
       <c r="CD6" s="3"/>
-      <c r="CE6" s="75"/>
-      <c r="CF6" s="75"/>
+      <c r="CE6" s="84"/>
+      <c r="CF6" s="84"/>
       <c r="CG6" s="22"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="75"/>
-      <c r="CK6" s="75"/>
+      <c r="CJ6" s="84"/>
+      <c r="CK6" s="84"/>
       <c r="CN6" s="3"/>
-      <c r="CO6" s="75"/>
-      <c r="CP6" s="75"/>
+      <c r="CO6" s="84"/>
+      <c r="CP6" s="84"/>
       <c r="CQ6" s="22"/>
       <c r="CR6" s="3"/>
       <c r="CS6" s="3"/>
-      <c r="CT6" s="75"/>
-      <c r="CU6" s="75"/>
+      <c r="CT6" s="84"/>
+      <c r="CU6" s="84"/>
     </row>
     <row r="7" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="23"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="23"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
       <c r="AI7" s="23"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
       <c r="AS7" s="23"/>
       <c r="AT7" s="7"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="23"/>
       <c r="BD7" s="7"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="83"/>
+      <c r="BE7" s="87"/>
+      <c r="BF7" s="87"/>
+      <c r="BG7" s="87"/>
       <c r="BJ7" s="9"/>
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="23"/>
       <c r="BN7" s="7"/>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="83"/>
+      <c r="BO7" s="87"/>
+      <c r="BP7" s="87"/>
+      <c r="BQ7" s="87"/>
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
       <c r="BW7" s="23"/>
       <c r="BX7" s="7"/>
-      <c r="BY7" s="83"/>
-      <c r="BZ7" s="83"/>
-      <c r="CA7" s="83"/>
+      <c r="BY7" s="87"/>
+      <c r="BZ7" s="87"/>
+      <c r="CA7" s="87"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9"/>
       <c r="CF7" s="9"/>
       <c r="CG7" s="23"/>
       <c r="CH7" s="7"/>
-      <c r="CI7" s="83"/>
-      <c r="CJ7" s="83"/>
-      <c r="CK7" s="83"/>
+      <c r="CI7" s="87"/>
+      <c r="CJ7" s="87"/>
+      <c r="CK7" s="87"/>
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="23"/>
       <c r="CR7" s="7"/>
-      <c r="CS7" s="83"/>
-      <c r="CT7" s="83"/>
-      <c r="CU7" s="83"/>
+      <c r="CS7" s="87"/>
+      <c r="CT7" s="87"/>
+      <c r="CU7" s="87"/>
     </row>
     <row r="8" spans="2:99" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="24"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
       <c r="O8" s="24"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="19"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
       <c r="AS8" s="24"/>
       <c r="AT8" s="19"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
       <c r="BC8" s="24"/>
       <c r="BD8" s="19"/>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="83"/>
-      <c r="BG8" s="83"/>
-      <c r="BJ8" s="83"/>
-      <c r="BK8" s="83"/>
-      <c r="BL8" s="83"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="87"/>
+      <c r="BL8" s="87"/>
       <c r="BM8" s="24"/>
       <c r="BN8" s="19"/>
-      <c r="BO8" s="83"/>
-      <c r="BP8" s="83"/>
-      <c r="BQ8" s="83"/>
-      <c r="BT8" s="83"/>
-      <c r="BU8" s="83"/>
-      <c r="BV8" s="83"/>
+      <c r="BO8" s="87"/>
+      <c r="BP8" s="87"/>
+      <c r="BQ8" s="87"/>
+      <c r="BT8" s="87"/>
+      <c r="BU8" s="87"/>
+      <c r="BV8" s="87"/>
       <c r="BW8" s="24"/>
       <c r="BX8" s="19"/>
-      <c r="BY8" s="83"/>
-      <c r="BZ8" s="83"/>
-      <c r="CA8" s="83"/>
-      <c r="CD8" s="83"/>
-      <c r="CE8" s="83"/>
-      <c r="CF8" s="83"/>
+      <c r="BY8" s="87"/>
+      <c r="BZ8" s="87"/>
+      <c r="CA8" s="87"/>
+      <c r="CD8" s="87"/>
+      <c r="CE8" s="87"/>
+      <c r="CF8" s="87"/>
       <c r="CG8" s="24"/>
       <c r="CH8" s="19"/>
-      <c r="CI8" s="83"/>
-      <c r="CJ8" s="83"/>
-      <c r="CK8" s="83"/>
-      <c r="CN8" s="83"/>
-      <c r="CO8" s="83"/>
-      <c r="CP8" s="83"/>
+      <c r="CI8" s="87"/>
+      <c r="CJ8" s="87"/>
+      <c r="CK8" s="87"/>
+      <c r="CN8" s="87"/>
+      <c r="CO8" s="87"/>
+      <c r="CP8" s="87"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="19"/>
-      <c r="CS8" s="83"/>
-      <c r="CT8" s="83"/>
-      <c r="CU8" s="83"/>
+      <c r="CS8" s="87"/>
+      <c r="CT8" s="87"/>
+      <c r="CU8" s="87"/>
     </row>
     <row r="9" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="23"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="23"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
       <c r="AI9" s="23"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AZ9" s="80"/>
-      <c r="BA9" s="80"/>
-      <c r="BB9" s="80"/>
+      <c r="AU9" s="80"/>
+      <c r="AV9" s="80"/>
+      <c r="AW9" s="80"/>
+      <c r="AZ9" s="88"/>
+      <c r="BA9" s="88"/>
+      <c r="BB9" s="88"/>
       <c r="BC9" s="23"/>
       <c r="BD9" s="7"/>
-      <c r="BE9" s="80"/>
-      <c r="BF9" s="80"/>
-      <c r="BG9" s="80"/>
-      <c r="BJ9" s="80"/>
-      <c r="BK9" s="80"/>
-      <c r="BL9" s="80"/>
+      <c r="BE9" s="88"/>
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="88"/>
+      <c r="BJ9" s="88"/>
+      <c r="BK9" s="88"/>
+      <c r="BL9" s="88"/>
       <c r="BM9" s="23"/>
       <c r="BN9" s="7"/>
-      <c r="BO9" s="80"/>
-      <c r="BP9" s="80"/>
-      <c r="BQ9" s="80"/>
-      <c r="BT9" s="80"/>
-      <c r="BU9" s="80"/>
-      <c r="BV9" s="80"/>
+      <c r="BO9" s="88"/>
+      <c r="BP9" s="88"/>
+      <c r="BQ9" s="88"/>
+      <c r="BT9" s="88"/>
+      <c r="BU9" s="88"/>
+      <c r="BV9" s="88"/>
       <c r="BW9" s="23"/>
       <c r="BX9" s="7"/>
-      <c r="BY9" s="80"/>
-      <c r="BZ9" s="80"/>
-      <c r="CA9" s="80"/>
-      <c r="CD9" s="80"/>
-      <c r="CE9" s="80"/>
-      <c r="CF9" s="80"/>
+      <c r="BY9" s="88"/>
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="88"/>
+      <c r="CD9" s="88"/>
+      <c r="CE9" s="88"/>
+      <c r="CF9" s="88"/>
       <c r="CG9" s="23"/>
       <c r="CH9" s="7"/>
-      <c r="CI9" s="80"/>
-      <c r="CJ9" s="80"/>
-      <c r="CK9" s="80"/>
-      <c r="CN9" s="80"/>
-      <c r="CO9" s="80"/>
-      <c r="CP9" s="80"/>
+      <c r="CI9" s="88"/>
+      <c r="CJ9" s="88"/>
+      <c r="CK9" s="88"/>
+      <c r="CN9" s="88"/>
+      <c r="CO9" s="88"/>
+      <c r="CP9" s="88"/>
       <c r="CQ9" s="23"/>
       <c r="CR9" s="7"/>
-      <c r="CS9" s="80"/>
-      <c r="CT9" s="80"/>
-      <c r="CU9" s="80"/>
+      <c r="CS9" s="88"/>
+      <c r="CT9" s="88"/>
+      <c r="CU9" s="88"/>
     </row>
     <row r="10" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="23"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
       <c r="O10" s="23"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
       <c r="AS10" s="23"/>
       <c r="AT10" s="7"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="89"/>
       <c r="BC10" s="23"/>
       <c r="BD10" s="7"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="79"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BJ10" s="89"/>
+      <c r="BK10" s="89"/>
+      <c r="BL10" s="89"/>
       <c r="BM10" s="23"/>
       <c r="BN10" s="7"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="89"/>
+      <c r="BQ10" s="89"/>
+      <c r="BT10" s="89"/>
+      <c r="BU10" s="89"/>
+      <c r="BV10" s="89"/>
       <c r="BW10" s="23"/>
       <c r="BX10" s="7"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="79"/>
-      <c r="CA10" s="79"/>
-      <c r="CD10" s="79"/>
-      <c r="CE10" s="79"/>
-      <c r="CF10" s="79"/>
+      <c r="BY10" s="89"/>
+      <c r="BZ10" s="89"/>
+      <c r="CA10" s="89"/>
+      <c r="CD10" s="89"/>
+      <c r="CE10" s="89"/>
+      <c r="CF10" s="89"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="7"/>
-      <c r="CI10" s="79"/>
-      <c r="CJ10" s="79"/>
-      <c r="CK10" s="79"/>
-      <c r="CN10" s="79"/>
-      <c r="CO10" s="79"/>
-      <c r="CP10" s="79"/>
+      <c r="CI10" s="89"/>
+      <c r="CJ10" s="89"/>
+      <c r="CK10" s="89"/>
+      <c r="CN10" s="89"/>
+      <c r="CO10" s="89"/>
+      <c r="CP10" s="89"/>
       <c r="CQ10" s="23"/>
       <c r="CR10" s="7"/>
-      <c r="CS10" s="79"/>
-      <c r="CT10" s="79"/>
-      <c r="CU10" s="79"/>
+      <c r="CS10" s="89"/>
+      <c r="CT10" s="89"/>
+      <c r="CU10" s="89"/>
     </row>
     <row r="11" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="23"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="23"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
       <c r="AI11" s="23"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
       <c r="AS11" s="23"/>
       <c r="AT11" s="7"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AZ11" s="79"/>
-      <c r="BA11" s="79"/>
-      <c r="BB11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
       <c r="BC11" s="23"/>
       <c r="BD11" s="7"/>
-      <c r="BE11" s="79"/>
-      <c r="BF11" s="79"/>
-      <c r="BG11" s="79"/>
-      <c r="BJ11" s="79"/>
-      <c r="BK11" s="79"/>
-      <c r="BL11" s="79"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="89"/>
       <c r="BM11" s="23"/>
       <c r="BN11" s="7"/>
-      <c r="BO11" s="79"/>
-      <c r="BP11" s="79"/>
-      <c r="BQ11" s="79"/>
-      <c r="BT11" s="79"/>
-      <c r="BU11" s="79"/>
-      <c r="BV11" s="79"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BT11" s="89"/>
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
       <c r="BW11" s="23"/>
       <c r="BX11" s="7"/>
-      <c r="BY11" s="79"/>
-      <c r="BZ11" s="79"/>
-      <c r="CA11" s="79"/>
-      <c r="CD11" s="79"/>
-      <c r="CE11" s="79"/>
-      <c r="CF11" s="79"/>
+      <c r="BY11" s="89"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="89"/>
+      <c r="CD11" s="89"/>
+      <c r="CE11" s="89"/>
+      <c r="CF11" s="89"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="7"/>
-      <c r="CI11" s="79"/>
-      <c r="CJ11" s="79"/>
-      <c r="CK11" s="79"/>
-      <c r="CN11" s="79"/>
-      <c r="CO11" s="79"/>
-      <c r="CP11" s="79"/>
+      <c r="CI11" s="89"/>
+      <c r="CJ11" s="89"/>
+      <c r="CK11" s="89"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="89"/>
+      <c r="CP11" s="89"/>
       <c r="CQ11" s="23"/>
       <c r="CR11" s="7"/>
-      <c r="CS11" s="79"/>
-      <c r="CT11" s="79"/>
-      <c r="CU11" s="79"/>
+      <c r="CS11" s="89"/>
+      <c r="CT11" s="89"/>
+      <c r="CU11" s="89"/>
     </row>
     <row r="12" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="23"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
       <c r="O12" s="23"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
       <c r="AI12" s="23"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
       <c r="AS12" s="23"/>
       <c r="AT12" s="7"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AZ12" s="79"/>
-      <c r="BA12" s="79"/>
-      <c r="BB12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
       <c r="BC12" s="23"/>
       <c r="BD12" s="7"/>
-      <c r="BE12" s="79"/>
-      <c r="BF12" s="79"/>
-      <c r="BG12" s="79"/>
-      <c r="BJ12" s="79"/>
-      <c r="BK12" s="79"/>
-      <c r="BL12" s="79"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="89"/>
+      <c r="BL12" s="89"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="7"/>
-      <c r="BO12" s="79"/>
-      <c r="BP12" s="79"/>
-      <c r="BQ12" s="79"/>
-      <c r="BT12" s="79"/>
-      <c r="BU12" s="79"/>
-      <c r="BV12" s="79"/>
+      <c r="BO12" s="89"/>
+      <c r="BP12" s="89"/>
+      <c r="BQ12" s="89"/>
+      <c r="BT12" s="89"/>
+      <c r="BU12" s="89"/>
+      <c r="BV12" s="89"/>
       <c r="BW12" s="23"/>
       <c r="BX12" s="7"/>
-      <c r="BY12" s="79"/>
-      <c r="BZ12" s="79"/>
-      <c r="CA12" s="79"/>
-      <c r="CD12" s="79"/>
-      <c r="CE12" s="79"/>
-      <c r="CF12" s="79"/>
+      <c r="BY12" s="89"/>
+      <c r="BZ12" s="89"/>
+      <c r="CA12" s="89"/>
+      <c r="CD12" s="89"/>
+      <c r="CE12" s="89"/>
+      <c r="CF12" s="89"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="7"/>
-      <c r="CI12" s="79"/>
-      <c r="CJ12" s="79"/>
-      <c r="CK12" s="79"/>
-      <c r="CN12" s="79"/>
-      <c r="CO12" s="79"/>
-      <c r="CP12" s="79"/>
+      <c r="CI12" s="89"/>
+      <c r="CJ12" s="89"/>
+      <c r="CK12" s="89"/>
+      <c r="CN12" s="89"/>
+      <c r="CO12" s="89"/>
+      <c r="CP12" s="89"/>
       <c r="CQ12" s="23"/>
       <c r="CR12" s="7"/>
-      <c r="CS12" s="79"/>
-      <c r="CT12" s="79"/>
-      <c r="CU12" s="79"/>
+      <c r="CS12" s="89"/>
+      <c r="CT12" s="89"/>
+      <c r="CU12" s="89"/>
     </row>
     <row r="13" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="35"/>
       <c r="P13" s="36"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="36"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
       <c r="AS13" s="35"/>
       <c r="AT13" s="36"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AZ13" s="88"/>
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="88"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="36"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BJ13" s="80"/>
-      <c r="BK13" s="80"/>
-      <c r="BL13" s="80"/>
+      <c r="BE13" s="88"/>
+      <c r="BF13" s="88"/>
+      <c r="BG13" s="88"/>
+      <c r="BJ13" s="88"/>
+      <c r="BK13" s="88"/>
+      <c r="BL13" s="88"/>
       <c r="BM13" s="35"/>
       <c r="BN13" s="36"/>
-      <c r="BO13" s="80"/>
-      <c r="BP13" s="80"/>
-      <c r="BQ13" s="80"/>
-      <c r="BT13" s="80"/>
-      <c r="BU13" s="80"/>
-      <c r="BV13" s="80"/>
+      <c r="BO13" s="88"/>
+      <c r="BP13" s="88"/>
+      <c r="BQ13" s="88"/>
+      <c r="BT13" s="88"/>
+      <c r="BU13" s="88"/>
+      <c r="BV13" s="88"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="36"/>
-      <c r="BY13" s="80"/>
-      <c r="BZ13" s="80"/>
-      <c r="CA13" s="80"/>
-      <c r="CD13" s="80"/>
-      <c r="CE13" s="80"/>
-      <c r="CF13" s="80"/>
+      <c r="BY13" s="88"/>
+      <c r="BZ13" s="88"/>
+      <c r="CA13" s="88"/>
+      <c r="CD13" s="88"/>
+      <c r="CE13" s="88"/>
+      <c r="CF13" s="88"/>
       <c r="CG13" s="35"/>
       <c r="CH13" s="36"/>
-      <c r="CI13" s="80"/>
-      <c r="CJ13" s="80"/>
-      <c r="CK13" s="80"/>
-      <c r="CN13" s="80"/>
-      <c r="CO13" s="80"/>
-      <c r="CP13" s="80"/>
+      <c r="CI13" s="88"/>
+      <c r="CJ13" s="88"/>
+      <c r="CK13" s="88"/>
+      <c r="CN13" s="88"/>
+      <c r="CO13" s="88"/>
+      <c r="CP13" s="88"/>
       <c r="CQ13" s="35"/>
       <c r="CR13" s="36"/>
-      <c r="CS13" s="80"/>
-      <c r="CT13" s="80"/>
-      <c r="CU13" s="80"/>
+      <c r="CS13" s="88"/>
+      <c r="CT13" s="88"/>
+      <c r="CU13" s="88"/>
     </row>
     <row r="14" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="23"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="23"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="91"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
       <c r="AS14" s="23"/>
       <c r="AT14" s="7"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="92"/>
-      <c r="AW14" s="92"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -2195,46 +2195,46 @@
       <c r="CU14" s="10"/>
     </row>
     <row r="15" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="35"/>
       <c r="P15" s="36"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="36"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
       <c r="AS15" s="35"/>
       <c r="AT15" s="36"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
       <c r="AZ15" s="33"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="33"/>
@@ -2277,46 +2277,46 @@
       <c r="CU15" s="33"/>
     </row>
     <row r="16" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="23"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="23"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="89"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="89"/>
-      <c r="AR16" s="89"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
       <c r="AS16" s="23"/>
       <c r="AT16" s="7"/>
-      <c r="AU16" s="90"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="89"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
       <c r="AZ16" s="11"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="12"/>
@@ -2667,1112 +2667,1112 @@
       <c r="CU20" s="2"/>
     </row>
     <row r="21" spans="2:99" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="22"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
       <c r="O21" s="22"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="86"/>
       <c r="AS21" s="22"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
+      <c r="AU21" s="86"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="86"/>
+      <c r="AZ21" s="86"/>
+      <c r="BA21" s="86"/>
+      <c r="BB21" s="86"/>
       <c r="BC21" s="22"/>
       <c r="BD21" s="3"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="81"/>
-      <c r="BJ21" s="81"/>
-      <c r="BK21" s="81"/>
-      <c r="BL21" s="81"/>
+      <c r="BE21" s="86"/>
+      <c r="BF21" s="86"/>
+      <c r="BG21" s="86"/>
+      <c r="BJ21" s="86"/>
+      <c r="BK21" s="86"/>
+      <c r="BL21" s="86"/>
       <c r="BM21" s="22"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="81"/>
-      <c r="BQ21" s="81"/>
-      <c r="BT21" s="81"/>
-      <c r="BU21" s="81"/>
-      <c r="BV21" s="81"/>
+      <c r="BO21" s="86"/>
+      <c r="BP21" s="86"/>
+      <c r="BQ21" s="86"/>
+      <c r="BT21" s="86"/>
+      <c r="BU21" s="86"/>
+      <c r="BV21" s="86"/>
       <c r="BW21" s="22"/>
       <c r="BX21" s="3"/>
-      <c r="BY21" s="81"/>
-      <c r="BZ21" s="81"/>
-      <c r="CA21" s="81"/>
-      <c r="CD21" s="81"/>
-      <c r="CE21" s="81"/>
-      <c r="CF21" s="81"/>
+      <c r="BY21" s="86"/>
+      <c r="BZ21" s="86"/>
+      <c r="CA21" s="86"/>
+      <c r="CD21" s="86"/>
+      <c r="CE21" s="86"/>
+      <c r="CF21" s="86"/>
       <c r="CG21" s="22"/>
       <c r="CH21" s="3"/>
-      <c r="CI21" s="81"/>
-      <c r="CJ21" s="81"/>
-      <c r="CK21" s="81"/>
-      <c r="CN21" s="81"/>
-      <c r="CO21" s="81"/>
-      <c r="CP21" s="81"/>
+      <c r="CI21" s="86"/>
+      <c r="CJ21" s="86"/>
+      <c r="CK21" s="86"/>
+      <c r="CN21" s="86"/>
+      <c r="CO21" s="86"/>
+      <c r="CP21" s="86"/>
       <c r="CQ21" s="22"/>
       <c r="CR21" s="3"/>
-      <c r="CS21" s="81"/>
-      <c r="CT21" s="81"/>
-      <c r="CU21" s="81"/>
+      <c r="CS21" s="86"/>
+      <c r="CT21" s="86"/>
+      <c r="CU21" s="86"/>
     </row>
     <row r="22" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="34"/>
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="34"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="34"/>
       <c r="O22" s="71"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
       <c r="S22" s="34"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="71"/>
       <c r="Z22" s="72"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
       <c r="AC22" s="34"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
       <c r="AH22" s="34"/>
       <c r="AI22" s="71"/>
       <c r="AJ22" s="72"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="85"/>
       <c r="AM22" s="34"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
       <c r="AR22" s="34"/>
       <c r="AS22" s="71"/>
       <c r="AT22" s="72"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="82"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
       <c r="AW22" s="34"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="82"/>
+      <c r="AZ22" s="85"/>
+      <c r="BA22" s="85"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="72"/>
-      <c r="BE22" s="82"/>
-      <c r="BF22" s="82"/>
+      <c r="BE22" s="85"/>
+      <c r="BF22" s="85"/>
       <c r="BG22" s="34"/>
-      <c r="BJ22" s="82"/>
-      <c r="BK22" s="82"/>
+      <c r="BJ22" s="85"/>
+      <c r="BK22" s="85"/>
       <c r="BL22" s="34"/>
       <c r="BM22" s="71"/>
       <c r="BN22" s="72"/>
-      <c r="BO22" s="82"/>
-      <c r="BP22" s="82"/>
+      <c r="BO22" s="85"/>
+      <c r="BP22" s="85"/>
       <c r="BQ22" s="34"/>
-      <c r="BT22" s="82"/>
-      <c r="BU22" s="82"/>
+      <c r="BT22" s="85"/>
+      <c r="BU22" s="85"/>
       <c r="BV22" s="34"/>
       <c r="BW22" s="71"/>
       <c r="BX22" s="72"/>
-      <c r="BY22" s="82"/>
-      <c r="BZ22" s="82"/>
+      <c r="BY22" s="85"/>
+      <c r="BZ22" s="85"/>
       <c r="CA22" s="34"/>
-      <c r="CD22" s="82"/>
-      <c r="CE22" s="82"/>
+      <c r="CD22" s="85"/>
+      <c r="CE22" s="85"/>
       <c r="CF22" s="34"/>
       <c r="CG22" s="71"/>
       <c r="CH22" s="72"/>
-      <c r="CI22" s="82"/>
-      <c r="CJ22" s="82"/>
+      <c r="CI22" s="85"/>
+      <c r="CJ22" s="85"/>
       <c r="CK22" s="34"/>
-      <c r="CN22" s="82"/>
-      <c r="CO22" s="82"/>
+      <c r="CN22" s="85"/>
+      <c r="CO22" s="85"/>
       <c r="CP22" s="34"/>
       <c r="CQ22" s="71"/>
       <c r="CR22" s="72"/>
-      <c r="CS22" s="82"/>
-      <c r="CT22" s="82"/>
+      <c r="CS22" s="85"/>
+      <c r="CT22" s="85"/>
       <c r="CU22" s="34"/>
     </row>
     <row r="23" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
       <c r="O23" s="39"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
       <c r="Y23" s="39"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
       <c r="AI23" s="39"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
       <c r="AP23" s="38"/>
-      <c r="AQ23" s="75"/>
-      <c r="AR23" s="75"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
       <c r="AS23" s="39"/>
       <c r="AT23" s="38"/>
       <c r="AU23" s="38"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
       <c r="AZ23" s="38"/>
-      <c r="BA23" s="75"/>
-      <c r="BB23" s="75"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
       <c r="BC23" s="39"/>
       <c r="BD23" s="38"/>
       <c r="BE23" s="38"/>
-      <c r="BF23" s="75"/>
-      <c r="BG23" s="75"/>
+      <c r="BF23" s="84"/>
+      <c r="BG23" s="84"/>
       <c r="BJ23" s="38"/>
-      <c r="BK23" s="75"/>
-      <c r="BL23" s="75"/>
+      <c r="BK23" s="84"/>
+      <c r="BL23" s="84"/>
       <c r="BM23" s="39"/>
       <c r="BN23" s="38"/>
       <c r="BO23" s="38"/>
-      <c r="BP23" s="75"/>
-      <c r="BQ23" s="75"/>
+      <c r="BP23" s="84"/>
+      <c r="BQ23" s="84"/>
       <c r="BT23" s="38"/>
-      <c r="BU23" s="75"/>
-      <c r="BV23" s="75"/>
+      <c r="BU23" s="84"/>
+      <c r="BV23" s="84"/>
       <c r="BW23" s="39"/>
       <c r="BX23" s="38"/>
       <c r="BY23" s="38"/>
-      <c r="BZ23" s="75"/>
-      <c r="CA23" s="75"/>
+      <c r="BZ23" s="84"/>
+      <c r="CA23" s="84"/>
       <c r="CD23" s="38"/>
-      <c r="CE23" s="75"/>
-      <c r="CF23" s="75"/>
+      <c r="CE23" s="84"/>
+      <c r="CF23" s="84"/>
       <c r="CG23" s="39"/>
       <c r="CH23" s="38"/>
       <c r="CI23" s="38"/>
-      <c r="CJ23" s="75"/>
-      <c r="CK23" s="75"/>
+      <c r="CJ23" s="84"/>
+      <c r="CK23" s="84"/>
       <c r="CN23" s="38"/>
-      <c r="CO23" s="75"/>
-      <c r="CP23" s="75"/>
+      <c r="CO23" s="84"/>
+      <c r="CP23" s="84"/>
       <c r="CQ23" s="39"/>
       <c r="CR23" s="38"/>
       <c r="CS23" s="38"/>
-      <c r="CT23" s="75"/>
-      <c r="CU23" s="75"/>
+      <c r="CT23" s="84"/>
+      <c r="CU23" s="84"/>
     </row>
     <row r="24" spans="2:99" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
       <c r="O24" s="42"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="V24" s="41"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
       <c r="Y24" s="42"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
       <c r="AF24" s="41"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="41"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="74"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
       <c r="AP24" s="41"/>
-      <c r="AQ24" s="74"/>
-      <c r="AR24" s="74"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
       <c r="AS24" s="42"/>
       <c r="AT24" s="43"/>
       <c r="AU24" s="41"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
       <c r="AZ24" s="41"/>
-      <c r="BA24" s="74"/>
-      <c r="BB24" s="74"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
       <c r="BC24" s="42"/>
       <c r="BD24" s="43"/>
       <c r="BE24" s="41"/>
-      <c r="BF24" s="74"/>
-      <c r="BG24" s="74"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
       <c r="BJ24" s="41"/>
-      <c r="BK24" s="74"/>
-      <c r="BL24" s="74"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="83"/>
       <c r="BM24" s="42"/>
       <c r="BN24" s="43"/>
       <c r="BO24" s="41"/>
-      <c r="BP24" s="74"/>
-      <c r="BQ24" s="74"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="74"/>
-      <c r="BV24" s="74"/>
+      <c r="BU24" s="83"/>
+      <c r="BV24" s="83"/>
       <c r="BW24" s="42"/>
       <c r="BX24" s="43"/>
       <c r="BY24" s="41"/>
-      <c r="BZ24" s="74"/>
-      <c r="CA24" s="74"/>
+      <c r="BZ24" s="83"/>
+      <c r="CA24" s="83"/>
       <c r="CD24" s="41"/>
-      <c r="CE24" s="74"/>
-      <c r="CF24" s="74"/>
+      <c r="CE24" s="83"/>
+      <c r="CF24" s="83"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="43"/>
       <c r="CI24" s="41"/>
-      <c r="CJ24" s="74"/>
-      <c r="CK24" s="74"/>
+      <c r="CJ24" s="83"/>
+      <c r="CK24" s="83"/>
       <c r="CN24" s="41"/>
-      <c r="CO24" s="74"/>
-      <c r="CP24" s="74"/>
+      <c r="CO24" s="83"/>
+      <c r="CP24" s="83"/>
       <c r="CQ24" s="42"/>
       <c r="CR24" s="43"/>
       <c r="CS24" s="41"/>
-      <c r="CT24" s="74"/>
-      <c r="CU24" s="74"/>
+      <c r="CT24" s="83"/>
+      <c r="CU24" s="83"/>
     </row>
     <row r="25" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
       <c r="O25" s="39"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
       <c r="V25" s="38"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
       <c r="AF25" s="38"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
       <c r="AI25" s="39"/>
       <c r="AJ25" s="38"/>
       <c r="AK25" s="38"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
       <c r="AP25" s="38"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="75"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
       <c r="AS25" s="39"/>
       <c r="AT25" s="38"/>
       <c r="AU25" s="38"/>
-      <c r="AV25" s="75"/>
-      <c r="AW25" s="75"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
       <c r="AZ25" s="38"/>
-      <c r="BA25" s="75"/>
-      <c r="BB25" s="75"/>
+      <c r="BA25" s="84"/>
+      <c r="BB25" s="84"/>
       <c r="BC25" s="39"/>
       <c r="BD25" s="38"/>
       <c r="BE25" s="38"/>
-      <c r="BF25" s="75"/>
-      <c r="BG25" s="75"/>
+      <c r="BF25" s="84"/>
+      <c r="BG25" s="84"/>
       <c r="BJ25" s="38"/>
-      <c r="BK25" s="75"/>
-      <c r="BL25" s="75"/>
+      <c r="BK25" s="84"/>
+      <c r="BL25" s="84"/>
       <c r="BM25" s="39"/>
       <c r="BN25" s="38"/>
       <c r="BO25" s="38"/>
-      <c r="BP25" s="75"/>
-      <c r="BQ25" s="75"/>
+      <c r="BP25" s="84"/>
+      <c r="BQ25" s="84"/>
       <c r="BT25" s="38"/>
-      <c r="BU25" s="75"/>
-      <c r="BV25" s="75"/>
+      <c r="BU25" s="84"/>
+      <c r="BV25" s="84"/>
       <c r="BW25" s="39"/>
       <c r="BX25" s="38"/>
       <c r="BY25" s="38"/>
-      <c r="BZ25" s="75"/>
-      <c r="CA25" s="75"/>
+      <c r="BZ25" s="84"/>
+      <c r="CA25" s="84"/>
       <c r="CD25" s="38"/>
-      <c r="CE25" s="75"/>
-      <c r="CF25" s="75"/>
+      <c r="CE25" s="84"/>
+      <c r="CF25" s="84"/>
       <c r="CG25" s="39"/>
       <c r="CH25" s="38"/>
       <c r="CI25" s="38"/>
-      <c r="CJ25" s="75"/>
-      <c r="CK25" s="75"/>
+      <c r="CJ25" s="84"/>
+      <c r="CK25" s="84"/>
       <c r="CN25" s="38"/>
-      <c r="CO25" s="75"/>
-      <c r="CP25" s="75"/>
+      <c r="CO25" s="84"/>
+      <c r="CP25" s="84"/>
       <c r="CQ25" s="39"/>
       <c r="CR25" s="38"/>
       <c r="CS25" s="38"/>
-      <c r="CT25" s="75"/>
-      <c r="CU25" s="75"/>
+      <c r="CT25" s="84"/>
+      <c r="CU25" s="84"/>
     </row>
     <row r="26" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="39"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
       <c r="V26" s="45"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="45"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
       <c r="AF26" s="45"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
       <c r="AI26" s="39"/>
       <c r="AJ26" s="38"/>
       <c r="AK26" s="45"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
       <c r="AP26" s="45"/>
-      <c r="AQ26" s="88"/>
-      <c r="AR26" s="88"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
       <c r="AS26" s="39"/>
       <c r="AT26" s="38"/>
       <c r="AU26" s="45"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
       <c r="AZ26" s="38"/>
-      <c r="BA26" s="75"/>
-      <c r="BB26" s="75"/>
+      <c r="BA26" s="84"/>
+      <c r="BB26" s="84"/>
       <c r="BC26" s="39"/>
       <c r="BD26" s="38"/>
       <c r="BE26" s="38"/>
-      <c r="BF26" s="75"/>
-      <c r="BG26" s="75"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
       <c r="BJ26" s="38"/>
-      <c r="BK26" s="75"/>
-      <c r="BL26" s="75"/>
+      <c r="BK26" s="84"/>
+      <c r="BL26" s="84"/>
       <c r="BM26" s="39"/>
       <c r="BN26" s="38"/>
       <c r="BO26" s="38"/>
-      <c r="BP26" s="75"/>
-      <c r="BQ26" s="75"/>
+      <c r="BP26" s="84"/>
+      <c r="BQ26" s="84"/>
       <c r="BT26" s="38"/>
-      <c r="BU26" s="75"/>
-      <c r="BV26" s="75"/>
+      <c r="BU26" s="84"/>
+      <c r="BV26" s="84"/>
       <c r="BW26" s="39"/>
       <c r="BX26" s="38"/>
       <c r="BY26" s="38"/>
-      <c r="BZ26" s="75"/>
-      <c r="CA26" s="75"/>
+      <c r="BZ26" s="84"/>
+      <c r="CA26" s="84"/>
       <c r="CD26" s="38"/>
-      <c r="CE26" s="75"/>
-      <c r="CF26" s="75"/>
+      <c r="CE26" s="84"/>
+      <c r="CF26" s="84"/>
       <c r="CG26" s="39"/>
       <c r="CH26" s="38"/>
       <c r="CI26" s="38"/>
-      <c r="CJ26" s="75"/>
-      <c r="CK26" s="75"/>
+      <c r="CJ26" s="84"/>
+      <c r="CK26" s="84"/>
       <c r="CN26" s="38"/>
-      <c r="CO26" s="75"/>
-      <c r="CP26" s="75"/>
+      <c r="CO26" s="84"/>
+      <c r="CP26" s="84"/>
       <c r="CQ26" s="39"/>
       <c r="CR26" s="38"/>
       <c r="CS26" s="38"/>
-      <c r="CT26" s="75"/>
-      <c r="CU26" s="75"/>
+      <c r="CT26" s="84"/>
+      <c r="CU26" s="84"/>
     </row>
     <row r="27" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="22"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="22"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AP27" s="89"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="89"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
       <c r="AS27" s="22"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AZ27" s="76"/>
-      <c r="BA27" s="76"/>
-      <c r="BB27" s="76"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
       <c r="BC27" s="22"/>
       <c r="BD27" s="3"/>
-      <c r="BE27" s="76"/>
-      <c r="BF27" s="76"/>
-      <c r="BG27" s="76"/>
-      <c r="BJ27" s="76"/>
-      <c r="BK27" s="76"/>
-      <c r="BL27" s="76"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="90"/>
+      <c r="BG27" s="90"/>
+      <c r="BJ27" s="90"/>
+      <c r="BK27" s="90"/>
+      <c r="BL27" s="90"/>
       <c r="BM27" s="22"/>
       <c r="BN27" s="3"/>
-      <c r="BO27" s="76"/>
-      <c r="BP27" s="76"/>
-      <c r="BQ27" s="76"/>
-      <c r="BT27" s="76"/>
-      <c r="BU27" s="76"/>
-      <c r="BV27" s="76"/>
+      <c r="BO27" s="90"/>
+      <c r="BP27" s="90"/>
+      <c r="BQ27" s="90"/>
+      <c r="BT27" s="90"/>
+      <c r="BU27" s="90"/>
+      <c r="BV27" s="90"/>
       <c r="BW27" s="22"/>
       <c r="BX27" s="3"/>
-      <c r="BY27" s="76"/>
-      <c r="BZ27" s="76"/>
-      <c r="CA27" s="76"/>
-      <c r="CD27" s="76"/>
-      <c r="CE27" s="76"/>
-      <c r="CF27" s="76"/>
+      <c r="BY27" s="90"/>
+      <c r="BZ27" s="90"/>
+      <c r="CA27" s="90"/>
+      <c r="CD27" s="90"/>
+      <c r="CE27" s="90"/>
+      <c r="CF27" s="90"/>
       <c r="CG27" s="22"/>
       <c r="CH27" s="3"/>
-      <c r="CI27" s="76"/>
-      <c r="CJ27" s="76"/>
-      <c r="CK27" s="76"/>
-      <c r="CN27" s="76"/>
-      <c r="CO27" s="76"/>
-      <c r="CP27" s="76"/>
+      <c r="CI27" s="90"/>
+      <c r="CJ27" s="90"/>
+      <c r="CK27" s="90"/>
+      <c r="CN27" s="90"/>
+      <c r="CO27" s="90"/>
+      <c r="CP27" s="90"/>
       <c r="CQ27" s="22"/>
       <c r="CR27" s="3"/>
-      <c r="CS27" s="76"/>
-      <c r="CT27" s="76"/>
-      <c r="CU27" s="76"/>
+      <c r="CS27" s="90"/>
+      <c r="CT27" s="90"/>
+      <c r="CU27" s="90"/>
     </row>
     <row r="28" spans="2:99" s="18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="25"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="25"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="17"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AP28" s="81"/>
+      <c r="AQ28" s="81"/>
+      <c r="AR28" s="81"/>
       <c r="AS28" s="25"/>
       <c r="AT28" s="17"/>
-      <c r="AU28" s="85"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="85"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
+      <c r="AU28" s="81"/>
+      <c r="AV28" s="81"/>
+      <c r="AW28" s="81"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="90"/>
+      <c r="BB28" s="90"/>
       <c r="BC28" s="25"/>
       <c r="BD28" s="17"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
+      <c r="BE28" s="90"/>
+      <c r="BF28" s="90"/>
+      <c r="BG28" s="90"/>
+      <c r="BJ28" s="90"/>
+      <c r="BK28" s="90"/>
+      <c r="BL28" s="90"/>
       <c r="BM28" s="25"/>
       <c r="BN28" s="17"/>
-      <c r="BO28" s="76"/>
-      <c r="BP28" s="76"/>
-      <c r="BQ28" s="76"/>
-      <c r="BT28" s="76"/>
-      <c r="BU28" s="76"/>
-      <c r="BV28" s="76"/>
+      <c r="BO28" s="90"/>
+      <c r="BP28" s="90"/>
+      <c r="BQ28" s="90"/>
+      <c r="BT28" s="90"/>
+      <c r="BU28" s="90"/>
+      <c r="BV28" s="90"/>
       <c r="BW28" s="25"/>
       <c r="BX28" s="17"/>
-      <c r="BY28" s="76"/>
-      <c r="BZ28" s="76"/>
-      <c r="CA28" s="76"/>
-      <c r="CD28" s="76"/>
-      <c r="CE28" s="76"/>
-      <c r="CF28" s="76"/>
+      <c r="BY28" s="90"/>
+      <c r="BZ28" s="90"/>
+      <c r="CA28" s="90"/>
+      <c r="CD28" s="90"/>
+      <c r="CE28" s="90"/>
+      <c r="CF28" s="90"/>
       <c r="CG28" s="25"/>
       <c r="CH28" s="17"/>
-      <c r="CI28" s="76"/>
-      <c r="CJ28" s="76"/>
-      <c r="CK28" s="76"/>
-      <c r="CN28" s="76"/>
-      <c r="CO28" s="76"/>
-      <c r="CP28" s="76"/>
+      <c r="CI28" s="90"/>
+      <c r="CJ28" s="90"/>
+      <c r="CK28" s="90"/>
+      <c r="CN28" s="90"/>
+      <c r="CO28" s="90"/>
+      <c r="CP28" s="90"/>
       <c r="CQ28" s="25"/>
       <c r="CR28" s="17"/>
-      <c r="CS28" s="76"/>
-      <c r="CT28" s="76"/>
-      <c r="CU28" s="76"/>
+      <c r="CS28" s="90"/>
+      <c r="CT28" s="90"/>
+      <c r="CU28" s="90"/>
     </row>
     <row r="29" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="39"/>
       <c r="P29" s="38"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
       <c r="AI29" s="39"/>
       <c r="AJ29" s="38"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="80"/>
       <c r="AS29" s="39"/>
       <c r="AT29" s="38"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77"/>
-      <c r="BB29" s="77"/>
+      <c r="AU29" s="80"/>
+      <c r="AV29" s="80"/>
+      <c r="AW29" s="80"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
       <c r="BC29" s="39"/>
       <c r="BD29" s="38"/>
-      <c r="BE29" s="77"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="77"/>
-      <c r="BJ29" s="77"/>
-      <c r="BK29" s="77"/>
-      <c r="BL29" s="77"/>
+      <c r="BE29" s="91"/>
+      <c r="BF29" s="91"/>
+      <c r="BG29" s="91"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="91"/>
+      <c r="BL29" s="91"/>
       <c r="BM29" s="39"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="77"/>
-      <c r="BP29" s="77"/>
-      <c r="BQ29" s="77"/>
-      <c r="BT29" s="77"/>
-      <c r="BU29" s="77"/>
-      <c r="BV29" s="77"/>
+      <c r="BO29" s="91"/>
+      <c r="BP29" s="91"/>
+      <c r="BQ29" s="91"/>
+      <c r="BT29" s="91"/>
+      <c r="BU29" s="91"/>
+      <c r="BV29" s="91"/>
       <c r="BW29" s="39"/>
       <c r="BX29" s="38"/>
-      <c r="BY29" s="77"/>
-      <c r="BZ29" s="77"/>
-      <c r="CA29" s="77"/>
-      <c r="CD29" s="77"/>
-      <c r="CE29" s="77"/>
-      <c r="CF29" s="77"/>
+      <c r="BY29" s="91"/>
+      <c r="BZ29" s="91"/>
+      <c r="CA29" s="91"/>
+      <c r="CD29" s="91"/>
+      <c r="CE29" s="91"/>
+      <c r="CF29" s="91"/>
       <c r="CG29" s="39"/>
       <c r="CH29" s="38"/>
-      <c r="CI29" s="77"/>
-      <c r="CJ29" s="77"/>
-      <c r="CK29" s="77"/>
-      <c r="CN29" s="77"/>
-      <c r="CO29" s="77"/>
-      <c r="CP29" s="77"/>
+      <c r="CI29" s="91"/>
+      <c r="CJ29" s="91"/>
+      <c r="CK29" s="91"/>
+      <c r="CN29" s="91"/>
+      <c r="CO29" s="91"/>
+      <c r="CP29" s="91"/>
       <c r="CQ29" s="39"/>
       <c r="CR29" s="38"/>
-      <c r="CS29" s="77"/>
-      <c r="CT29" s="77"/>
-      <c r="CU29" s="77"/>
+      <c r="CS29" s="91"/>
+      <c r="CT29" s="91"/>
+      <c r="CU29" s="91"/>
     </row>
     <row r="30" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="22"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
       <c r="O30" s="22"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
       <c r="Y30" s="22"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
       <c r="AS30" s="22"/>
       <c r="AT30" s="3"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AZ30" s="78"/>
-      <c r="BA30" s="78"/>
-      <c r="BB30" s="78"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AZ30" s="92"/>
+      <c r="BA30" s="92"/>
+      <c r="BB30" s="92"/>
       <c r="BC30" s="22"/>
       <c r="BD30" s="3"/>
-      <c r="BE30" s="78"/>
-      <c r="BF30" s="78"/>
-      <c r="BG30" s="78"/>
-      <c r="BJ30" s="78"/>
-      <c r="BK30" s="78"/>
-      <c r="BL30" s="78"/>
+      <c r="BE30" s="92"/>
+      <c r="BF30" s="92"/>
+      <c r="BG30" s="92"/>
+      <c r="BJ30" s="92"/>
+      <c r="BK30" s="92"/>
+      <c r="BL30" s="92"/>
       <c r="BM30" s="22"/>
       <c r="BN30" s="3"/>
-      <c r="BO30" s="78"/>
-      <c r="BP30" s="78"/>
-      <c r="BQ30" s="78"/>
-      <c r="BT30" s="78"/>
-      <c r="BU30" s="78"/>
-      <c r="BV30" s="78"/>
+      <c r="BO30" s="92"/>
+      <c r="BP30" s="92"/>
+      <c r="BQ30" s="92"/>
+      <c r="BT30" s="92"/>
+      <c r="BU30" s="92"/>
+      <c r="BV30" s="92"/>
       <c r="BW30" s="22"/>
       <c r="BX30" s="3"/>
-      <c r="BY30" s="78"/>
-      <c r="BZ30" s="78"/>
-      <c r="CA30" s="78"/>
-      <c r="CD30" s="78"/>
-      <c r="CE30" s="78"/>
-      <c r="CF30" s="78"/>
+      <c r="BY30" s="92"/>
+      <c r="BZ30" s="92"/>
+      <c r="CA30" s="92"/>
+      <c r="CD30" s="92"/>
+      <c r="CE30" s="92"/>
+      <c r="CF30" s="92"/>
       <c r="CG30" s="22"/>
       <c r="CH30" s="3"/>
-      <c r="CI30" s="78"/>
-      <c r="CJ30" s="78"/>
-      <c r="CK30" s="78"/>
-      <c r="CN30" s="78"/>
-      <c r="CO30" s="78"/>
-      <c r="CP30" s="78"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="92"/>
+      <c r="CK30" s="92"/>
+      <c r="CN30" s="92"/>
+      <c r="CO30" s="92"/>
+      <c r="CP30" s="92"/>
       <c r="CQ30" s="22"/>
       <c r="CR30" s="3"/>
-      <c r="CS30" s="78"/>
-      <c r="CT30" s="78"/>
-      <c r="CU30" s="78"/>
+      <c r="CS30" s="92"/>
+      <c r="CT30" s="92"/>
+      <c r="CU30" s="92"/>
     </row>
     <row r="31" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="22"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="22"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
       <c r="AS31" s="22"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AZ31" s="78"/>
-      <c r="BA31" s="78"/>
-      <c r="BB31" s="78"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="92"/>
+      <c r="BB31" s="92"/>
       <c r="BC31" s="22"/>
       <c r="BD31" s="3"/>
-      <c r="BE31" s="78"/>
-      <c r="BF31" s="78"/>
-      <c r="BG31" s="78"/>
-      <c r="BJ31" s="78"/>
-      <c r="BK31" s="78"/>
-      <c r="BL31" s="78"/>
+      <c r="BE31" s="92"/>
+      <c r="BF31" s="92"/>
+      <c r="BG31" s="92"/>
+      <c r="BJ31" s="92"/>
+      <c r="BK31" s="92"/>
+      <c r="BL31" s="92"/>
       <c r="BM31" s="22"/>
       <c r="BN31" s="3"/>
-      <c r="BO31" s="78"/>
-      <c r="BP31" s="78"/>
-      <c r="BQ31" s="78"/>
-      <c r="BT31" s="78"/>
-      <c r="BU31" s="78"/>
-      <c r="BV31" s="78"/>
+      <c r="BO31" s="92"/>
+      <c r="BP31" s="92"/>
+      <c r="BQ31" s="92"/>
+      <c r="BT31" s="92"/>
+      <c r="BU31" s="92"/>
+      <c r="BV31" s="92"/>
       <c r="BW31" s="22"/>
       <c r="BX31" s="3"/>
-      <c r="BY31" s="78"/>
-      <c r="BZ31" s="78"/>
-      <c r="CA31" s="78"/>
-      <c r="CD31" s="78"/>
-      <c r="CE31" s="78"/>
-      <c r="CF31" s="78"/>
+      <c r="BY31" s="92"/>
+      <c r="BZ31" s="92"/>
+      <c r="CA31" s="92"/>
+      <c r="CD31" s="92"/>
+      <c r="CE31" s="92"/>
+      <c r="CF31" s="92"/>
       <c r="CG31" s="22"/>
       <c r="CH31" s="3"/>
-      <c r="CI31" s="78"/>
-      <c r="CJ31" s="78"/>
-      <c r="CK31" s="78"/>
-      <c r="CN31" s="78"/>
-      <c r="CO31" s="78"/>
-      <c r="CP31" s="78"/>
+      <c r="CI31" s="92"/>
+      <c r="CJ31" s="92"/>
+      <c r="CK31" s="92"/>
+      <c r="CN31" s="92"/>
+      <c r="CO31" s="92"/>
+      <c r="CP31" s="92"/>
       <c r="CQ31" s="22"/>
       <c r="CR31" s="3"/>
-      <c r="CS31" s="78"/>
-      <c r="CT31" s="78"/>
-      <c r="CU31" s="78"/>
+      <c r="CS31" s="92"/>
+      <c r="CT31" s="92"/>
+      <c r="CU31" s="92"/>
     </row>
     <row r="32" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="22"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
       <c r="O32" s="22"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="79"/>
+      <c r="AM32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
       <c r="AS32" s="22"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AZ32" s="78"/>
-      <c r="BA32" s="78"/>
-      <c r="BB32" s="78"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AZ32" s="92"/>
+      <c r="BA32" s="92"/>
+      <c r="BB32" s="92"/>
       <c r="BC32" s="22"/>
       <c r="BD32" s="3"/>
-      <c r="BE32" s="78"/>
-      <c r="BF32" s="78"/>
-      <c r="BG32" s="78"/>
-      <c r="BJ32" s="78"/>
-      <c r="BK32" s="78"/>
-      <c r="BL32" s="78"/>
+      <c r="BE32" s="92"/>
+      <c r="BF32" s="92"/>
+      <c r="BG32" s="92"/>
+      <c r="BJ32" s="92"/>
+      <c r="BK32" s="92"/>
+      <c r="BL32" s="92"/>
       <c r="BM32" s="22"/>
       <c r="BN32" s="3"/>
-      <c r="BO32" s="78"/>
-      <c r="BP32" s="78"/>
-      <c r="BQ32" s="78"/>
-      <c r="BT32" s="78"/>
-      <c r="BU32" s="78"/>
-      <c r="BV32" s="78"/>
+      <c r="BO32" s="92"/>
+      <c r="BP32" s="92"/>
+      <c r="BQ32" s="92"/>
+      <c r="BT32" s="92"/>
+      <c r="BU32" s="92"/>
+      <c r="BV32" s="92"/>
       <c r="BW32" s="22"/>
       <c r="BX32" s="3"/>
-      <c r="BY32" s="78"/>
-      <c r="BZ32" s="78"/>
-      <c r="CA32" s="78"/>
-      <c r="CD32" s="78"/>
-      <c r="CE32" s="78"/>
-      <c r="CF32" s="78"/>
+      <c r="BY32" s="92"/>
+      <c r="BZ32" s="92"/>
+      <c r="CA32" s="92"/>
+      <c r="CD32" s="92"/>
+      <c r="CE32" s="92"/>
+      <c r="CF32" s="92"/>
       <c r="CG32" s="22"/>
       <c r="CH32" s="3"/>
-      <c r="CI32" s="78"/>
-      <c r="CJ32" s="78"/>
-      <c r="CK32" s="78"/>
-      <c r="CN32" s="78"/>
-      <c r="CO32" s="78"/>
-      <c r="CP32" s="78"/>
+      <c r="CI32" s="92"/>
+      <c r="CJ32" s="92"/>
+      <c r="CK32" s="92"/>
+      <c r="CN32" s="92"/>
+      <c r="CO32" s="92"/>
+      <c r="CP32" s="92"/>
       <c r="CQ32" s="22"/>
       <c r="CR32" s="3"/>
-      <c r="CS32" s="78"/>
-      <c r="CT32" s="78"/>
-      <c r="CU32" s="78"/>
+      <c r="CS32" s="92"/>
+      <c r="CT32" s="92"/>
+      <c r="CU32" s="92"/>
     </row>
     <row r="33" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="39"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
       <c r="O33" s="39"/>
       <c r="P33" s="38"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
       <c r="Y33" s="39"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
       <c r="AI33" s="39"/>
       <c r="AJ33" s="38"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="84"/>
-      <c r="AP33" s="84"/>
-      <c r="AQ33" s="84"/>
-      <c r="AR33" s="84"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
       <c r="AS33" s="39"/>
       <c r="AT33" s="38"/>
-      <c r="AU33" s="84"/>
-      <c r="AV33" s="84"/>
-      <c r="AW33" s="84"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
+      <c r="AW33" s="76"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
       <c r="BC33" s="39"/>
       <c r="BD33" s="38"/>
-      <c r="BE33" s="77"/>
-      <c r="BF33" s="77"/>
-      <c r="BG33" s="77"/>
-      <c r="BJ33" s="77"/>
-      <c r="BK33" s="77"/>
-      <c r="BL33" s="77"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="91"/>
+      <c r="BG33" s="91"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
+      <c r="BL33" s="91"/>
       <c r="BM33" s="39"/>
       <c r="BN33" s="38"/>
-      <c r="BO33" s="77"/>
-      <c r="BP33" s="77"/>
-      <c r="BQ33" s="77"/>
-      <c r="BT33" s="77"/>
-      <c r="BU33" s="77"/>
-      <c r="BV33" s="77"/>
+      <c r="BO33" s="91"/>
+      <c r="BP33" s="91"/>
+      <c r="BQ33" s="91"/>
+      <c r="BT33" s="91"/>
+      <c r="BU33" s="91"/>
+      <c r="BV33" s="91"/>
       <c r="BW33" s="39"/>
       <c r="BX33" s="38"/>
-      <c r="BY33" s="77"/>
-      <c r="BZ33" s="77"/>
-      <c r="CA33" s="77"/>
-      <c r="CD33" s="77"/>
-      <c r="CE33" s="77"/>
-      <c r="CF33" s="77"/>
+      <c r="BY33" s="91"/>
+      <c r="BZ33" s="91"/>
+      <c r="CA33" s="91"/>
+      <c r="CD33" s="91"/>
+      <c r="CE33" s="91"/>
+      <c r="CF33" s="91"/>
       <c r="CG33" s="39"/>
       <c r="CH33" s="38"/>
-      <c r="CI33" s="77"/>
-      <c r="CJ33" s="77"/>
-      <c r="CK33" s="77"/>
-      <c r="CN33" s="77"/>
-      <c r="CO33" s="77"/>
-      <c r="CP33" s="77"/>
+      <c r="CI33" s="91"/>
+      <c r="CJ33" s="91"/>
+      <c r="CK33" s="91"/>
+      <c r="CN33" s="91"/>
+      <c r="CO33" s="91"/>
+      <c r="CP33" s="91"/>
       <c r="CQ33" s="39"/>
       <c r="CR33" s="38"/>
-      <c r="CS33" s="77"/>
-      <c r="CT33" s="77"/>
-      <c r="CU33" s="77"/>
+      <c r="CS33" s="91"/>
+      <c r="CT33" s="91"/>
+      <c r="CU33" s="91"/>
     </row>
     <row r="34" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="22"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
       <c r="O34" s="22"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="91"/>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="92"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="92"/>
-      <c r="AR34" s="92"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="75"/>
       <c r="AS34" s="22"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="92"/>
-      <c r="AW34" s="92"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="75"/>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="3"/>
       <c r="BB34" s="6"/>
@@ -3815,46 +3815,46 @@
       <c r="CU34" s="6"/>
     </row>
     <row r="35" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="39"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="39"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
       <c r="Y35" s="39"/>
       <c r="Z35" s="38"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
       <c r="AI35" s="39"/>
       <c r="AJ35" s="38"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
-      <c r="AM35" s="84"/>
-      <c r="AP35" s="84"/>
-      <c r="AQ35" s="84"/>
-      <c r="AR35" s="84"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
       <c r="AS35" s="39"/>
       <c r="AT35" s="38"/>
-      <c r="AU35" s="84"/>
-      <c r="AV35" s="84"/>
-      <c r="AW35" s="84"/>
+      <c r="AU35" s="76"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="76"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="32"/>
@@ -3897,41 +3897,41 @@
       <c r="CU35" s="32"/>
     </row>
     <row r="36" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="22"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
       <c r="O36" s="22"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
       <c r="Y36" s="22"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="89"/>
-      <c r="AC36" s="89"/>
-      <c r="AF36" s="90"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
+      <c r="AA36" s="77"/>
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="78"/>
+      <c r="AF36" s="77"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
       <c r="AI36" s="22"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="89"/>
-      <c r="AM36" s="89"/>
-      <c r="AP36" s="90"/>
-      <c r="AQ36" s="89"/>
-      <c r="AR36" s="89"/>
+      <c r="AK36" s="77"/>
+      <c r="AL36" s="78"/>
+      <c r="AM36" s="78"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="78"/>
+      <c r="AR36" s="78"/>
       <c r="AS36" s="22"/>
-      <c r="AU36" s="90"/>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
+      <c r="AU36" s="77"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
       <c r="BC36" s="22"/>
       <c r="BM36" s="22"/>
       <c r="BW36" s="22"/>
@@ -4024,6 +4024,557 @@
     </row>
   </sheetData>
   <mergeCells count="575">
+    <mergeCell ref="CO24:CP24"/>
+    <mergeCell ref="CT24:CU24"/>
+    <mergeCell ref="CO25:CP25"/>
+    <mergeCell ref="CT25:CU25"/>
+    <mergeCell ref="CO26:CP26"/>
+    <mergeCell ref="CT26:CU26"/>
+    <mergeCell ref="CN27:CP27"/>
+    <mergeCell ref="CS27:CU27"/>
+    <mergeCell ref="CN33:CP33"/>
+    <mergeCell ref="CS33:CU33"/>
+    <mergeCell ref="CN28:CP28"/>
+    <mergeCell ref="CS28:CU28"/>
+    <mergeCell ref="CN29:CP29"/>
+    <mergeCell ref="CS29:CU29"/>
+    <mergeCell ref="CN30:CP30"/>
+    <mergeCell ref="CS30:CU30"/>
+    <mergeCell ref="CN31:CP31"/>
+    <mergeCell ref="CS31:CU31"/>
+    <mergeCell ref="CN32:CP32"/>
+    <mergeCell ref="CS32:CU32"/>
+    <mergeCell ref="CS12:CU12"/>
+    <mergeCell ref="CN13:CP13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CN21:CP21"/>
+    <mergeCell ref="CS21:CU21"/>
+    <mergeCell ref="CN22:CO22"/>
+    <mergeCell ref="CS22:CT22"/>
+    <mergeCell ref="CO23:CP23"/>
+    <mergeCell ref="CT23:CU23"/>
+    <mergeCell ref="CD33:CF33"/>
+    <mergeCell ref="CI33:CK33"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CS1:CU1"/>
+    <mergeCell ref="CN2:CO2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CT3:CU3"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CT4:CU4"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CO6:CP6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CS7:CU7"/>
+    <mergeCell ref="CN8:CP8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CN9:CP9"/>
+    <mergeCell ref="CS9:CU9"/>
+    <mergeCell ref="CN10:CP10"/>
+    <mergeCell ref="CS10:CU10"/>
+    <mergeCell ref="CN11:CP11"/>
+    <mergeCell ref="CS11:CU11"/>
+    <mergeCell ref="CN12:CP12"/>
+    <mergeCell ref="CD28:CF28"/>
+    <mergeCell ref="CI28:CK28"/>
+    <mergeCell ref="CD29:CF29"/>
+    <mergeCell ref="CI29:CK29"/>
+    <mergeCell ref="CD30:CF30"/>
+    <mergeCell ref="CI30:CK30"/>
+    <mergeCell ref="CD31:CF31"/>
+    <mergeCell ref="CI31:CK31"/>
+    <mergeCell ref="CD32:CF32"/>
+    <mergeCell ref="CI32:CK32"/>
+    <mergeCell ref="CE23:CF23"/>
+    <mergeCell ref="CJ23:CK23"/>
+    <mergeCell ref="CE24:CF24"/>
+    <mergeCell ref="CJ24:CK24"/>
+    <mergeCell ref="CE25:CF25"/>
+    <mergeCell ref="CJ25:CK25"/>
+    <mergeCell ref="CE26:CF26"/>
+    <mergeCell ref="CJ26:CK26"/>
+    <mergeCell ref="CD27:CF27"/>
+    <mergeCell ref="CI27:CK27"/>
+    <mergeCell ref="CD11:CF11"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CI13:CK13"/>
+    <mergeCell ref="CD21:CF21"/>
+    <mergeCell ref="CI21:CK21"/>
+    <mergeCell ref="CD22:CE22"/>
+    <mergeCell ref="CI22:CJ22"/>
+    <mergeCell ref="CE6:CF6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CI7:CK7"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CI8:CK8"/>
+    <mergeCell ref="CD9:CF9"/>
+    <mergeCell ref="CI9:CK9"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="CI10:CK10"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CJ5:CK5"/>
+    <mergeCell ref="BT29:BV29"/>
+    <mergeCell ref="BY29:CA29"/>
+    <mergeCell ref="BT30:BV30"/>
+    <mergeCell ref="BY30:CA30"/>
+    <mergeCell ref="BT31:BV31"/>
+    <mergeCell ref="BY31:CA31"/>
+    <mergeCell ref="BT32:BV32"/>
+    <mergeCell ref="BY32:CA32"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="BY33:CA33"/>
+    <mergeCell ref="BU24:BV24"/>
+    <mergeCell ref="BZ24:CA24"/>
+    <mergeCell ref="BU25:BV25"/>
+    <mergeCell ref="BZ25:CA25"/>
+    <mergeCell ref="BU26:BV26"/>
+    <mergeCell ref="BZ26:CA26"/>
+    <mergeCell ref="BT27:BV27"/>
+    <mergeCell ref="BY27:CA27"/>
+    <mergeCell ref="BT28:BV28"/>
+    <mergeCell ref="BY28:CA28"/>
+    <mergeCell ref="BY12:CA12"/>
+    <mergeCell ref="BT13:BV13"/>
+    <mergeCell ref="BY13:CA13"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="BY21:CA21"/>
+    <mergeCell ref="BT22:BU22"/>
+    <mergeCell ref="BY22:BZ22"/>
+    <mergeCell ref="BU23:BV23"/>
+    <mergeCell ref="BZ23:CA23"/>
+    <mergeCell ref="BJ33:BL33"/>
+    <mergeCell ref="BO33:BQ33"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BY7:CA7"/>
+    <mergeCell ref="BT8:BV8"/>
+    <mergeCell ref="BY8:CA8"/>
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BY9:CA9"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BY10:CA10"/>
+    <mergeCell ref="BT11:BV11"/>
+    <mergeCell ref="BY11:CA11"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="BJ28:BL28"/>
+    <mergeCell ref="BO28:BQ28"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BO29:BQ29"/>
+    <mergeCell ref="BJ30:BL30"/>
+    <mergeCell ref="BO30:BQ30"/>
+    <mergeCell ref="BJ31:BL31"/>
+    <mergeCell ref="BO31:BQ31"/>
+    <mergeCell ref="BJ32:BL32"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BK23:BL23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="BK24:BL24"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="BK25:BL25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="BK26:BL26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="BJ27:BL27"/>
+    <mergeCell ref="BO27:BQ27"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="BO12:BQ12"/>
+    <mergeCell ref="BJ13:BL13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BO21:BQ21"/>
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="BO22:BP22"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BO7:BQ7"/>
+    <mergeCell ref="BJ8:BL8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BJ9:BL9"/>
+    <mergeCell ref="BO9:BQ9"/>
+    <mergeCell ref="BJ10:BL10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="AZ29:BB29"/>
+    <mergeCell ref="BE29:BG29"/>
+    <mergeCell ref="AZ30:BB30"/>
+    <mergeCell ref="BE30:BG30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BE31:BG31"/>
+    <mergeCell ref="AZ32:BB32"/>
+    <mergeCell ref="BE32:BG32"/>
+    <mergeCell ref="AZ33:BB33"/>
+    <mergeCell ref="BE33:BG33"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BF24:BG24"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BF26:BG26"/>
+    <mergeCell ref="AZ27:BB27"/>
+    <mergeCell ref="BE27:BG27"/>
+    <mergeCell ref="AZ28:BB28"/>
+    <mergeCell ref="BE28:BG28"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="AZ13:BB13"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="AZ21:BB21"/>
+    <mergeCell ref="BE21:BG21"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BE22:BF22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BE7:BG7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="BE9:BG9"/>
+    <mergeCell ref="AZ10:BB10"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="V33:X33"/>
     <mergeCell ref="AF34:AH34"/>
     <mergeCell ref="AK34:AM34"/>
     <mergeCell ref="AF35:AH35"/>
@@ -4048,557 +4599,6 @@
     <mergeCell ref="AK9:AM9"/>
     <mergeCell ref="AU7:AW7"/>
     <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AU22:AV22"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BE7:BG7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="BE9:BG9"/>
-    <mergeCell ref="AZ10:BB10"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="AZ13:BB13"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="AZ21:BB21"/>
-    <mergeCell ref="BE21:BG21"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BE22:BF22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BF24:BG24"/>
-    <mergeCell ref="BA25:BB25"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BF26:BG26"/>
-    <mergeCell ref="AZ27:BB27"/>
-    <mergeCell ref="BE27:BG27"/>
-    <mergeCell ref="AZ28:BB28"/>
-    <mergeCell ref="BE28:BG28"/>
-    <mergeCell ref="AZ29:BB29"/>
-    <mergeCell ref="BE29:BG29"/>
-    <mergeCell ref="AZ30:BB30"/>
-    <mergeCell ref="BE30:BG30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BE31:BG31"/>
-    <mergeCell ref="AZ32:BB32"/>
-    <mergeCell ref="BE32:BG32"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="BE33:BG33"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BO7:BQ7"/>
-    <mergeCell ref="BJ8:BL8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BJ9:BL9"/>
-    <mergeCell ref="BO9:BQ9"/>
-    <mergeCell ref="BJ10:BL10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="BO12:BQ12"/>
-    <mergeCell ref="BJ13:BL13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BO21:BQ21"/>
-    <mergeCell ref="BJ22:BK22"/>
-    <mergeCell ref="BO22:BP22"/>
-    <mergeCell ref="BK23:BL23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="BK24:BL24"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="BK25:BL25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="BK26:BL26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="BJ27:BL27"/>
-    <mergeCell ref="BO27:BQ27"/>
-    <mergeCell ref="BJ28:BL28"/>
-    <mergeCell ref="BO28:BQ28"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BO29:BQ29"/>
-    <mergeCell ref="BJ30:BL30"/>
-    <mergeCell ref="BO30:BQ30"/>
-    <mergeCell ref="BJ31:BL31"/>
-    <mergeCell ref="BO31:BQ31"/>
-    <mergeCell ref="BJ32:BL32"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BJ33:BL33"/>
-    <mergeCell ref="BO33:BQ33"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="BY7:CA7"/>
-    <mergeCell ref="BT8:BV8"/>
-    <mergeCell ref="BY8:CA8"/>
-    <mergeCell ref="BT9:BV9"/>
-    <mergeCell ref="BY9:CA9"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="BY10:CA10"/>
-    <mergeCell ref="BT11:BV11"/>
-    <mergeCell ref="BY11:CA11"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="BY12:CA12"/>
-    <mergeCell ref="BT13:BV13"/>
-    <mergeCell ref="BY13:CA13"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="BY21:CA21"/>
-    <mergeCell ref="BT22:BU22"/>
-    <mergeCell ref="BY22:BZ22"/>
-    <mergeCell ref="BU23:BV23"/>
-    <mergeCell ref="BZ23:CA23"/>
-    <mergeCell ref="BU24:BV24"/>
-    <mergeCell ref="BZ24:CA24"/>
-    <mergeCell ref="BU25:BV25"/>
-    <mergeCell ref="BZ25:CA25"/>
-    <mergeCell ref="BU26:BV26"/>
-    <mergeCell ref="BZ26:CA26"/>
-    <mergeCell ref="BT27:BV27"/>
-    <mergeCell ref="BY27:CA27"/>
-    <mergeCell ref="BT28:BV28"/>
-    <mergeCell ref="BY28:CA28"/>
-    <mergeCell ref="BT29:BV29"/>
-    <mergeCell ref="BY29:CA29"/>
-    <mergeCell ref="BT30:BV30"/>
-    <mergeCell ref="BY30:CA30"/>
-    <mergeCell ref="BT31:BV31"/>
-    <mergeCell ref="BY31:CA31"/>
-    <mergeCell ref="BT32:BV32"/>
-    <mergeCell ref="BY32:CA32"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="BY33:CA33"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CJ5:CK5"/>
-    <mergeCell ref="CE6:CF6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CI7:CK7"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CI8:CK8"/>
-    <mergeCell ref="CD9:CF9"/>
-    <mergeCell ref="CI9:CK9"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="CI10:CK10"/>
-    <mergeCell ref="CD11:CF11"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CI13:CK13"/>
-    <mergeCell ref="CD21:CF21"/>
-    <mergeCell ref="CI21:CK21"/>
-    <mergeCell ref="CD22:CE22"/>
-    <mergeCell ref="CI22:CJ22"/>
-    <mergeCell ref="CE23:CF23"/>
-    <mergeCell ref="CJ23:CK23"/>
-    <mergeCell ref="CE24:CF24"/>
-    <mergeCell ref="CJ24:CK24"/>
-    <mergeCell ref="CE25:CF25"/>
-    <mergeCell ref="CJ25:CK25"/>
-    <mergeCell ref="CE26:CF26"/>
-    <mergeCell ref="CJ26:CK26"/>
-    <mergeCell ref="CD27:CF27"/>
-    <mergeCell ref="CI27:CK27"/>
-    <mergeCell ref="CD28:CF28"/>
-    <mergeCell ref="CI28:CK28"/>
-    <mergeCell ref="CD29:CF29"/>
-    <mergeCell ref="CI29:CK29"/>
-    <mergeCell ref="CD30:CF30"/>
-    <mergeCell ref="CI30:CK30"/>
-    <mergeCell ref="CD31:CF31"/>
-    <mergeCell ref="CI31:CK31"/>
-    <mergeCell ref="CD32:CF32"/>
-    <mergeCell ref="CI32:CK32"/>
-    <mergeCell ref="CD33:CF33"/>
-    <mergeCell ref="CI33:CK33"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CS1:CU1"/>
-    <mergeCell ref="CN2:CO2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CT3:CU3"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CT4:CU4"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CO6:CP6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="CS7:CU7"/>
-    <mergeCell ref="CN8:CP8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CN9:CP9"/>
-    <mergeCell ref="CS9:CU9"/>
-    <mergeCell ref="CN10:CP10"/>
-    <mergeCell ref="CS10:CU10"/>
-    <mergeCell ref="CN11:CP11"/>
-    <mergeCell ref="CS11:CU11"/>
-    <mergeCell ref="CN12:CP12"/>
-    <mergeCell ref="CS12:CU12"/>
-    <mergeCell ref="CN13:CP13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CN21:CP21"/>
-    <mergeCell ref="CS21:CU21"/>
-    <mergeCell ref="CN22:CO22"/>
-    <mergeCell ref="CS22:CT22"/>
-    <mergeCell ref="CO23:CP23"/>
-    <mergeCell ref="CT23:CU23"/>
-    <mergeCell ref="CO24:CP24"/>
-    <mergeCell ref="CT24:CU24"/>
-    <mergeCell ref="CO25:CP25"/>
-    <mergeCell ref="CT25:CU25"/>
-    <mergeCell ref="CO26:CP26"/>
-    <mergeCell ref="CT26:CU26"/>
-    <mergeCell ref="CN27:CP27"/>
-    <mergeCell ref="CS27:CU27"/>
-    <mergeCell ref="CN33:CP33"/>
-    <mergeCell ref="CS33:CU33"/>
-    <mergeCell ref="CN28:CP28"/>
-    <mergeCell ref="CS28:CU28"/>
-    <mergeCell ref="CN29:CP29"/>
-    <mergeCell ref="CS29:CU29"/>
-    <mergeCell ref="CN30:CP30"/>
-    <mergeCell ref="CS30:CU30"/>
-    <mergeCell ref="CN31:CP31"/>
-    <mergeCell ref="CS31:CU31"/>
-    <mergeCell ref="CN32:CP32"/>
-    <mergeCell ref="CS32:CU32"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/formQR.xlsx
+++ b/formQR.xlsx
@@ -30,6 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,62 +525,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,6 +652,315 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1019175" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="600075" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1019175" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="600075" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1019175" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="600075" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1019175" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="600075" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -945,1214 +1255,1214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="2.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="2.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="51" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="71" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="81" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="91" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="101" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="1" width="2.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="2.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="50" max="51" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="60" max="61" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="70" max="71" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="75" max="75" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="79" max="79" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="80" max="81" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="87" max="87" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="88" max="88" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="90" max="91" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="94" max="94" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="95" max="95" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
+    <col min="96" max="96" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
+    <col min="97" max="97" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="98" max="98" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="99" max="99" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="100" max="101" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="102" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:99" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="39"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
       <c r="O1" s="39"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
       <c r="Y1" s="39"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="38"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
       <c r="AS1" s="39"/>
       <c r="AT1" s="38"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
       <c r="BC1" s="39"/>
       <c r="BD1" s="38"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="86"/>
-      <c r="BL1" s="86"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
       <c r="BM1" s="39"/>
       <c r="BN1" s="38"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="86"/>
-      <c r="BT1" s="86"/>
-      <c r="BU1" s="86"/>
-      <c r="BV1" s="86"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="81"/>
+      <c r="BQ1" s="81"/>
+      <c r="BT1" s="81"/>
+      <c r="BU1" s="81"/>
+      <c r="BV1" s="81"/>
       <c r="BW1" s="39"/>
       <c r="BX1" s="38"/>
-      <c r="BY1" s="86"/>
-      <c r="BZ1" s="86"/>
-      <c r="CA1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="81"/>
+      <c r="CA1" s="81"/>
+      <c r="CD1" s="81"/>
+      <c r="CE1" s="81"/>
+      <c r="CF1" s="81"/>
       <c r="CG1" s="39"/>
       <c r="CH1" s="38"/>
-      <c r="CI1" s="86"/>
-      <c r="CJ1" s="86"/>
-      <c r="CK1" s="86"/>
-      <c r="CN1" s="86"/>
-      <c r="CO1" s="86"/>
-      <c r="CP1" s="86"/>
+      <c r="CI1" s="81"/>
+      <c r="CJ1" s="81"/>
+      <c r="CK1" s="81"/>
+      <c r="CN1" s="81"/>
+      <c r="CO1" s="81"/>
+      <c r="CP1" s="81"/>
       <c r="CQ1" s="39"/>
       <c r="CR1" s="38"/>
-      <c r="CS1" s="86"/>
-      <c r="CT1" s="86"/>
-      <c r="CU1" s="86"/>
+      <c r="CS1" s="81"/>
+      <c r="CT1" s="81"/>
+      <c r="CU1" s="81"/>
     </row>
     <row r="2" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="34"/>
       <c r="E2" s="71"/>
       <c r="F2" s="72"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="34"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="34"/>
       <c r="O2" s="71"/>
       <c r="P2" s="72"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="34"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
       <c r="X2" s="34"/>
       <c r="Y2" s="71"/>
       <c r="Z2" s="72"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
       <c r="AC2" s="34"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
       <c r="AH2" s="34"/>
       <c r="AI2" s="71"/>
       <c r="AJ2" s="72"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
       <c r="AM2" s="34"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="71"/>
       <c r="AT2" s="72"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
       <c r="AW2" s="34"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
       <c r="BB2" s="34"/>
       <c r="BC2" s="71"/>
       <c r="BD2" s="72"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
       <c r="BG2" s="34"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
       <c r="BL2" s="34"/>
       <c r="BM2" s="71"/>
       <c r="BN2" s="72"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
       <c r="BQ2" s="34"/>
-      <c r="BT2" s="85"/>
-      <c r="BU2" s="85"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
       <c r="BV2" s="34"/>
       <c r="BW2" s="71"/>
       <c r="BX2" s="72"/>
-      <c r="BY2" s="85"/>
-      <c r="BZ2" s="85"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
       <c r="CA2" s="34"/>
-      <c r="CD2" s="85"/>
-      <c r="CE2" s="85"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
       <c r="CF2" s="34"/>
       <c r="CG2" s="71"/>
       <c r="CH2" s="72"/>
-      <c r="CI2" s="85"/>
-      <c r="CJ2" s="85"/>
+      <c r="CI2" s="82"/>
+      <c r="CJ2" s="82"/>
       <c r="CK2" s="34"/>
-      <c r="CN2" s="85"/>
-      <c r="CO2" s="85"/>
+      <c r="CN2" s="82"/>
+      <c r="CO2" s="82"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="71"/>
       <c r="CR2" s="72"/>
-      <c r="CS2" s="85"/>
-      <c r="CT2" s="85"/>
+      <c r="CS2" s="82"/>
+      <c r="CT2" s="82"/>
       <c r="CU2" s="34"/>
     </row>
     <row r="3" spans="2:99" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="50"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
       <c r="O3" s="50"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
       <c r="V3" s="49"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
       <c r="Y3" s="50"/>
       <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
       <c r="AF3" s="49"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
       <c r="AI3" s="50"/>
       <c r="AJ3" s="49"/>
       <c r="AK3" s="49"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
       <c r="AP3" s="49"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
       <c r="AS3" s="50"/>
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
       <c r="AZ3" s="49"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
       <c r="BC3" s="50"/>
       <c r="BD3" s="49"/>
       <c r="BE3" s="49"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="75"/>
       <c r="BJ3" s="49"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
       <c r="BM3" s="50"/>
       <c r="BN3" s="49"/>
       <c r="BO3" s="49"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
       <c r="BT3" s="49"/>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="84"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
       <c r="BW3" s="50"/>
       <c r="BX3" s="49"/>
       <c r="BY3" s="49"/>
-      <c r="BZ3" s="84"/>
-      <c r="CA3" s="84"/>
+      <c r="BZ3" s="75"/>
+      <c r="CA3" s="75"/>
       <c r="CD3" s="49"/>
-      <c r="CE3" s="84"/>
-      <c r="CF3" s="84"/>
+      <c r="CE3" s="75"/>
+      <c r="CF3" s="75"/>
       <c r="CG3" s="50"/>
       <c r="CH3" s="49"/>
       <c r="CI3" s="49"/>
-      <c r="CJ3" s="84"/>
-      <c r="CK3" s="84"/>
+      <c r="CJ3" s="75"/>
+      <c r="CK3" s="75"/>
       <c r="CN3" s="49"/>
-      <c r="CO3" s="84"/>
-      <c r="CP3" s="84"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
       <c r="CQ3" s="50"/>
       <c r="CR3" s="49"/>
       <c r="CS3" s="49"/>
-      <c r="CT3" s="84"/>
-      <c r="CU3" s="84"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="75"/>
     </row>
     <row r="4" spans="2:99" s="51" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="53"/>
       <c r="F4" s="54"/>
       <c r="G4" s="52"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="L4" s="52"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="53"/>
       <c r="P4" s="54"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
       <c r="V4" s="52"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
       <c r="Y4" s="53"/>
       <c r="Z4" s="54"/>
       <c r="AA4" s="52"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
       <c r="AF4" s="52"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
       <c r="AI4" s="53"/>
       <c r="AJ4" s="54"/>
       <c r="AK4" s="52"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
       <c r="AP4" s="52"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="83"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
       <c r="AS4" s="53"/>
       <c r="AT4" s="54"/>
       <c r="AU4" s="52"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
       <c r="AZ4" s="52"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
       <c r="BC4" s="53"/>
       <c r="BD4" s="54"/>
       <c r="BE4" s="52"/>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="83"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="74"/>
       <c r="BJ4" s="52"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="83"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
       <c r="BM4" s="53"/>
       <c r="BN4" s="54"/>
       <c r="BO4" s="52"/>
-      <c r="BP4" s="83"/>
-      <c r="BQ4" s="83"/>
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="74"/>
       <c r="BT4" s="52"/>
-      <c r="BU4" s="83"/>
-      <c r="BV4" s="83"/>
+      <c r="BU4" s="74"/>
+      <c r="BV4" s="74"/>
       <c r="BW4" s="53"/>
       <c r="BX4" s="54"/>
       <c r="BY4" s="52"/>
-      <c r="BZ4" s="83"/>
-      <c r="CA4" s="83"/>
+      <c r="BZ4" s="74"/>
+      <c r="CA4" s="74"/>
       <c r="CD4" s="52"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="83"/>
+      <c r="CE4" s="74"/>
+      <c r="CF4" s="74"/>
       <c r="CG4" s="53"/>
       <c r="CH4" s="54"/>
       <c r="CI4" s="52"/>
-      <c r="CJ4" s="83"/>
-      <c r="CK4" s="83"/>
+      <c r="CJ4" s="74"/>
+      <c r="CK4" s="74"/>
       <c r="CN4" s="52"/>
-      <c r="CO4" s="83"/>
-      <c r="CP4" s="83"/>
+      <c r="CO4" s="74"/>
+      <c r="CP4" s="74"/>
       <c r="CQ4" s="53"/>
       <c r="CR4" s="54"/>
       <c r="CS4" s="52"/>
-      <c r="CT4" s="83"/>
-      <c r="CU4" s="83"/>
+      <c r="CT4" s="74"/>
+      <c r="CU4" s="74"/>
     </row>
     <row r="5" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="22"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
       <c r="O5" s="22"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
       <c r="Y5" s="22"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
       <c r="AS5" s="22"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
       <c r="AZ5" s="3"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
       <c r="BC5" s="22"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="84"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
       <c r="BJ5" s="3"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
       <c r="BM5" s="22"/>
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
       <c r="BT5" s="3"/>
-      <c r="BU5" s="84"/>
-      <c r="BV5" s="84"/>
+      <c r="BU5" s="75"/>
+      <c r="BV5" s="75"/>
       <c r="BW5" s="22"/>
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
-      <c r="BZ5" s="84"/>
-      <c r="CA5" s="84"/>
+      <c r="BZ5" s="75"/>
+      <c r="CA5" s="75"/>
       <c r="CD5" s="3"/>
-      <c r="CE5" s="84"/>
-      <c r="CF5" s="84"/>
+      <c r="CE5" s="75"/>
+      <c r="CF5" s="75"/>
       <c r="CG5" s="22"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="84"/>
-      <c r="CK5" s="84"/>
+      <c r="CJ5" s="75"/>
+      <c r="CK5" s="75"/>
       <c r="CN5" s="3"/>
-      <c r="CO5" s="84"/>
-      <c r="CP5" s="84"/>
+      <c r="CO5" s="75"/>
+      <c r="CP5" s="75"/>
       <c r="CQ5" s="22"/>
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
-      <c r="CT5" s="84"/>
-      <c r="CU5" s="84"/>
+      <c r="CT5" s="75"/>
+      <c r="CU5" s="75"/>
     </row>
     <row r="6" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="22"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="22"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
       <c r="AF6" s="13"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
       <c r="AS6" s="22"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
       <c r="AZ6" s="3"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
       <c r="BC6" s="22"/>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
-      <c r="BF6" s="84"/>
-      <c r="BG6" s="84"/>
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="75"/>
       <c r="BJ6" s="3"/>
-      <c r="BK6" s="84"/>
-      <c r="BL6" s="84"/>
+      <c r="BK6" s="75"/>
+      <c r="BL6" s="75"/>
       <c r="BM6" s="22"/>
       <c r="BN6" s="3"/>
       <c r="BO6" s="3"/>
-      <c r="BP6" s="84"/>
-      <c r="BQ6" s="84"/>
+      <c r="BP6" s="75"/>
+      <c r="BQ6" s="75"/>
       <c r="BT6" s="3"/>
-      <c r="BU6" s="84"/>
-      <c r="BV6" s="84"/>
+      <c r="BU6" s="75"/>
+      <c r="BV6" s="75"/>
       <c r="BW6" s="22"/>
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
-      <c r="BZ6" s="84"/>
-      <c r="CA6" s="84"/>
+      <c r="BZ6" s="75"/>
+      <c r="CA6" s="75"/>
       <c r="CD6" s="3"/>
-      <c r="CE6" s="84"/>
-      <c r="CF6" s="84"/>
+      <c r="CE6" s="75"/>
+      <c r="CF6" s="75"/>
       <c r="CG6" s="22"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="84"/>
-      <c r="CK6" s="84"/>
+      <c r="CJ6" s="75"/>
+      <c r="CK6" s="75"/>
       <c r="CN6" s="3"/>
-      <c r="CO6" s="84"/>
-      <c r="CP6" s="84"/>
+      <c r="CO6" s="75"/>
+      <c r="CP6" s="75"/>
       <c r="CQ6" s="22"/>
       <c r="CR6" s="3"/>
       <c r="CS6" s="3"/>
-      <c r="CT6" s="84"/>
-      <c r="CU6" s="84"/>
+      <c r="CT6" s="75"/>
+      <c r="CU6" s="75"/>
     </row>
     <row r="7" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="23"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="23"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
       <c r="AI7" s="23"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
       <c r="AS7" s="23"/>
       <c r="AT7" s="7"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="23"/>
       <c r="BD7" s="7"/>
-      <c r="BE7" s="87"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="87"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
       <c r="BJ7" s="9"/>
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="23"/>
       <c r="BN7" s="7"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="87"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
       <c r="BW7" s="23"/>
       <c r="BX7" s="7"/>
-      <c r="BY7" s="87"/>
-      <c r="BZ7" s="87"/>
-      <c r="CA7" s="87"/>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="83"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9"/>
       <c r="CF7" s="9"/>
       <c r="CG7" s="23"/>
       <c r="CH7" s="7"/>
-      <c r="CI7" s="87"/>
-      <c r="CJ7" s="87"/>
-      <c r="CK7" s="87"/>
+      <c r="CI7" s="83"/>
+      <c r="CJ7" s="83"/>
+      <c r="CK7" s="83"/>
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="23"/>
       <c r="CR7" s="7"/>
-      <c r="CS7" s="87"/>
-      <c r="CT7" s="87"/>
-      <c r="CU7" s="87"/>
+      <c r="CS7" s="83"/>
+      <c r="CT7" s="83"/>
+      <c r="CU7" s="83"/>
     </row>
     <row r="8" spans="2:99" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="24"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="24"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="19"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
       <c r="AS8" s="24"/>
       <c r="AT8" s="19"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
       <c r="BC8" s="24"/>
       <c r="BD8" s="19"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87"/>
-      <c r="BJ8" s="87"/>
-      <c r="BK8" s="87"/>
-      <c r="BL8" s="87"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="83"/>
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="83"/>
+      <c r="BL8" s="83"/>
       <c r="BM8" s="24"/>
       <c r="BN8" s="19"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="87"/>
-      <c r="BQ8" s="87"/>
-      <c r="BT8" s="87"/>
-      <c r="BU8" s="87"/>
-      <c r="BV8" s="87"/>
+      <c r="BO8" s="83"/>
+      <c r="BP8" s="83"/>
+      <c r="BQ8" s="83"/>
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="83"/>
+      <c r="BV8" s="83"/>
       <c r="BW8" s="24"/>
       <c r="BX8" s="19"/>
-      <c r="BY8" s="87"/>
-      <c r="BZ8" s="87"/>
-      <c r="CA8" s="87"/>
-      <c r="CD8" s="87"/>
-      <c r="CE8" s="87"/>
-      <c r="CF8" s="87"/>
+      <c r="BY8" s="83"/>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CD8" s="83"/>
+      <c r="CE8" s="83"/>
+      <c r="CF8" s="83"/>
       <c r="CG8" s="24"/>
       <c r="CH8" s="19"/>
-      <c r="CI8" s="87"/>
-      <c r="CJ8" s="87"/>
-      <c r="CK8" s="87"/>
-      <c r="CN8" s="87"/>
-      <c r="CO8" s="87"/>
-      <c r="CP8" s="87"/>
+      <c r="CI8" s="83"/>
+      <c r="CJ8" s="83"/>
+      <c r="CK8" s="83"/>
+      <c r="CN8" s="83"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="83"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="19"/>
-      <c r="CS8" s="87"/>
-      <c r="CT8" s="87"/>
-      <c r="CU8" s="87"/>
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="83"/>
+      <c r="CU8" s="83"/>
     </row>
     <row r="9" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="23"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="23"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
       <c r="AI9" s="23"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="80"/>
-      <c r="AV9" s="80"/>
-      <c r="AW9" s="80"/>
-      <c r="AZ9" s="88"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="88"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AZ9" s="80"/>
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
       <c r="BC9" s="23"/>
       <c r="BD9" s="7"/>
-      <c r="BE9" s="88"/>
-      <c r="BF9" s="88"/>
-      <c r="BG9" s="88"/>
-      <c r="BJ9" s="88"/>
-      <c r="BK9" s="88"/>
-      <c r="BL9" s="88"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BJ9" s="80"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="80"/>
       <c r="BM9" s="23"/>
       <c r="BN9" s="7"/>
-      <c r="BO9" s="88"/>
-      <c r="BP9" s="88"/>
-      <c r="BQ9" s="88"/>
-      <c r="BT9" s="88"/>
-      <c r="BU9" s="88"/>
-      <c r="BV9" s="88"/>
+      <c r="BO9" s="80"/>
+      <c r="BP9" s="80"/>
+      <c r="BQ9" s="80"/>
+      <c r="BT9" s="80"/>
+      <c r="BU9" s="80"/>
+      <c r="BV9" s="80"/>
       <c r="BW9" s="23"/>
       <c r="BX9" s="7"/>
-      <c r="BY9" s="88"/>
-      <c r="BZ9" s="88"/>
-      <c r="CA9" s="88"/>
-      <c r="CD9" s="88"/>
-      <c r="CE9" s="88"/>
-      <c r="CF9" s="88"/>
+      <c r="BY9" s="80"/>
+      <c r="BZ9" s="80"/>
+      <c r="CA9" s="80"/>
+      <c r="CD9" s="80"/>
+      <c r="CE9" s="80"/>
+      <c r="CF9" s="80"/>
       <c r="CG9" s="23"/>
       <c r="CH9" s="7"/>
-      <c r="CI9" s="88"/>
-      <c r="CJ9" s="88"/>
-      <c r="CK9" s="88"/>
-      <c r="CN9" s="88"/>
-      <c r="CO9" s="88"/>
-      <c r="CP9" s="88"/>
+      <c r="CI9" s="80"/>
+      <c r="CJ9" s="80"/>
+      <c r="CK9" s="80"/>
+      <c r="CN9" s="80"/>
+      <c r="CO9" s="80"/>
+      <c r="CP9" s="80"/>
       <c r="CQ9" s="23"/>
       <c r="CR9" s="7"/>
-      <c r="CS9" s="88"/>
-      <c r="CT9" s="88"/>
-      <c r="CU9" s="88"/>
+      <c r="CS9" s="80"/>
+      <c r="CT9" s="80"/>
+      <c r="CU9" s="80"/>
     </row>
     <row r="10" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="23"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="23"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
       <c r="AS10" s="23"/>
       <c r="AT10" s="7"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
       <c r="BC10" s="23"/>
       <c r="BD10" s="7"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="79"/>
       <c r="BM10" s="23"/>
       <c r="BN10" s="7"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
-      <c r="BQ10" s="89"/>
-      <c r="BT10" s="89"/>
-      <c r="BU10" s="89"/>
-      <c r="BV10" s="89"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
       <c r="BW10" s="23"/>
       <c r="BX10" s="7"/>
-      <c r="BY10" s="89"/>
-      <c r="BZ10" s="89"/>
-      <c r="CA10" s="89"/>
-      <c r="CD10" s="89"/>
-      <c r="CE10" s="89"/>
-      <c r="CF10" s="89"/>
+      <c r="BY10" s="79"/>
+      <c r="BZ10" s="79"/>
+      <c r="CA10" s="79"/>
+      <c r="CD10" s="79"/>
+      <c r="CE10" s="79"/>
+      <c r="CF10" s="79"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="7"/>
-      <c r="CI10" s="89"/>
-      <c r="CJ10" s="89"/>
-      <c r="CK10" s="89"/>
-      <c r="CN10" s="89"/>
-      <c r="CO10" s="89"/>
-      <c r="CP10" s="89"/>
+      <c r="CI10" s="79"/>
+      <c r="CJ10" s="79"/>
+      <c r="CK10" s="79"/>
+      <c r="CN10" s="79"/>
+      <c r="CO10" s="79"/>
+      <c r="CP10" s="79"/>
       <c r="CQ10" s="23"/>
       <c r="CR10" s="7"/>
-      <c r="CS10" s="89"/>
-      <c r="CT10" s="89"/>
-      <c r="CU10" s="89"/>
+      <c r="CS10" s="79"/>
+      <c r="CT10" s="79"/>
+      <c r="CU10" s="79"/>
     </row>
     <row r="11" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="23"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="23"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
       <c r="AI11" s="23"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
       <c r="AS11" s="23"/>
       <c r="AT11" s="7"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
       <c r="BC11" s="23"/>
       <c r="BD11" s="7"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="89"/>
+      <c r="BE11" s="79"/>
+      <c r="BF11" s="79"/>
+      <c r="BG11" s="79"/>
+      <c r="BJ11" s="79"/>
+      <c r="BK11" s="79"/>
+      <c r="BL11" s="79"/>
       <c r="BM11" s="23"/>
       <c r="BN11" s="7"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BT11" s="89"/>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
+      <c r="BO11" s="79"/>
+      <c r="BP11" s="79"/>
+      <c r="BQ11" s="79"/>
+      <c r="BT11" s="79"/>
+      <c r="BU11" s="79"/>
+      <c r="BV11" s="79"/>
       <c r="BW11" s="23"/>
       <c r="BX11" s="7"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
+      <c r="BY11" s="79"/>
+      <c r="BZ11" s="79"/>
+      <c r="CA11" s="79"/>
+      <c r="CD11" s="79"/>
+      <c r="CE11" s="79"/>
+      <c r="CF11" s="79"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="7"/>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="89"/>
-      <c r="CP11" s="89"/>
+      <c r="CI11" s="79"/>
+      <c r="CJ11" s="79"/>
+      <c r="CK11" s="79"/>
+      <c r="CN11" s="79"/>
+      <c r="CO11" s="79"/>
+      <c r="CP11" s="79"/>
       <c r="CQ11" s="23"/>
       <c r="CR11" s="7"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="89"/>
+      <c r="CS11" s="79"/>
+      <c r="CT11" s="79"/>
+      <c r="CU11" s="79"/>
     </row>
     <row r="12" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="23"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="23"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
       <c r="AI12" s="23"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
       <c r="AS12" s="23"/>
       <c r="AT12" s="7"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AZ12" s="79"/>
+      <c r="BA12" s="79"/>
+      <c r="BB12" s="79"/>
       <c r="BC12" s="23"/>
       <c r="BD12" s="7"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BJ12" s="89"/>
-      <c r="BK12" s="89"/>
-      <c r="BL12" s="89"/>
+      <c r="BE12" s="79"/>
+      <c r="BF12" s="79"/>
+      <c r="BG12" s="79"/>
+      <c r="BJ12" s="79"/>
+      <c r="BK12" s="79"/>
+      <c r="BL12" s="79"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="7"/>
-      <c r="BO12" s="89"/>
-      <c r="BP12" s="89"/>
-      <c r="BQ12" s="89"/>
-      <c r="BT12" s="89"/>
-      <c r="BU12" s="89"/>
-      <c r="BV12" s="89"/>
+      <c r="BO12" s="79"/>
+      <c r="BP12" s="79"/>
+      <c r="BQ12" s="79"/>
+      <c r="BT12" s="79"/>
+      <c r="BU12" s="79"/>
+      <c r="BV12" s="79"/>
       <c r="BW12" s="23"/>
       <c r="BX12" s="7"/>
-      <c r="BY12" s="89"/>
-      <c r="BZ12" s="89"/>
-      <c r="CA12" s="89"/>
-      <c r="CD12" s="89"/>
-      <c r="CE12" s="89"/>
-      <c r="CF12" s="89"/>
+      <c r="BY12" s="79"/>
+      <c r="BZ12" s="79"/>
+      <c r="CA12" s="79"/>
+      <c r="CD12" s="79"/>
+      <c r="CE12" s="79"/>
+      <c r="CF12" s="79"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="7"/>
-      <c r="CI12" s="89"/>
-      <c r="CJ12" s="89"/>
-      <c r="CK12" s="89"/>
-      <c r="CN12" s="89"/>
-      <c r="CO12" s="89"/>
-      <c r="CP12" s="89"/>
+      <c r="CI12" s="79"/>
+      <c r="CJ12" s="79"/>
+      <c r="CK12" s="79"/>
+      <c r="CN12" s="79"/>
+      <c r="CO12" s="79"/>
+      <c r="CP12" s="79"/>
       <c r="CQ12" s="23"/>
       <c r="CR12" s="7"/>
-      <c r="CS12" s="89"/>
-      <c r="CT12" s="89"/>
-      <c r="CU12" s="89"/>
+      <c r="CS12" s="79"/>
+      <c r="CT12" s="79"/>
+      <c r="CU12" s="79"/>
     </row>
     <row r="13" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="35"/>
       <c r="P13" s="36"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="36"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
       <c r="AS13" s="35"/>
       <c r="AT13" s="36"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AZ13" s="88"/>
-      <c r="BA13" s="88"/>
-      <c r="BB13" s="88"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AZ13" s="80"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="36"/>
-      <c r="BE13" s="88"/>
-      <c r="BF13" s="88"/>
-      <c r="BG13" s="88"/>
-      <c r="BJ13" s="88"/>
-      <c r="BK13" s="88"/>
-      <c r="BL13" s="88"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="80"/>
+      <c r="BG13" s="80"/>
+      <c r="BJ13" s="80"/>
+      <c r="BK13" s="80"/>
+      <c r="BL13" s="80"/>
       <c r="BM13" s="35"/>
       <c r="BN13" s="36"/>
-      <c r="BO13" s="88"/>
-      <c r="BP13" s="88"/>
-      <c r="BQ13" s="88"/>
-      <c r="BT13" s="88"/>
-      <c r="BU13" s="88"/>
-      <c r="BV13" s="88"/>
+      <c r="BO13" s="80"/>
+      <c r="BP13" s="80"/>
+      <c r="BQ13" s="80"/>
+      <c r="BT13" s="80"/>
+      <c r="BU13" s="80"/>
+      <c r="BV13" s="80"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="36"/>
-      <c r="BY13" s="88"/>
-      <c r="BZ13" s="88"/>
-      <c r="CA13" s="88"/>
-      <c r="CD13" s="88"/>
-      <c r="CE13" s="88"/>
-      <c r="CF13" s="88"/>
+      <c r="BY13" s="80"/>
+      <c r="BZ13" s="80"/>
+      <c r="CA13" s="80"/>
+      <c r="CD13" s="80"/>
+      <c r="CE13" s="80"/>
+      <c r="CF13" s="80"/>
       <c r="CG13" s="35"/>
       <c r="CH13" s="36"/>
-      <c r="CI13" s="88"/>
-      <c r="CJ13" s="88"/>
-      <c r="CK13" s="88"/>
-      <c r="CN13" s="88"/>
-      <c r="CO13" s="88"/>
-      <c r="CP13" s="88"/>
+      <c r="CI13" s="80"/>
+      <c r="CJ13" s="80"/>
+      <c r="CK13" s="80"/>
+      <c r="CN13" s="80"/>
+      <c r="CO13" s="80"/>
+      <c r="CP13" s="80"/>
       <c r="CQ13" s="35"/>
       <c r="CR13" s="36"/>
-      <c r="CS13" s="88"/>
-      <c r="CT13" s="88"/>
-      <c r="CU13" s="88"/>
+      <c r="CS13" s="80"/>
+      <c r="CT13" s="80"/>
+      <c r="CU13" s="80"/>
     </row>
     <row r="14" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="23"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="23"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
       <c r="AS14" s="23"/>
       <c r="AT14" s="7"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -2195,46 +2505,46 @@
       <c r="CU14" s="10"/>
     </row>
     <row r="15" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="35"/>
       <c r="P15" s="36"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="36"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
       <c r="AS15" s="35"/>
       <c r="AT15" s="36"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
       <c r="AZ15" s="33"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="33"/>
@@ -2277,46 +2587,46 @@
       <c r="CU15" s="33"/>
     </row>
     <row r="16" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="23"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="23"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="89"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="89"/>
+      <c r="AR16" s="89"/>
       <c r="AS16" s="23"/>
       <c r="AT16" s="7"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
       <c r="AZ16" s="11"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="12"/>
@@ -2667,1112 +2977,1112 @@
       <c r="CU20" s="2"/>
     </row>
     <row r="21" spans="2:99" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="22"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
       <c r="O21" s="22"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="81"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="81"/>
       <c r="AS21" s="22"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
-      <c r="AZ21" s="86"/>
-      <c r="BA21" s="86"/>
-      <c r="BB21" s="86"/>
+      <c r="AU21" s="81"/>
+      <c r="AV21" s="81"/>
+      <c r="AW21" s="81"/>
+      <c r="AZ21" s="81"/>
+      <c r="BA21" s="81"/>
+      <c r="BB21" s="81"/>
       <c r="BC21" s="22"/>
       <c r="BD21" s="3"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="86"/>
-      <c r="BG21" s="86"/>
-      <c r="BJ21" s="86"/>
-      <c r="BK21" s="86"/>
-      <c r="BL21" s="86"/>
+      <c r="BE21" s="81"/>
+      <c r="BF21" s="81"/>
+      <c r="BG21" s="81"/>
+      <c r="BJ21" s="81"/>
+      <c r="BK21" s="81"/>
+      <c r="BL21" s="81"/>
       <c r="BM21" s="22"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="86"/>
-      <c r="BT21" s="86"/>
-      <c r="BU21" s="86"/>
-      <c r="BV21" s="86"/>
+      <c r="BO21" s="81"/>
+      <c r="BP21" s="81"/>
+      <c r="BQ21" s="81"/>
+      <c r="BT21" s="81"/>
+      <c r="BU21" s="81"/>
+      <c r="BV21" s="81"/>
       <c r="BW21" s="22"/>
       <c r="BX21" s="3"/>
-      <c r="BY21" s="86"/>
-      <c r="BZ21" s="86"/>
-      <c r="CA21" s="86"/>
-      <c r="CD21" s="86"/>
-      <c r="CE21" s="86"/>
-      <c r="CF21" s="86"/>
+      <c r="BY21" s="81"/>
+      <c r="BZ21" s="81"/>
+      <c r="CA21" s="81"/>
+      <c r="CD21" s="81"/>
+      <c r="CE21" s="81"/>
+      <c r="CF21" s="81"/>
       <c r="CG21" s="22"/>
       <c r="CH21" s="3"/>
-      <c r="CI21" s="86"/>
-      <c r="CJ21" s="86"/>
-      <c r="CK21" s="86"/>
-      <c r="CN21" s="86"/>
-      <c r="CO21" s="86"/>
-      <c r="CP21" s="86"/>
+      <c r="CI21" s="81"/>
+      <c r="CJ21" s="81"/>
+      <c r="CK21" s="81"/>
+      <c r="CN21" s="81"/>
+      <c r="CO21" s="81"/>
+      <c r="CP21" s="81"/>
       <c r="CQ21" s="22"/>
       <c r="CR21" s="3"/>
-      <c r="CS21" s="86"/>
-      <c r="CT21" s="86"/>
-      <c r="CU21" s="86"/>
+      <c r="CS21" s="81"/>
+      <c r="CT21" s="81"/>
+      <c r="CU21" s="81"/>
     </row>
     <row r="22" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="34"/>
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="34"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
       <c r="N22" s="34"/>
       <c r="O22" s="71"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
       <c r="S22" s="34"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="71"/>
       <c r="Z22" s="72"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
       <c r="AC22" s="34"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
       <c r="AH22" s="34"/>
       <c r="AI22" s="71"/>
       <c r="AJ22" s="72"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
       <c r="AM22" s="34"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
       <c r="AR22" s="34"/>
       <c r="AS22" s="71"/>
       <c r="AT22" s="72"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="82"/>
       <c r="AW22" s="34"/>
-      <c r="AZ22" s="85"/>
-      <c r="BA22" s="85"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="72"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="85"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
       <c r="BG22" s="34"/>
-      <c r="BJ22" s="85"/>
-      <c r="BK22" s="85"/>
+      <c r="BJ22" s="82"/>
+      <c r="BK22" s="82"/>
       <c r="BL22" s="34"/>
       <c r="BM22" s="71"/>
       <c r="BN22" s="72"/>
-      <c r="BO22" s="85"/>
-      <c r="BP22" s="85"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="82"/>
       <c r="BQ22" s="34"/>
-      <c r="BT22" s="85"/>
-      <c r="BU22" s="85"/>
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="82"/>
       <c r="BV22" s="34"/>
       <c r="BW22" s="71"/>
       <c r="BX22" s="72"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="85"/>
+      <c r="BY22" s="82"/>
+      <c r="BZ22" s="82"/>
       <c r="CA22" s="34"/>
-      <c r="CD22" s="85"/>
-      <c r="CE22" s="85"/>
+      <c r="CD22" s="82"/>
+      <c r="CE22" s="82"/>
       <c r="CF22" s="34"/>
       <c r="CG22" s="71"/>
       <c r="CH22" s="72"/>
-      <c r="CI22" s="85"/>
-      <c r="CJ22" s="85"/>
+      <c r="CI22" s="82"/>
+      <c r="CJ22" s="82"/>
       <c r="CK22" s="34"/>
-      <c r="CN22" s="85"/>
-      <c r="CO22" s="85"/>
+      <c r="CN22" s="82"/>
+      <c r="CO22" s="82"/>
       <c r="CP22" s="34"/>
       <c r="CQ22" s="71"/>
       <c r="CR22" s="72"/>
-      <c r="CS22" s="85"/>
-      <c r="CT22" s="85"/>
+      <c r="CS22" s="82"/>
+      <c r="CT22" s="82"/>
       <c r="CU22" s="34"/>
     </row>
     <row r="23" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
       <c r="O23" s="39"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
       <c r="Y23" s="39"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
       <c r="AI23" s="39"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
       <c r="AP23" s="38"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="84"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
       <c r="AS23" s="39"/>
       <c r="AT23" s="38"/>
       <c r="AU23" s="38"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="84"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
       <c r="AZ23" s="38"/>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="84"/>
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="75"/>
       <c r="BC23" s="39"/>
       <c r="BD23" s="38"/>
       <c r="BE23" s="38"/>
-      <c r="BF23" s="84"/>
-      <c r="BG23" s="84"/>
+      <c r="BF23" s="75"/>
+      <c r="BG23" s="75"/>
       <c r="BJ23" s="38"/>
-      <c r="BK23" s="84"/>
-      <c r="BL23" s="84"/>
+      <c r="BK23" s="75"/>
+      <c r="BL23" s="75"/>
       <c r="BM23" s="39"/>
       <c r="BN23" s="38"/>
       <c r="BO23" s="38"/>
-      <c r="BP23" s="84"/>
-      <c r="BQ23" s="84"/>
+      <c r="BP23" s="75"/>
+      <c r="BQ23" s="75"/>
       <c r="BT23" s="38"/>
-      <c r="BU23" s="84"/>
-      <c r="BV23" s="84"/>
+      <c r="BU23" s="75"/>
+      <c r="BV23" s="75"/>
       <c r="BW23" s="39"/>
       <c r="BX23" s="38"/>
       <c r="BY23" s="38"/>
-      <c r="BZ23" s="84"/>
-      <c r="CA23" s="84"/>
+      <c r="BZ23" s="75"/>
+      <c r="CA23" s="75"/>
       <c r="CD23" s="38"/>
-      <c r="CE23" s="84"/>
-      <c r="CF23" s="84"/>
+      <c r="CE23" s="75"/>
+      <c r="CF23" s="75"/>
       <c r="CG23" s="39"/>
       <c r="CH23" s="38"/>
       <c r="CI23" s="38"/>
-      <c r="CJ23" s="84"/>
-      <c r="CK23" s="84"/>
+      <c r="CJ23" s="75"/>
+      <c r="CK23" s="75"/>
       <c r="CN23" s="38"/>
-      <c r="CO23" s="84"/>
-      <c r="CP23" s="84"/>
+      <c r="CO23" s="75"/>
+      <c r="CP23" s="75"/>
       <c r="CQ23" s="39"/>
       <c r="CR23" s="38"/>
       <c r="CS23" s="38"/>
-      <c r="CT23" s="84"/>
-      <c r="CU23" s="84"/>
+      <c r="CT23" s="75"/>
+      <c r="CU23" s="75"/>
     </row>
     <row r="24" spans="2:99" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
       <c r="O24" s="42"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
       <c r="V24" s="41"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
       <c r="Y24" s="42"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
       <c r="AF24" s="41"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="41"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
       <c r="AP24" s="41"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
       <c r="AS24" s="42"/>
       <c r="AT24" s="43"/>
       <c r="AU24" s="41"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
       <c r="AZ24" s="41"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
       <c r="BC24" s="42"/>
       <c r="BD24" s="43"/>
       <c r="BE24" s="41"/>
-      <c r="BF24" s="83"/>
-      <c r="BG24" s="83"/>
+      <c r="BF24" s="74"/>
+      <c r="BG24" s="74"/>
       <c r="BJ24" s="41"/>
-      <c r="BK24" s="83"/>
-      <c r="BL24" s="83"/>
+      <c r="BK24" s="74"/>
+      <c r="BL24" s="74"/>
       <c r="BM24" s="42"/>
       <c r="BN24" s="43"/>
       <c r="BO24" s="41"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
+      <c r="BP24" s="74"/>
+      <c r="BQ24" s="74"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="83"/>
-      <c r="BV24" s="83"/>
+      <c r="BU24" s="74"/>
+      <c r="BV24" s="74"/>
       <c r="BW24" s="42"/>
       <c r="BX24" s="43"/>
       <c r="BY24" s="41"/>
-      <c r="BZ24" s="83"/>
-      <c r="CA24" s="83"/>
+      <c r="BZ24" s="74"/>
+      <c r="CA24" s="74"/>
       <c r="CD24" s="41"/>
-      <c r="CE24" s="83"/>
-      <c r="CF24" s="83"/>
+      <c r="CE24" s="74"/>
+      <c r="CF24" s="74"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="43"/>
       <c r="CI24" s="41"/>
-      <c r="CJ24" s="83"/>
-      <c r="CK24" s="83"/>
+      <c r="CJ24" s="74"/>
+      <c r="CK24" s="74"/>
       <c r="CN24" s="41"/>
-      <c r="CO24" s="83"/>
-      <c r="CP24" s="83"/>
+      <c r="CO24" s="74"/>
+      <c r="CP24" s="74"/>
       <c r="CQ24" s="42"/>
       <c r="CR24" s="43"/>
       <c r="CS24" s="41"/>
-      <c r="CT24" s="83"/>
-      <c r="CU24" s="83"/>
+      <c r="CT24" s="74"/>
+      <c r="CU24" s="74"/>
     </row>
     <row r="25" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="39"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
       <c r="V25" s="38"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
       <c r="AF25" s="38"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
       <c r="AI25" s="39"/>
       <c r="AJ25" s="38"/>
       <c r="AK25" s="38"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
       <c r="AP25" s="38"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="84"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="75"/>
       <c r="AS25" s="39"/>
       <c r="AT25" s="38"/>
       <c r="AU25" s="38"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
       <c r="AZ25" s="38"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
+      <c r="BA25" s="75"/>
+      <c r="BB25" s="75"/>
       <c r="BC25" s="39"/>
       <c r="BD25" s="38"/>
       <c r="BE25" s="38"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
+      <c r="BF25" s="75"/>
+      <c r="BG25" s="75"/>
       <c r="BJ25" s="38"/>
-      <c r="BK25" s="84"/>
-      <c r="BL25" s="84"/>
+      <c r="BK25" s="75"/>
+      <c r="BL25" s="75"/>
       <c r="BM25" s="39"/>
       <c r="BN25" s="38"/>
       <c r="BO25" s="38"/>
-      <c r="BP25" s="84"/>
-      <c r="BQ25" s="84"/>
+      <c r="BP25" s="75"/>
+      <c r="BQ25" s="75"/>
       <c r="BT25" s="38"/>
-      <c r="BU25" s="84"/>
-      <c r="BV25" s="84"/>
+      <c r="BU25" s="75"/>
+      <c r="BV25" s="75"/>
       <c r="BW25" s="39"/>
       <c r="BX25" s="38"/>
       <c r="BY25" s="38"/>
-      <c r="BZ25" s="84"/>
-      <c r="CA25" s="84"/>
+      <c r="BZ25" s="75"/>
+      <c r="CA25" s="75"/>
       <c r="CD25" s="38"/>
-      <c r="CE25" s="84"/>
-      <c r="CF25" s="84"/>
+      <c r="CE25" s="75"/>
+      <c r="CF25" s="75"/>
       <c r="CG25" s="39"/>
       <c r="CH25" s="38"/>
       <c r="CI25" s="38"/>
-      <c r="CJ25" s="84"/>
-      <c r="CK25" s="84"/>
+      <c r="CJ25" s="75"/>
+      <c r="CK25" s="75"/>
       <c r="CN25" s="38"/>
-      <c r="CO25" s="84"/>
-      <c r="CP25" s="84"/>
+      <c r="CO25" s="75"/>
+      <c r="CP25" s="75"/>
       <c r="CQ25" s="39"/>
       <c r="CR25" s="38"/>
       <c r="CS25" s="38"/>
-      <c r="CT25" s="84"/>
-      <c r="CU25" s="84"/>
+      <c r="CT25" s="75"/>
+      <c r="CU25" s="75"/>
     </row>
     <row r="26" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
       <c r="O26" s="39"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
       <c r="V26" s="45"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="45"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
       <c r="AF26" s="45"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
       <c r="AI26" s="39"/>
       <c r="AJ26" s="38"/>
       <c r="AK26" s="45"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="88"/>
       <c r="AP26" s="45"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
+      <c r="AQ26" s="88"/>
+      <c r="AR26" s="88"/>
       <c r="AS26" s="39"/>
       <c r="AT26" s="38"/>
       <c r="AU26" s="45"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="82"/>
+      <c r="AV26" s="88"/>
+      <c r="AW26" s="88"/>
       <c r="AZ26" s="38"/>
-      <c r="BA26" s="84"/>
-      <c r="BB26" s="84"/>
+      <c r="BA26" s="75"/>
+      <c r="BB26" s="75"/>
       <c r="BC26" s="39"/>
       <c r="BD26" s="38"/>
       <c r="BE26" s="38"/>
-      <c r="BF26" s="84"/>
-      <c r="BG26" s="84"/>
+      <c r="BF26" s="75"/>
+      <c r="BG26" s="75"/>
       <c r="BJ26" s="38"/>
-      <c r="BK26" s="84"/>
-      <c r="BL26" s="84"/>
+      <c r="BK26" s="75"/>
+      <c r="BL26" s="75"/>
       <c r="BM26" s="39"/>
       <c r="BN26" s="38"/>
       <c r="BO26" s="38"/>
-      <c r="BP26" s="84"/>
-      <c r="BQ26" s="84"/>
+      <c r="BP26" s="75"/>
+      <c r="BQ26" s="75"/>
       <c r="BT26" s="38"/>
-      <c r="BU26" s="84"/>
-      <c r="BV26" s="84"/>
+      <c r="BU26" s="75"/>
+      <c r="BV26" s="75"/>
       <c r="BW26" s="39"/>
       <c r="BX26" s="38"/>
       <c r="BY26" s="38"/>
-      <c r="BZ26" s="84"/>
-      <c r="CA26" s="84"/>
+      <c r="BZ26" s="75"/>
+      <c r="CA26" s="75"/>
       <c r="CD26" s="38"/>
-      <c r="CE26" s="84"/>
-      <c r="CF26" s="84"/>
+      <c r="CE26" s="75"/>
+      <c r="CF26" s="75"/>
       <c r="CG26" s="39"/>
       <c r="CH26" s="38"/>
       <c r="CI26" s="38"/>
-      <c r="CJ26" s="84"/>
-      <c r="CK26" s="84"/>
+      <c r="CJ26" s="75"/>
+      <c r="CK26" s="75"/>
       <c r="CN26" s="38"/>
-      <c r="CO26" s="84"/>
-      <c r="CP26" s="84"/>
+      <c r="CO26" s="75"/>
+      <c r="CP26" s="75"/>
       <c r="CQ26" s="39"/>
       <c r="CR26" s="38"/>
       <c r="CS26" s="38"/>
-      <c r="CT26" s="84"/>
-      <c r="CU26" s="84"/>
+      <c r="CT26" s="75"/>
+      <c r="CU26" s="75"/>
     </row>
     <row r="27" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="22"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="22"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+      <c r="AP27" s="89"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
       <c r="AS27" s="22"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
       <c r="BC27" s="22"/>
       <c r="BD27" s="3"/>
-      <c r="BE27" s="90"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="90"/>
-      <c r="BJ27" s="90"/>
-      <c r="BK27" s="90"/>
-      <c r="BL27" s="90"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="76"/>
+      <c r="BG27" s="76"/>
+      <c r="BJ27" s="76"/>
+      <c r="BK27" s="76"/>
+      <c r="BL27" s="76"/>
       <c r="BM27" s="22"/>
       <c r="BN27" s="3"/>
-      <c r="BO27" s="90"/>
-      <c r="BP27" s="90"/>
-      <c r="BQ27" s="90"/>
-      <c r="BT27" s="90"/>
-      <c r="BU27" s="90"/>
-      <c r="BV27" s="90"/>
+      <c r="BO27" s="76"/>
+      <c r="BP27" s="76"/>
+      <c r="BQ27" s="76"/>
+      <c r="BT27" s="76"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="76"/>
       <c r="BW27" s="22"/>
       <c r="BX27" s="3"/>
-      <c r="BY27" s="90"/>
-      <c r="BZ27" s="90"/>
-      <c r="CA27" s="90"/>
-      <c r="CD27" s="90"/>
-      <c r="CE27" s="90"/>
-      <c r="CF27" s="90"/>
+      <c r="BY27" s="76"/>
+      <c r="BZ27" s="76"/>
+      <c r="CA27" s="76"/>
+      <c r="CD27" s="76"/>
+      <c r="CE27" s="76"/>
+      <c r="CF27" s="76"/>
       <c r="CG27" s="22"/>
       <c r="CH27" s="3"/>
-      <c r="CI27" s="90"/>
-      <c r="CJ27" s="90"/>
-      <c r="CK27" s="90"/>
-      <c r="CN27" s="90"/>
-      <c r="CO27" s="90"/>
-      <c r="CP27" s="90"/>
+      <c r="CI27" s="76"/>
+      <c r="CJ27" s="76"/>
+      <c r="CK27" s="76"/>
+      <c r="CN27" s="76"/>
+      <c r="CO27" s="76"/>
+      <c r="CP27" s="76"/>
       <c r="CQ27" s="22"/>
       <c r="CR27" s="3"/>
-      <c r="CS27" s="90"/>
-      <c r="CT27" s="90"/>
-      <c r="CU27" s="90"/>
+      <c r="CS27" s="76"/>
+      <c r="CT27" s="76"/>
+      <c r="CU27" s="76"/>
     </row>
     <row r="28" spans="2:99" s="18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="25"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="25"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="17"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AP28" s="81"/>
-      <c r="AQ28" s="81"/>
-      <c r="AR28" s="81"/>
+      <c r="AK28" s="85"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="85"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
+      <c r="AR28" s="85"/>
       <c r="AS28" s="25"/>
       <c r="AT28" s="17"/>
-      <c r="AU28" s="81"/>
-      <c r="AV28" s="81"/>
-      <c r="AW28" s="81"/>
-      <c r="AZ28" s="90"/>
-      <c r="BA28" s="90"/>
-      <c r="BB28" s="90"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="85"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
       <c r="BC28" s="25"/>
       <c r="BD28" s="17"/>
-      <c r="BE28" s="90"/>
-      <c r="BF28" s="90"/>
-      <c r="BG28" s="90"/>
-      <c r="BJ28" s="90"/>
-      <c r="BK28" s="90"/>
-      <c r="BL28" s="90"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
       <c r="BM28" s="25"/>
       <c r="BN28" s="17"/>
-      <c r="BO28" s="90"/>
-      <c r="BP28" s="90"/>
-      <c r="BQ28" s="90"/>
-      <c r="BT28" s="90"/>
-      <c r="BU28" s="90"/>
-      <c r="BV28" s="90"/>
+      <c r="BO28" s="76"/>
+      <c r="BP28" s="76"/>
+      <c r="BQ28" s="76"/>
+      <c r="BT28" s="76"/>
+      <c r="BU28" s="76"/>
+      <c r="BV28" s="76"/>
       <c r="BW28" s="25"/>
       <c r="BX28" s="17"/>
-      <c r="BY28" s="90"/>
-      <c r="BZ28" s="90"/>
-      <c r="CA28" s="90"/>
-      <c r="CD28" s="90"/>
-      <c r="CE28" s="90"/>
-      <c r="CF28" s="90"/>
+      <c r="BY28" s="76"/>
+      <c r="BZ28" s="76"/>
+      <c r="CA28" s="76"/>
+      <c r="CD28" s="76"/>
+      <c r="CE28" s="76"/>
+      <c r="CF28" s="76"/>
       <c r="CG28" s="25"/>
       <c r="CH28" s="17"/>
-      <c r="CI28" s="90"/>
-      <c r="CJ28" s="90"/>
-      <c r="CK28" s="90"/>
-      <c r="CN28" s="90"/>
-      <c r="CO28" s="90"/>
-      <c r="CP28" s="90"/>
+      <c r="CI28" s="76"/>
+      <c r="CJ28" s="76"/>
+      <c r="CK28" s="76"/>
+      <c r="CN28" s="76"/>
+      <c r="CO28" s="76"/>
+      <c r="CP28" s="76"/>
       <c r="CQ28" s="25"/>
       <c r="CR28" s="17"/>
-      <c r="CS28" s="90"/>
-      <c r="CT28" s="90"/>
-      <c r="CU28" s="90"/>
+      <c r="CS28" s="76"/>
+      <c r="CT28" s="76"/>
+      <c r="CU28" s="76"/>
     </row>
     <row r="29" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
       <c r="O29" s="39"/>
       <c r="P29" s="38"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
       <c r="AI29" s="39"/>
       <c r="AJ29" s="38"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
+      <c r="AK29" s="86"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="86"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="86"/>
       <c r="AS29" s="39"/>
       <c r="AT29" s="38"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
-      <c r="AW29" s="80"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="91"/>
+      <c r="AU29" s="86"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="86"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77"/>
+      <c r="BB29" s="77"/>
       <c r="BC29" s="39"/>
       <c r="BD29" s="38"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="91"/>
-      <c r="BG29" s="91"/>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="91"/>
-      <c r="BL29" s="91"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="77"/>
+      <c r="BG29" s="77"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="77"/>
+      <c r="BL29" s="77"/>
       <c r="BM29" s="39"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="91"/>
-      <c r="BP29" s="91"/>
-      <c r="BQ29" s="91"/>
-      <c r="BT29" s="91"/>
-      <c r="BU29" s="91"/>
-      <c r="BV29" s="91"/>
+      <c r="BO29" s="77"/>
+      <c r="BP29" s="77"/>
+      <c r="BQ29" s="77"/>
+      <c r="BT29" s="77"/>
+      <c r="BU29" s="77"/>
+      <c r="BV29" s="77"/>
       <c r="BW29" s="39"/>
       <c r="BX29" s="38"/>
-      <c r="BY29" s="91"/>
-      <c r="BZ29" s="91"/>
-      <c r="CA29" s="91"/>
-      <c r="CD29" s="91"/>
-      <c r="CE29" s="91"/>
-      <c r="CF29" s="91"/>
+      <c r="BY29" s="77"/>
+      <c r="BZ29" s="77"/>
+      <c r="CA29" s="77"/>
+      <c r="CD29" s="77"/>
+      <c r="CE29" s="77"/>
+      <c r="CF29" s="77"/>
       <c r="CG29" s="39"/>
       <c r="CH29" s="38"/>
-      <c r="CI29" s="91"/>
-      <c r="CJ29" s="91"/>
-      <c r="CK29" s="91"/>
-      <c r="CN29" s="91"/>
-      <c r="CO29" s="91"/>
-      <c r="CP29" s="91"/>
+      <c r="CI29" s="77"/>
+      <c r="CJ29" s="77"/>
+      <c r="CK29" s="77"/>
+      <c r="CN29" s="77"/>
+      <c r="CO29" s="77"/>
+      <c r="CP29" s="77"/>
       <c r="CQ29" s="39"/>
       <c r="CR29" s="38"/>
-      <c r="CS29" s="91"/>
-      <c r="CT29" s="91"/>
-      <c r="CU29" s="91"/>
+      <c r="CS29" s="77"/>
+      <c r="CT29" s="77"/>
+      <c r="CU29" s="77"/>
     </row>
     <row r="30" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="22"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="22"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
       <c r="Y30" s="22"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
       <c r="AS30" s="22"/>
       <c r="AT30" s="3"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AZ30" s="92"/>
-      <c r="BA30" s="92"/>
-      <c r="BB30" s="92"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
       <c r="BC30" s="22"/>
       <c r="BD30" s="3"/>
-      <c r="BE30" s="92"/>
-      <c r="BF30" s="92"/>
-      <c r="BG30" s="92"/>
-      <c r="BJ30" s="92"/>
-      <c r="BK30" s="92"/>
-      <c r="BL30" s="92"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="78"/>
+      <c r="BL30" s="78"/>
       <c r="BM30" s="22"/>
       <c r="BN30" s="3"/>
-      <c r="BO30" s="92"/>
-      <c r="BP30" s="92"/>
-      <c r="BQ30" s="92"/>
-      <c r="BT30" s="92"/>
-      <c r="BU30" s="92"/>
-      <c r="BV30" s="92"/>
+      <c r="BO30" s="78"/>
+      <c r="BP30" s="78"/>
+      <c r="BQ30" s="78"/>
+      <c r="BT30" s="78"/>
+      <c r="BU30" s="78"/>
+      <c r="BV30" s="78"/>
       <c r="BW30" s="22"/>
       <c r="BX30" s="3"/>
-      <c r="BY30" s="92"/>
-      <c r="BZ30" s="92"/>
-      <c r="CA30" s="92"/>
-      <c r="CD30" s="92"/>
-      <c r="CE30" s="92"/>
-      <c r="CF30" s="92"/>
+      <c r="BY30" s="78"/>
+      <c r="BZ30" s="78"/>
+      <c r="CA30" s="78"/>
+      <c r="CD30" s="78"/>
+      <c r="CE30" s="78"/>
+      <c r="CF30" s="78"/>
       <c r="CG30" s="22"/>
       <c r="CH30" s="3"/>
-      <c r="CI30" s="92"/>
-      <c r="CJ30" s="92"/>
-      <c r="CK30" s="92"/>
-      <c r="CN30" s="92"/>
-      <c r="CO30" s="92"/>
-      <c r="CP30" s="92"/>
+      <c r="CI30" s="78"/>
+      <c r="CJ30" s="78"/>
+      <c r="CK30" s="78"/>
+      <c r="CN30" s="78"/>
+      <c r="CO30" s="78"/>
+      <c r="CP30" s="78"/>
       <c r="CQ30" s="22"/>
       <c r="CR30" s="3"/>
-      <c r="CS30" s="92"/>
-      <c r="CT30" s="92"/>
-      <c r="CU30" s="92"/>
+      <c r="CS30" s="78"/>
+      <c r="CT30" s="78"/>
+      <c r="CU30" s="78"/>
     </row>
     <row r="31" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="22"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="22"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="79"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="87"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="87"/>
+      <c r="AR31" s="87"/>
       <c r="AS31" s="22"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="79"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="79"/>
-      <c r="AZ31" s="92"/>
-      <c r="BA31" s="92"/>
-      <c r="BB31" s="92"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87"/>
+      <c r="AZ31" s="78"/>
+      <c r="BA31" s="78"/>
+      <c r="BB31" s="78"/>
       <c r="BC31" s="22"/>
       <c r="BD31" s="3"/>
-      <c r="BE31" s="92"/>
-      <c r="BF31" s="92"/>
-      <c r="BG31" s="92"/>
-      <c r="BJ31" s="92"/>
-      <c r="BK31" s="92"/>
-      <c r="BL31" s="92"/>
+      <c r="BE31" s="78"/>
+      <c r="BF31" s="78"/>
+      <c r="BG31" s="78"/>
+      <c r="BJ31" s="78"/>
+      <c r="BK31" s="78"/>
+      <c r="BL31" s="78"/>
       <c r="BM31" s="22"/>
       <c r="BN31" s="3"/>
-      <c r="BO31" s="92"/>
-      <c r="BP31" s="92"/>
-      <c r="BQ31" s="92"/>
-      <c r="BT31" s="92"/>
-      <c r="BU31" s="92"/>
-      <c r="BV31" s="92"/>
+      <c r="BO31" s="78"/>
+      <c r="BP31" s="78"/>
+      <c r="BQ31" s="78"/>
+      <c r="BT31" s="78"/>
+      <c r="BU31" s="78"/>
+      <c r="BV31" s="78"/>
       <c r="BW31" s="22"/>
       <c r="BX31" s="3"/>
-      <c r="BY31" s="92"/>
-      <c r="BZ31" s="92"/>
-      <c r="CA31" s="92"/>
-      <c r="CD31" s="92"/>
-      <c r="CE31" s="92"/>
-      <c r="CF31" s="92"/>
+      <c r="BY31" s="78"/>
+      <c r="BZ31" s="78"/>
+      <c r="CA31" s="78"/>
+      <c r="CD31" s="78"/>
+      <c r="CE31" s="78"/>
+      <c r="CF31" s="78"/>
       <c r="CG31" s="22"/>
       <c r="CH31" s="3"/>
-      <c r="CI31" s="92"/>
-      <c r="CJ31" s="92"/>
-      <c r="CK31" s="92"/>
-      <c r="CN31" s="92"/>
-      <c r="CO31" s="92"/>
-      <c r="CP31" s="92"/>
+      <c r="CI31" s="78"/>
+      <c r="CJ31" s="78"/>
+      <c r="CK31" s="78"/>
+      <c r="CN31" s="78"/>
+      <c r="CO31" s="78"/>
+      <c r="CP31" s="78"/>
       <c r="CQ31" s="22"/>
       <c r="CR31" s="3"/>
-      <c r="CS31" s="92"/>
-      <c r="CT31" s="92"/>
-      <c r="CU31" s="92"/>
+      <c r="CS31" s="78"/>
+      <c r="CT31" s="78"/>
+      <c r="CU31" s="78"/>
     </row>
     <row r="32" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="22"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
       <c r="O32" s="22"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
       <c r="AS32" s="22"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AZ32" s="92"/>
-      <c r="BA32" s="92"/>
-      <c r="BB32" s="92"/>
+      <c r="AU32" s="87"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AZ32" s="78"/>
+      <c r="BA32" s="78"/>
+      <c r="BB32" s="78"/>
       <c r="BC32" s="22"/>
       <c r="BD32" s="3"/>
-      <c r="BE32" s="92"/>
-      <c r="BF32" s="92"/>
-      <c r="BG32" s="92"/>
-      <c r="BJ32" s="92"/>
-      <c r="BK32" s="92"/>
-      <c r="BL32" s="92"/>
+      <c r="BE32" s="78"/>
+      <c r="BF32" s="78"/>
+      <c r="BG32" s="78"/>
+      <c r="BJ32" s="78"/>
+      <c r="BK32" s="78"/>
+      <c r="BL32" s="78"/>
       <c r="BM32" s="22"/>
       <c r="BN32" s="3"/>
-      <c r="BO32" s="92"/>
-      <c r="BP32" s="92"/>
-      <c r="BQ32" s="92"/>
-      <c r="BT32" s="92"/>
-      <c r="BU32" s="92"/>
-      <c r="BV32" s="92"/>
+      <c r="BO32" s="78"/>
+      <c r="BP32" s="78"/>
+      <c r="BQ32" s="78"/>
+      <c r="BT32" s="78"/>
+      <c r="BU32" s="78"/>
+      <c r="BV32" s="78"/>
       <c r="BW32" s="22"/>
       <c r="BX32" s="3"/>
-      <c r="BY32" s="92"/>
-      <c r="BZ32" s="92"/>
-      <c r="CA32" s="92"/>
-      <c r="CD32" s="92"/>
-      <c r="CE32" s="92"/>
-      <c r="CF32" s="92"/>
+      <c r="BY32" s="78"/>
+      <c r="BZ32" s="78"/>
+      <c r="CA32" s="78"/>
+      <c r="CD32" s="78"/>
+      <c r="CE32" s="78"/>
+      <c r="CF32" s="78"/>
       <c r="CG32" s="22"/>
       <c r="CH32" s="3"/>
-      <c r="CI32" s="92"/>
-      <c r="CJ32" s="92"/>
-      <c r="CK32" s="92"/>
-      <c r="CN32" s="92"/>
-      <c r="CO32" s="92"/>
-      <c r="CP32" s="92"/>
+      <c r="CI32" s="78"/>
+      <c r="CJ32" s="78"/>
+      <c r="CK32" s="78"/>
+      <c r="CN32" s="78"/>
+      <c r="CO32" s="78"/>
+      <c r="CP32" s="78"/>
       <c r="CQ32" s="22"/>
       <c r="CR32" s="3"/>
-      <c r="CS32" s="92"/>
-      <c r="CT32" s="92"/>
-      <c r="CU32" s="92"/>
+      <c r="CS32" s="78"/>
+      <c r="CT32" s="78"/>
+      <c r="CU32" s="78"/>
     </row>
     <row r="33" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="39"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
       <c r="O33" s="39"/>
       <c r="P33" s="38"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
       <c r="Y33" s="39"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="76"/>
-      <c r="AF33" s="76"/>
-      <c r="AG33" s="76"/>
-      <c r="AH33" s="76"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="84"/>
+      <c r="AH33" s="84"/>
       <c r="AI33" s="39"/>
       <c r="AJ33" s="38"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="76"/>
-      <c r="AM33" s="76"/>
-      <c r="AP33" s="76"/>
-      <c r="AQ33" s="76"/>
-      <c r="AR33" s="76"/>
+      <c r="AK33" s="84"/>
+      <c r="AL33" s="84"/>
+      <c r="AM33" s="84"/>
+      <c r="AP33" s="84"/>
+      <c r="AQ33" s="84"/>
+      <c r="AR33" s="84"/>
       <c r="AS33" s="39"/>
       <c r="AT33" s="38"/>
-      <c r="AU33" s="76"/>
-      <c r="AV33" s="76"/>
-      <c r="AW33" s="76"/>
-      <c r="AZ33" s="91"/>
-      <c r="BA33" s="91"/>
-      <c r="BB33" s="91"/>
+      <c r="AU33" s="84"/>
+      <c r="AV33" s="84"/>
+      <c r="AW33" s="84"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="77"/>
+      <c r="BB33" s="77"/>
       <c r="BC33" s="39"/>
       <c r="BD33" s="38"/>
-      <c r="BE33" s="91"/>
-      <c r="BF33" s="91"/>
-      <c r="BG33" s="91"/>
-      <c r="BJ33" s="91"/>
-      <c r="BK33" s="91"/>
-      <c r="BL33" s="91"/>
+      <c r="BE33" s="77"/>
+      <c r="BF33" s="77"/>
+      <c r="BG33" s="77"/>
+      <c r="BJ33" s="77"/>
+      <c r="BK33" s="77"/>
+      <c r="BL33" s="77"/>
       <c r="BM33" s="39"/>
       <c r="BN33" s="38"/>
-      <c r="BO33" s="91"/>
-      <c r="BP33" s="91"/>
-      <c r="BQ33" s="91"/>
-      <c r="BT33" s="91"/>
-      <c r="BU33" s="91"/>
-      <c r="BV33" s="91"/>
+      <c r="BO33" s="77"/>
+      <c r="BP33" s="77"/>
+      <c r="BQ33" s="77"/>
+      <c r="BT33" s="77"/>
+      <c r="BU33" s="77"/>
+      <c r="BV33" s="77"/>
       <c r="BW33" s="39"/>
       <c r="BX33" s="38"/>
-      <c r="BY33" s="91"/>
-      <c r="BZ33" s="91"/>
-      <c r="CA33" s="91"/>
-      <c r="CD33" s="91"/>
-      <c r="CE33" s="91"/>
-      <c r="CF33" s="91"/>
+      <c r="BY33" s="77"/>
+      <c r="BZ33" s="77"/>
+      <c r="CA33" s="77"/>
+      <c r="CD33" s="77"/>
+      <c r="CE33" s="77"/>
+      <c r="CF33" s="77"/>
       <c r="CG33" s="39"/>
       <c r="CH33" s="38"/>
-      <c r="CI33" s="91"/>
-      <c r="CJ33" s="91"/>
-      <c r="CK33" s="91"/>
-      <c r="CN33" s="91"/>
-      <c r="CO33" s="91"/>
-      <c r="CP33" s="91"/>
+      <c r="CI33" s="77"/>
+      <c r="CJ33" s="77"/>
+      <c r="CK33" s="77"/>
+      <c r="CN33" s="77"/>
+      <c r="CO33" s="77"/>
+      <c r="CP33" s="77"/>
       <c r="CQ33" s="39"/>
       <c r="CR33" s="38"/>
-      <c r="CS33" s="91"/>
-      <c r="CT33" s="91"/>
-      <c r="CU33" s="91"/>
+      <c r="CS33" s="77"/>
+      <c r="CT33" s="77"/>
+      <c r="CU33" s="77"/>
     </row>
     <row r="34" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="22"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
       <c r="O34" s="22"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="92"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="92"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="75"/>
-      <c r="AR34" s="75"/>
+      <c r="AK34" s="91"/>
+      <c r="AL34" s="92"/>
+      <c r="AM34" s="92"/>
+      <c r="AP34" s="91"/>
+      <c r="AQ34" s="92"/>
+      <c r="AR34" s="92"/>
       <c r="AS34" s="22"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="75"/>
-      <c r="AW34" s="75"/>
+      <c r="AU34" s="91"/>
+      <c r="AV34" s="92"/>
+      <c r="AW34" s="92"/>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="3"/>
       <c r="BB34" s="6"/>
@@ -3815,46 +4125,46 @@
       <c r="CU34" s="6"/>
     </row>
     <row r="35" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="39"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
       <c r="O35" s="39"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
       <c r="Y35" s="39"/>
       <c r="Z35" s="38"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="76"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="84"/>
       <c r="AI35" s="39"/>
       <c r="AJ35" s="38"/>
-      <c r="AK35" s="76"/>
-      <c r="AL35" s="76"/>
-      <c r="AM35" s="76"/>
-      <c r="AP35" s="76"/>
-      <c r="AQ35" s="76"/>
-      <c r="AR35" s="76"/>
+      <c r="AK35" s="84"/>
+      <c r="AL35" s="84"/>
+      <c r="AM35" s="84"/>
+      <c r="AP35" s="84"/>
+      <c r="AQ35" s="84"/>
+      <c r="AR35" s="84"/>
       <c r="AS35" s="39"/>
       <c r="AT35" s="38"/>
-      <c r="AU35" s="76"/>
-      <c r="AV35" s="76"/>
-      <c r="AW35" s="76"/>
+      <c r="AU35" s="84"/>
+      <c r="AV35" s="84"/>
+      <c r="AW35" s="84"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="32"/>
@@ -3897,41 +4207,41 @@
       <c r="CU35" s="32"/>
     </row>
     <row r="36" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
       <c r="E36" s="22"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
       <c r="O36" s="22"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
       <c r="Y36" s="22"/>
-      <c r="AA36" s="77"/>
-      <c r="AB36" s="78"/>
-      <c r="AC36" s="78"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="78"/>
-      <c r="AH36" s="78"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="89"/>
+      <c r="AC36" s="89"/>
+      <c r="AF36" s="90"/>
+      <c r="AG36" s="89"/>
+      <c r="AH36" s="89"/>
       <c r="AI36" s="22"/>
-      <c r="AK36" s="77"/>
-      <c r="AL36" s="78"/>
-      <c r="AM36" s="78"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="78"/>
-      <c r="AR36" s="78"/>
+      <c r="AK36" s="90"/>
+      <c r="AL36" s="89"/>
+      <c r="AM36" s="89"/>
+      <c r="AP36" s="90"/>
+      <c r="AQ36" s="89"/>
+      <c r="AR36" s="89"/>
       <c r="AS36" s="22"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="78"/>
-      <c r="AW36" s="78"/>
+      <c r="AU36" s="90"/>
+      <c r="AV36" s="89"/>
+      <c r="AW36" s="89"/>
       <c r="BC36" s="22"/>
       <c r="BM36" s="22"/>
       <c r="BW36" s="22"/>
@@ -4024,35 +4334,528 @@
     </row>
   </sheetData>
   <mergeCells count="575">
-    <mergeCell ref="CO24:CP24"/>
-    <mergeCell ref="CT24:CU24"/>
-    <mergeCell ref="CO25:CP25"/>
-    <mergeCell ref="CT25:CU25"/>
-    <mergeCell ref="CO26:CP26"/>
-    <mergeCell ref="CT26:CU26"/>
-    <mergeCell ref="CN27:CP27"/>
-    <mergeCell ref="CS27:CU27"/>
-    <mergeCell ref="CN33:CP33"/>
-    <mergeCell ref="CS33:CU33"/>
-    <mergeCell ref="CN28:CP28"/>
-    <mergeCell ref="CS28:CU28"/>
-    <mergeCell ref="CN29:CP29"/>
-    <mergeCell ref="CS29:CU29"/>
-    <mergeCell ref="CN30:CP30"/>
-    <mergeCell ref="CS30:CU30"/>
-    <mergeCell ref="CN31:CP31"/>
-    <mergeCell ref="CS31:CU31"/>
-    <mergeCell ref="CN32:CP32"/>
-    <mergeCell ref="CS32:CU32"/>
-    <mergeCell ref="CS12:CU12"/>
-    <mergeCell ref="CN13:CP13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CN21:CP21"/>
-    <mergeCell ref="CS21:CU21"/>
-    <mergeCell ref="CN22:CO22"/>
-    <mergeCell ref="CS22:CT22"/>
-    <mergeCell ref="CO23:CP23"/>
-    <mergeCell ref="CT23:CU23"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AU15:AW15"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AP34:AR34"/>
+    <mergeCell ref="AU34:AW34"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="AU35:AW35"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="AU36:AW36"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BE7:BG7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="BE9:BG9"/>
+    <mergeCell ref="AZ10:BB10"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="AZ13:BB13"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="AZ21:BB21"/>
+    <mergeCell ref="BE21:BG21"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BE22:BF22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BF24:BG24"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BF26:BG26"/>
+    <mergeCell ref="AZ27:BB27"/>
+    <mergeCell ref="BE27:BG27"/>
+    <mergeCell ref="AZ28:BB28"/>
+    <mergeCell ref="BE28:BG28"/>
+    <mergeCell ref="AZ29:BB29"/>
+    <mergeCell ref="BE29:BG29"/>
+    <mergeCell ref="AZ30:BB30"/>
+    <mergeCell ref="BE30:BG30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BE31:BG31"/>
+    <mergeCell ref="AZ32:BB32"/>
+    <mergeCell ref="BE32:BG32"/>
+    <mergeCell ref="AZ33:BB33"/>
+    <mergeCell ref="BE33:BG33"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BO7:BQ7"/>
+    <mergeCell ref="BJ8:BL8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BJ9:BL9"/>
+    <mergeCell ref="BO9:BQ9"/>
+    <mergeCell ref="BJ10:BL10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="BO12:BQ12"/>
+    <mergeCell ref="BJ13:BL13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BO21:BQ21"/>
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="BO22:BP22"/>
+    <mergeCell ref="BK23:BL23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="BK24:BL24"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="BK25:BL25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="BK26:BL26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="BJ27:BL27"/>
+    <mergeCell ref="BO27:BQ27"/>
+    <mergeCell ref="BJ28:BL28"/>
+    <mergeCell ref="BO28:BQ28"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BO29:BQ29"/>
+    <mergeCell ref="BJ30:BL30"/>
+    <mergeCell ref="BO30:BQ30"/>
+    <mergeCell ref="BJ31:BL31"/>
+    <mergeCell ref="BO31:BQ31"/>
+    <mergeCell ref="BJ32:BL32"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BJ33:BL33"/>
+    <mergeCell ref="BO33:BQ33"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BY7:CA7"/>
+    <mergeCell ref="BT8:BV8"/>
+    <mergeCell ref="BY8:CA8"/>
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BY9:CA9"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BY10:CA10"/>
+    <mergeCell ref="BT11:BV11"/>
+    <mergeCell ref="BY11:CA11"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="BY12:CA12"/>
+    <mergeCell ref="BT13:BV13"/>
+    <mergeCell ref="BY13:CA13"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="BY21:CA21"/>
+    <mergeCell ref="BT22:BU22"/>
+    <mergeCell ref="BY22:BZ22"/>
+    <mergeCell ref="BU23:BV23"/>
+    <mergeCell ref="BZ23:CA23"/>
+    <mergeCell ref="BU24:BV24"/>
+    <mergeCell ref="BZ24:CA24"/>
+    <mergeCell ref="BU25:BV25"/>
+    <mergeCell ref="BZ25:CA25"/>
+    <mergeCell ref="BU26:BV26"/>
+    <mergeCell ref="BZ26:CA26"/>
+    <mergeCell ref="BT27:BV27"/>
+    <mergeCell ref="BY27:CA27"/>
+    <mergeCell ref="BT28:BV28"/>
+    <mergeCell ref="BY28:CA28"/>
+    <mergeCell ref="BT29:BV29"/>
+    <mergeCell ref="BY29:CA29"/>
+    <mergeCell ref="BT30:BV30"/>
+    <mergeCell ref="BY30:CA30"/>
+    <mergeCell ref="BT31:BV31"/>
+    <mergeCell ref="BY31:CA31"/>
+    <mergeCell ref="BT32:BV32"/>
+    <mergeCell ref="BY32:CA32"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="BY33:CA33"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CJ5:CK5"/>
+    <mergeCell ref="CE6:CF6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CI7:CK7"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CI8:CK8"/>
+    <mergeCell ref="CD9:CF9"/>
+    <mergeCell ref="CI9:CK9"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="CI10:CK10"/>
+    <mergeCell ref="CD11:CF11"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CI13:CK13"/>
+    <mergeCell ref="CD21:CF21"/>
+    <mergeCell ref="CI21:CK21"/>
+    <mergeCell ref="CD22:CE22"/>
+    <mergeCell ref="CI22:CJ22"/>
+    <mergeCell ref="CE23:CF23"/>
+    <mergeCell ref="CJ23:CK23"/>
+    <mergeCell ref="CE24:CF24"/>
+    <mergeCell ref="CJ24:CK24"/>
+    <mergeCell ref="CE25:CF25"/>
+    <mergeCell ref="CJ25:CK25"/>
+    <mergeCell ref="CE26:CF26"/>
+    <mergeCell ref="CJ26:CK26"/>
+    <mergeCell ref="CD27:CF27"/>
+    <mergeCell ref="CI27:CK27"/>
+    <mergeCell ref="CD28:CF28"/>
+    <mergeCell ref="CI28:CK28"/>
+    <mergeCell ref="CD29:CF29"/>
+    <mergeCell ref="CI29:CK29"/>
+    <mergeCell ref="CD30:CF30"/>
+    <mergeCell ref="CI30:CK30"/>
+    <mergeCell ref="CD31:CF31"/>
+    <mergeCell ref="CI31:CK31"/>
+    <mergeCell ref="CD32:CF32"/>
+    <mergeCell ref="CI32:CK32"/>
     <mergeCell ref="CD33:CF33"/>
     <mergeCell ref="CI33:CK33"/>
     <mergeCell ref="CN1:CP1"/>
@@ -4077,534 +4880,42 @@
     <mergeCell ref="CN11:CP11"/>
     <mergeCell ref="CS11:CU11"/>
     <mergeCell ref="CN12:CP12"/>
-    <mergeCell ref="CD28:CF28"/>
-    <mergeCell ref="CI28:CK28"/>
-    <mergeCell ref="CD29:CF29"/>
-    <mergeCell ref="CI29:CK29"/>
-    <mergeCell ref="CD30:CF30"/>
-    <mergeCell ref="CI30:CK30"/>
-    <mergeCell ref="CD31:CF31"/>
-    <mergeCell ref="CI31:CK31"/>
-    <mergeCell ref="CD32:CF32"/>
-    <mergeCell ref="CI32:CK32"/>
-    <mergeCell ref="CE23:CF23"/>
-    <mergeCell ref="CJ23:CK23"/>
-    <mergeCell ref="CE24:CF24"/>
-    <mergeCell ref="CJ24:CK24"/>
-    <mergeCell ref="CE25:CF25"/>
-    <mergeCell ref="CJ25:CK25"/>
-    <mergeCell ref="CE26:CF26"/>
-    <mergeCell ref="CJ26:CK26"/>
-    <mergeCell ref="CD27:CF27"/>
-    <mergeCell ref="CI27:CK27"/>
-    <mergeCell ref="CD11:CF11"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CI13:CK13"/>
-    <mergeCell ref="CD21:CF21"/>
-    <mergeCell ref="CI21:CK21"/>
-    <mergeCell ref="CD22:CE22"/>
-    <mergeCell ref="CI22:CJ22"/>
-    <mergeCell ref="CE6:CF6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CI7:CK7"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CI8:CK8"/>
-    <mergeCell ref="CD9:CF9"/>
-    <mergeCell ref="CI9:CK9"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="CI10:CK10"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CJ5:CK5"/>
-    <mergeCell ref="BT29:BV29"/>
-    <mergeCell ref="BY29:CA29"/>
-    <mergeCell ref="BT30:BV30"/>
-    <mergeCell ref="BY30:CA30"/>
-    <mergeCell ref="BT31:BV31"/>
-    <mergeCell ref="BY31:CA31"/>
-    <mergeCell ref="BT32:BV32"/>
-    <mergeCell ref="BY32:CA32"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="BY33:CA33"/>
-    <mergeCell ref="BU24:BV24"/>
-    <mergeCell ref="BZ24:CA24"/>
-    <mergeCell ref="BU25:BV25"/>
-    <mergeCell ref="BZ25:CA25"/>
-    <mergeCell ref="BU26:BV26"/>
-    <mergeCell ref="BZ26:CA26"/>
-    <mergeCell ref="BT27:BV27"/>
-    <mergeCell ref="BY27:CA27"/>
-    <mergeCell ref="BT28:BV28"/>
-    <mergeCell ref="BY28:CA28"/>
-    <mergeCell ref="BY12:CA12"/>
-    <mergeCell ref="BT13:BV13"/>
-    <mergeCell ref="BY13:CA13"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="BY21:CA21"/>
-    <mergeCell ref="BT22:BU22"/>
-    <mergeCell ref="BY22:BZ22"/>
-    <mergeCell ref="BU23:BV23"/>
-    <mergeCell ref="BZ23:CA23"/>
-    <mergeCell ref="BJ33:BL33"/>
-    <mergeCell ref="BO33:BQ33"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="BY7:CA7"/>
-    <mergeCell ref="BT8:BV8"/>
-    <mergeCell ref="BY8:CA8"/>
-    <mergeCell ref="BT9:BV9"/>
-    <mergeCell ref="BY9:CA9"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="BY10:CA10"/>
-    <mergeCell ref="BT11:BV11"/>
-    <mergeCell ref="BY11:CA11"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="BJ28:BL28"/>
-    <mergeCell ref="BO28:BQ28"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BO29:BQ29"/>
-    <mergeCell ref="BJ30:BL30"/>
-    <mergeCell ref="BO30:BQ30"/>
-    <mergeCell ref="BJ31:BL31"/>
-    <mergeCell ref="BO31:BQ31"/>
-    <mergeCell ref="BJ32:BL32"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BK23:BL23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="BK24:BL24"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="BK25:BL25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="BK26:BL26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="BJ27:BL27"/>
-    <mergeCell ref="BO27:BQ27"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="BO12:BQ12"/>
-    <mergeCell ref="BJ13:BL13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BO21:BQ21"/>
-    <mergeCell ref="BJ22:BK22"/>
-    <mergeCell ref="BO22:BP22"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BO7:BQ7"/>
-    <mergeCell ref="BJ8:BL8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BJ9:BL9"/>
-    <mergeCell ref="BO9:BQ9"/>
-    <mergeCell ref="BJ10:BL10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="AZ29:BB29"/>
-    <mergeCell ref="BE29:BG29"/>
-    <mergeCell ref="AZ30:BB30"/>
-    <mergeCell ref="BE30:BG30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BE31:BG31"/>
-    <mergeCell ref="AZ32:BB32"/>
-    <mergeCell ref="BE32:BG32"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="BE33:BG33"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BF24:BG24"/>
-    <mergeCell ref="BA25:BB25"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BF26:BG26"/>
-    <mergeCell ref="AZ27:BB27"/>
-    <mergeCell ref="BE27:BG27"/>
-    <mergeCell ref="AZ28:BB28"/>
-    <mergeCell ref="BE28:BG28"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="AZ13:BB13"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="AZ21:BB21"/>
-    <mergeCell ref="BE21:BG21"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BE22:BF22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BE7:BG7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="BE9:BG9"/>
-    <mergeCell ref="AZ10:BB10"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AU22:AV22"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AP34:AR34"/>
-    <mergeCell ref="AU34:AW34"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AU35:AW35"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AU36:AW36"/>
-    <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="CS12:CU12"/>
+    <mergeCell ref="CN13:CP13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CN21:CP21"/>
+    <mergeCell ref="CS21:CU21"/>
+    <mergeCell ref="CN22:CO22"/>
+    <mergeCell ref="CS22:CT22"/>
+    <mergeCell ref="CO23:CP23"/>
+    <mergeCell ref="CT23:CU23"/>
+    <mergeCell ref="CO24:CP24"/>
+    <mergeCell ref="CT24:CU24"/>
+    <mergeCell ref="CO25:CP25"/>
+    <mergeCell ref="CT25:CU25"/>
+    <mergeCell ref="CO26:CP26"/>
+    <mergeCell ref="CT26:CU26"/>
+    <mergeCell ref="CN27:CP27"/>
+    <mergeCell ref="CS27:CU27"/>
+    <mergeCell ref="CN33:CP33"/>
+    <mergeCell ref="CS33:CU33"/>
+    <mergeCell ref="CN28:CP28"/>
+    <mergeCell ref="CS28:CU28"/>
+    <mergeCell ref="CN29:CP29"/>
+    <mergeCell ref="CS29:CU29"/>
+    <mergeCell ref="CN30:CP30"/>
+    <mergeCell ref="CS30:CU30"/>
+    <mergeCell ref="CN31:CP31"/>
+    <mergeCell ref="CS31:CU31"/>
+    <mergeCell ref="CN32:CP32"/>
+    <mergeCell ref="CS32:CU32"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="40" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4618,7 +4929,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">

--- a/formQR.xlsx
+++ b/formQR.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">patients!$A$1:$J$38</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -525,12 +525,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -539,48 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1255,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1357,1112 +1357,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:99" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="39"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
       <c r="O1" s="39"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="39"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="38"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
       <c r="AS1" s="39"/>
       <c r="AT1" s="38"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
       <c r="BC1" s="39"/>
       <c r="BD1" s="38"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="86"/>
       <c r="BM1" s="39"/>
       <c r="BN1" s="38"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
+      <c r="BO1" s="86"/>
+      <c r="BP1" s="86"/>
+      <c r="BQ1" s="86"/>
+      <c r="BT1" s="86"/>
+      <c r="BU1" s="86"/>
+      <c r="BV1" s="86"/>
       <c r="BW1" s="39"/>
       <c r="BX1" s="38"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CD1" s="81"/>
-      <c r="CE1" s="81"/>
-      <c r="CF1" s="81"/>
+      <c r="BY1" s="86"/>
+      <c r="BZ1" s="86"/>
+      <c r="CA1" s="86"/>
+      <c r="CD1" s="86"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
       <c r="CG1" s="39"/>
       <c r="CH1" s="38"/>
-      <c r="CI1" s="81"/>
-      <c r="CJ1" s="81"/>
-      <c r="CK1" s="81"/>
-      <c r="CN1" s="81"/>
-      <c r="CO1" s="81"/>
-      <c r="CP1" s="81"/>
+      <c r="CI1" s="86"/>
+      <c r="CJ1" s="86"/>
+      <c r="CK1" s="86"/>
+      <c r="CN1" s="86"/>
+      <c r="CO1" s="86"/>
+      <c r="CP1" s="86"/>
       <c r="CQ1" s="39"/>
       <c r="CR1" s="38"/>
-      <c r="CS1" s="81"/>
-      <c r="CT1" s="81"/>
-      <c r="CU1" s="81"/>
+      <c r="CS1" s="86"/>
+      <c r="CT1" s="86"/>
+      <c r="CU1" s="86"/>
     </row>
     <row r="2" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="34"/>
       <c r="E2" s="71"/>
       <c r="F2" s="72"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="34"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="34"/>
       <c r="O2" s="71"/>
       <c r="P2" s="72"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
       <c r="S2" s="34"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
       <c r="X2" s="34"/>
       <c r="Y2" s="71"/>
       <c r="Z2" s="72"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
       <c r="AC2" s="34"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
       <c r="AH2" s="34"/>
       <c r="AI2" s="71"/>
       <c r="AJ2" s="72"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
       <c r="AM2" s="34"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="71"/>
       <c r="AT2" s="72"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
       <c r="AW2" s="34"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
       <c r="BB2" s="34"/>
       <c r="BC2" s="71"/>
       <c r="BD2" s="72"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
       <c r="BG2" s="34"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85"/>
       <c r="BL2" s="34"/>
       <c r="BM2" s="71"/>
       <c r="BN2" s="72"/>
-      <c r="BO2" s="82"/>
-      <c r="BP2" s="82"/>
+      <c r="BO2" s="85"/>
+      <c r="BP2" s="85"/>
       <c r="BQ2" s="34"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="82"/>
+      <c r="BT2" s="85"/>
+      <c r="BU2" s="85"/>
       <c r="BV2" s="34"/>
       <c r="BW2" s="71"/>
       <c r="BX2" s="72"/>
-      <c r="BY2" s="82"/>
-      <c r="BZ2" s="82"/>
+      <c r="BY2" s="85"/>
+      <c r="BZ2" s="85"/>
       <c r="CA2" s="34"/>
-      <c r="CD2" s="82"/>
-      <c r="CE2" s="82"/>
+      <c r="CD2" s="85"/>
+      <c r="CE2" s="85"/>
       <c r="CF2" s="34"/>
       <c r="CG2" s="71"/>
       <c r="CH2" s="72"/>
-      <c r="CI2" s="82"/>
-      <c r="CJ2" s="82"/>
+      <c r="CI2" s="85"/>
+      <c r="CJ2" s="85"/>
       <c r="CK2" s="34"/>
-      <c r="CN2" s="82"/>
-      <c r="CO2" s="82"/>
+      <c r="CN2" s="85"/>
+      <c r="CO2" s="85"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="71"/>
       <c r="CR2" s="72"/>
-      <c r="CS2" s="82"/>
-      <c r="CT2" s="82"/>
+      <c r="CS2" s="85"/>
+      <c r="CT2" s="85"/>
       <c r="CU2" s="34"/>
     </row>
     <row r="3" spans="2:99" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="50"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="50"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
       <c r="V3" s="49"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
       <c r="Y3" s="50"/>
       <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
       <c r="AF3" s="49"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
       <c r="AI3" s="50"/>
       <c r="AJ3" s="49"/>
       <c r="AK3" s="49"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
       <c r="AP3" s="49"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
       <c r="AS3" s="50"/>
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
       <c r="AZ3" s="49"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
       <c r="BC3" s="50"/>
       <c r="BD3" s="49"/>
       <c r="BE3" s="49"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
       <c r="BJ3" s="49"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
       <c r="BM3" s="50"/>
       <c r="BN3" s="49"/>
       <c r="BO3" s="49"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
       <c r="BT3" s="49"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
+      <c r="BU3" s="84"/>
+      <c r="BV3" s="84"/>
       <c r="BW3" s="50"/>
       <c r="BX3" s="49"/>
       <c r="BY3" s="49"/>
-      <c r="BZ3" s="75"/>
-      <c r="CA3" s="75"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="84"/>
       <c r="CD3" s="49"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="75"/>
+      <c r="CE3" s="84"/>
+      <c r="CF3" s="84"/>
       <c r="CG3" s="50"/>
       <c r="CH3" s="49"/>
       <c r="CI3" s="49"/>
-      <c r="CJ3" s="75"/>
-      <c r="CK3" s="75"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
       <c r="CN3" s="49"/>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="75"/>
+      <c r="CO3" s="84"/>
+      <c r="CP3" s="84"/>
       <c r="CQ3" s="50"/>
       <c r="CR3" s="49"/>
       <c r="CS3" s="49"/>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="75"/>
+      <c r="CT3" s="84"/>
+      <c r="CU3" s="84"/>
     </row>
     <row r="4" spans="2:99" s="51" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="53"/>
       <c r="F4" s="54"/>
       <c r="G4" s="52"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
       <c r="L4" s="52"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
       <c r="O4" s="53"/>
       <c r="P4" s="54"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="V4" s="52"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
       <c r="Y4" s="53"/>
       <c r="Z4" s="54"/>
       <c r="AA4" s="52"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
       <c r="AF4" s="52"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
       <c r="AI4" s="53"/>
       <c r="AJ4" s="54"/>
       <c r="AK4" s="52"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
       <c r="AP4" s="52"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
       <c r="AS4" s="53"/>
       <c r="AT4" s="54"/>
       <c r="AU4" s="52"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
       <c r="AZ4" s="52"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
       <c r="BC4" s="53"/>
       <c r="BD4" s="54"/>
       <c r="BE4" s="52"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="74"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
       <c r="BJ4" s="52"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="74"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
       <c r="BM4" s="53"/>
       <c r="BN4" s="54"/>
       <c r="BO4" s="52"/>
-      <c r="BP4" s="74"/>
-      <c r="BQ4" s="74"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
       <c r="BT4" s="52"/>
-      <c r="BU4" s="74"/>
-      <c r="BV4" s="74"/>
+      <c r="BU4" s="83"/>
+      <c r="BV4" s="83"/>
       <c r="BW4" s="53"/>
       <c r="BX4" s="54"/>
       <c r="BY4" s="52"/>
-      <c r="BZ4" s="74"/>
-      <c r="CA4" s="74"/>
+      <c r="BZ4" s="83"/>
+      <c r="CA4" s="83"/>
       <c r="CD4" s="52"/>
-      <c r="CE4" s="74"/>
-      <c r="CF4" s="74"/>
+      <c r="CE4" s="83"/>
+      <c r="CF4" s="83"/>
       <c r="CG4" s="53"/>
       <c r="CH4" s="54"/>
       <c r="CI4" s="52"/>
-      <c r="CJ4" s="74"/>
-      <c r="CK4" s="74"/>
+      <c r="CJ4" s="83"/>
+      <c r="CK4" s="83"/>
       <c r="CN4" s="52"/>
-      <c r="CO4" s="74"/>
-      <c r="CP4" s="74"/>
+      <c r="CO4" s="83"/>
+      <c r="CP4" s="83"/>
       <c r="CQ4" s="53"/>
       <c r="CR4" s="54"/>
       <c r="CS4" s="52"/>
-      <c r="CT4" s="74"/>
-      <c r="CU4" s="74"/>
+      <c r="CT4" s="83"/>
+      <c r="CU4" s="83"/>
     </row>
     <row r="5" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="22"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
       <c r="O5" s="22"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
       <c r="Y5" s="22"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
       <c r="AS5" s="22"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
       <c r="AZ5" s="3"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="84"/>
       <c r="BC5" s="22"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="75"/>
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="84"/>
       <c r="BJ5" s="3"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
+      <c r="BK5" s="84"/>
+      <c r="BL5" s="84"/>
       <c r="BM5" s="22"/>
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
-      <c r="BP5" s="75"/>
-      <c r="BQ5" s="75"/>
+      <c r="BP5" s="84"/>
+      <c r="BQ5" s="84"/>
       <c r="BT5" s="3"/>
-      <c r="BU5" s="75"/>
-      <c r="BV5" s="75"/>
+      <c r="BU5" s="84"/>
+      <c r="BV5" s="84"/>
       <c r="BW5" s="22"/>
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
-      <c r="BZ5" s="75"/>
-      <c r="CA5" s="75"/>
+      <c r="BZ5" s="84"/>
+      <c r="CA5" s="84"/>
       <c r="CD5" s="3"/>
-      <c r="CE5" s="75"/>
-      <c r="CF5" s="75"/>
+      <c r="CE5" s="84"/>
+      <c r="CF5" s="84"/>
       <c r="CG5" s="22"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="75"/>
-      <c r="CK5" s="75"/>
+      <c r="CJ5" s="84"/>
+      <c r="CK5" s="84"/>
       <c r="CN5" s="3"/>
-      <c r="CO5" s="75"/>
-      <c r="CP5" s="75"/>
+      <c r="CO5" s="84"/>
+      <c r="CP5" s="84"/>
       <c r="CQ5" s="22"/>
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
-      <c r="CT5" s="75"/>
-      <c r="CU5" s="75"/>
+      <c r="CT5" s="84"/>
+      <c r="CU5" s="84"/>
     </row>
     <row r="6" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="22"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
       <c r="O6" s="22"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
       <c r="AF6" s="13"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="88"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
       <c r="AS6" s="22"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="88"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
       <c r="AZ6" s="3"/>
-      <c r="BA6" s="75"/>
-      <c r="BB6" s="75"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="84"/>
       <c r="BC6" s="22"/>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
-      <c r="BF6" s="75"/>
-      <c r="BG6" s="75"/>
+      <c r="BF6" s="84"/>
+      <c r="BG6" s="84"/>
       <c r="BJ6" s="3"/>
-      <c r="BK6" s="75"/>
-      <c r="BL6" s="75"/>
+      <c r="BK6" s="84"/>
+      <c r="BL6" s="84"/>
       <c r="BM6" s="22"/>
       <c r="BN6" s="3"/>
       <c r="BO6" s="3"/>
-      <c r="BP6" s="75"/>
-      <c r="BQ6" s="75"/>
+      <c r="BP6" s="84"/>
+      <c r="BQ6" s="84"/>
       <c r="BT6" s="3"/>
-      <c r="BU6" s="75"/>
-      <c r="BV6" s="75"/>
+      <c r="BU6" s="84"/>
+      <c r="BV6" s="84"/>
       <c r="BW6" s="22"/>
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
-      <c r="BZ6" s="75"/>
-      <c r="CA6" s="75"/>
+      <c r="BZ6" s="84"/>
+      <c r="CA6" s="84"/>
       <c r="CD6" s="3"/>
-      <c r="CE6" s="75"/>
-      <c r="CF6" s="75"/>
+      <c r="CE6" s="84"/>
+      <c r="CF6" s="84"/>
       <c r="CG6" s="22"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="75"/>
-      <c r="CK6" s="75"/>
+      <c r="CJ6" s="84"/>
+      <c r="CK6" s="84"/>
       <c r="CN6" s="3"/>
-      <c r="CO6" s="75"/>
-      <c r="CP6" s="75"/>
+      <c r="CO6" s="84"/>
+      <c r="CP6" s="84"/>
       <c r="CQ6" s="22"/>
       <c r="CR6" s="3"/>
       <c r="CS6" s="3"/>
-      <c r="CT6" s="75"/>
-      <c r="CU6" s="75"/>
+      <c r="CT6" s="84"/>
+      <c r="CU6" s="84"/>
     </row>
     <row r="7" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="23"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="23"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
       <c r="AI7" s="23"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
       <c r="AS7" s="23"/>
       <c r="AT7" s="7"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="23"/>
       <c r="BD7" s="7"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="83"/>
+      <c r="BE7" s="87"/>
+      <c r="BF7" s="87"/>
+      <c r="BG7" s="87"/>
       <c r="BJ7" s="9"/>
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="23"/>
       <c r="BN7" s="7"/>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="83"/>
+      <c r="BO7" s="87"/>
+      <c r="BP7" s="87"/>
+      <c r="BQ7" s="87"/>
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
       <c r="BW7" s="23"/>
       <c r="BX7" s="7"/>
-      <c r="BY7" s="83"/>
-      <c r="BZ7" s="83"/>
-      <c r="CA7" s="83"/>
+      <c r="BY7" s="87"/>
+      <c r="BZ7" s="87"/>
+      <c r="CA7" s="87"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9"/>
       <c r="CF7" s="9"/>
       <c r="CG7" s="23"/>
       <c r="CH7" s="7"/>
-      <c r="CI7" s="83"/>
-      <c r="CJ7" s="83"/>
-      <c r="CK7" s="83"/>
+      <c r="CI7" s="87"/>
+      <c r="CJ7" s="87"/>
+      <c r="CK7" s="87"/>
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="23"/>
       <c r="CR7" s="7"/>
-      <c r="CS7" s="83"/>
-      <c r="CT7" s="83"/>
-      <c r="CU7" s="83"/>
+      <c r="CS7" s="87"/>
+      <c r="CT7" s="87"/>
+      <c r="CU7" s="87"/>
     </row>
     <row r="8" spans="2:99" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="24"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
       <c r="O8" s="24"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="19"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
       <c r="AS8" s="24"/>
       <c r="AT8" s="19"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
       <c r="BC8" s="24"/>
       <c r="BD8" s="19"/>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="83"/>
-      <c r="BG8" s="83"/>
-      <c r="BJ8" s="83"/>
-      <c r="BK8" s="83"/>
-      <c r="BL8" s="83"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="87"/>
+      <c r="BL8" s="87"/>
       <c r="BM8" s="24"/>
       <c r="BN8" s="19"/>
-      <c r="BO8" s="83"/>
-      <c r="BP8" s="83"/>
-      <c r="BQ8" s="83"/>
-      <c r="BT8" s="83"/>
-      <c r="BU8" s="83"/>
-      <c r="BV8" s="83"/>
+      <c r="BO8" s="87"/>
+      <c r="BP8" s="87"/>
+      <c r="BQ8" s="87"/>
+      <c r="BT8" s="87"/>
+      <c r="BU8" s="87"/>
+      <c r="BV8" s="87"/>
       <c r="BW8" s="24"/>
       <c r="BX8" s="19"/>
-      <c r="BY8" s="83"/>
-      <c r="BZ8" s="83"/>
-      <c r="CA8" s="83"/>
-      <c r="CD8" s="83"/>
-      <c r="CE8" s="83"/>
-      <c r="CF8" s="83"/>
+      <c r="BY8" s="87"/>
+      <c r="BZ8" s="87"/>
+      <c r="CA8" s="87"/>
+      <c r="CD8" s="87"/>
+      <c r="CE8" s="87"/>
+      <c r="CF8" s="87"/>
       <c r="CG8" s="24"/>
       <c r="CH8" s="19"/>
-      <c r="CI8" s="83"/>
-      <c r="CJ8" s="83"/>
-      <c r="CK8" s="83"/>
-      <c r="CN8" s="83"/>
-      <c r="CO8" s="83"/>
-      <c r="CP8" s="83"/>
+      <c r="CI8" s="87"/>
+      <c r="CJ8" s="87"/>
+      <c r="CK8" s="87"/>
+      <c r="CN8" s="87"/>
+      <c r="CO8" s="87"/>
+      <c r="CP8" s="87"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="19"/>
-      <c r="CS8" s="83"/>
-      <c r="CT8" s="83"/>
-      <c r="CU8" s="83"/>
+      <c r="CS8" s="87"/>
+      <c r="CT8" s="87"/>
+      <c r="CU8" s="87"/>
     </row>
     <row r="9" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="23"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="23"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
       <c r="AI9" s="23"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AZ9" s="80"/>
-      <c r="BA9" s="80"/>
-      <c r="BB9" s="80"/>
+      <c r="AU9" s="80"/>
+      <c r="AV9" s="80"/>
+      <c r="AW9" s="80"/>
+      <c r="AZ9" s="88"/>
+      <c r="BA9" s="88"/>
+      <c r="BB9" s="88"/>
       <c r="BC9" s="23"/>
       <c r="BD9" s="7"/>
-      <c r="BE9" s="80"/>
-      <c r="BF9" s="80"/>
-      <c r="BG9" s="80"/>
-      <c r="BJ9" s="80"/>
-      <c r="BK9" s="80"/>
-      <c r="BL9" s="80"/>
+      <c r="BE9" s="88"/>
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="88"/>
+      <c r="BJ9" s="88"/>
+      <c r="BK9" s="88"/>
+      <c r="BL9" s="88"/>
       <c r="BM9" s="23"/>
       <c r="BN9" s="7"/>
-      <c r="BO9" s="80"/>
-      <c r="BP9" s="80"/>
-      <c r="BQ9" s="80"/>
-      <c r="BT9" s="80"/>
-      <c r="BU9" s="80"/>
-      <c r="BV9" s="80"/>
+      <c r="BO9" s="88"/>
+      <c r="BP9" s="88"/>
+      <c r="BQ9" s="88"/>
+      <c r="BT9" s="88"/>
+      <c r="BU9" s="88"/>
+      <c r="BV9" s="88"/>
       <c r="BW9" s="23"/>
       <c r="BX9" s="7"/>
-      <c r="BY9" s="80"/>
-      <c r="BZ9" s="80"/>
-      <c r="CA9" s="80"/>
-      <c r="CD9" s="80"/>
-      <c r="CE9" s="80"/>
-      <c r="CF9" s="80"/>
+      <c r="BY9" s="88"/>
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="88"/>
+      <c r="CD9" s="88"/>
+      <c r="CE9" s="88"/>
+      <c r="CF9" s="88"/>
       <c r="CG9" s="23"/>
       <c r="CH9" s="7"/>
-      <c r="CI9" s="80"/>
-      <c r="CJ9" s="80"/>
-      <c r="CK9" s="80"/>
-      <c r="CN9" s="80"/>
-      <c r="CO9" s="80"/>
-      <c r="CP9" s="80"/>
+      <c r="CI9" s="88"/>
+      <c r="CJ9" s="88"/>
+      <c r="CK9" s="88"/>
+      <c r="CN9" s="88"/>
+      <c r="CO9" s="88"/>
+      <c r="CP9" s="88"/>
       <c r="CQ9" s="23"/>
       <c r="CR9" s="7"/>
-      <c r="CS9" s="80"/>
-      <c r="CT9" s="80"/>
-      <c r="CU9" s="80"/>
+      <c r="CS9" s="88"/>
+      <c r="CT9" s="88"/>
+      <c r="CU9" s="88"/>
     </row>
     <row r="10" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="23"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
       <c r="O10" s="23"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
       <c r="AS10" s="23"/>
       <c r="AT10" s="7"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="89"/>
       <c r="BC10" s="23"/>
       <c r="BD10" s="7"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="79"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BJ10" s="89"/>
+      <c r="BK10" s="89"/>
+      <c r="BL10" s="89"/>
       <c r="BM10" s="23"/>
       <c r="BN10" s="7"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="89"/>
+      <c r="BQ10" s="89"/>
+      <c r="BT10" s="89"/>
+      <c r="BU10" s="89"/>
+      <c r="BV10" s="89"/>
       <c r="BW10" s="23"/>
       <c r="BX10" s="7"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="79"/>
-      <c r="CA10" s="79"/>
-      <c r="CD10" s="79"/>
-      <c r="CE10" s="79"/>
-      <c r="CF10" s="79"/>
+      <c r="BY10" s="89"/>
+      <c r="BZ10" s="89"/>
+      <c r="CA10" s="89"/>
+      <c r="CD10" s="89"/>
+      <c r="CE10" s="89"/>
+      <c r="CF10" s="89"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="7"/>
-      <c r="CI10" s="79"/>
-      <c r="CJ10" s="79"/>
-      <c r="CK10" s="79"/>
-      <c r="CN10" s="79"/>
-      <c r="CO10" s="79"/>
-      <c r="CP10" s="79"/>
+      <c r="CI10" s="89"/>
+      <c r="CJ10" s="89"/>
+      <c r="CK10" s="89"/>
+      <c r="CN10" s="89"/>
+      <c r="CO10" s="89"/>
+      <c r="CP10" s="89"/>
       <c r="CQ10" s="23"/>
       <c r="CR10" s="7"/>
-      <c r="CS10" s="79"/>
-      <c r="CT10" s="79"/>
-      <c r="CU10" s="79"/>
+      <c r="CS10" s="89"/>
+      <c r="CT10" s="89"/>
+      <c r="CU10" s="89"/>
     </row>
     <row r="11" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="23"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="23"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
       <c r="AI11" s="23"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
       <c r="AS11" s="23"/>
       <c r="AT11" s="7"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AZ11" s="79"/>
-      <c r="BA11" s="79"/>
-      <c r="BB11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
       <c r="BC11" s="23"/>
       <c r="BD11" s="7"/>
-      <c r="BE11" s="79"/>
-      <c r="BF11" s="79"/>
-      <c r="BG11" s="79"/>
-      <c r="BJ11" s="79"/>
-      <c r="BK11" s="79"/>
-      <c r="BL11" s="79"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="89"/>
       <c r="BM11" s="23"/>
       <c r="BN11" s="7"/>
-      <c r="BO11" s="79"/>
-      <c r="BP11" s="79"/>
-      <c r="BQ11" s="79"/>
-      <c r="BT11" s="79"/>
-      <c r="BU11" s="79"/>
-      <c r="BV11" s="79"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BT11" s="89"/>
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
       <c r="BW11" s="23"/>
       <c r="BX11" s="7"/>
-      <c r="BY11" s="79"/>
-      <c r="BZ11" s="79"/>
-      <c r="CA11" s="79"/>
-      <c r="CD11" s="79"/>
-      <c r="CE11" s="79"/>
-      <c r="CF11" s="79"/>
+      <c r="BY11" s="89"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="89"/>
+      <c r="CD11" s="89"/>
+      <c r="CE11" s="89"/>
+      <c r="CF11" s="89"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="7"/>
-      <c r="CI11" s="79"/>
-      <c r="CJ11" s="79"/>
-      <c r="CK11" s="79"/>
-      <c r="CN11" s="79"/>
-      <c r="CO11" s="79"/>
-      <c r="CP11" s="79"/>
+      <c r="CI11" s="89"/>
+      <c r="CJ11" s="89"/>
+      <c r="CK11" s="89"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="89"/>
+      <c r="CP11" s="89"/>
       <c r="CQ11" s="23"/>
       <c r="CR11" s="7"/>
-      <c r="CS11" s="79"/>
-      <c r="CT11" s="79"/>
-      <c r="CU11" s="79"/>
+      <c r="CS11" s="89"/>
+      <c r="CT11" s="89"/>
+      <c r="CU11" s="89"/>
     </row>
     <row r="12" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="23"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
       <c r="O12" s="23"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
       <c r="AI12" s="23"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
       <c r="AS12" s="23"/>
       <c r="AT12" s="7"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AZ12" s="79"/>
-      <c r="BA12" s="79"/>
-      <c r="BB12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
       <c r="BC12" s="23"/>
       <c r="BD12" s="7"/>
-      <c r="BE12" s="79"/>
-      <c r="BF12" s="79"/>
-      <c r="BG12" s="79"/>
-      <c r="BJ12" s="79"/>
-      <c r="BK12" s="79"/>
-      <c r="BL12" s="79"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="89"/>
+      <c r="BL12" s="89"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="7"/>
-      <c r="BO12" s="79"/>
-      <c r="BP12" s="79"/>
-      <c r="BQ12" s="79"/>
-      <c r="BT12" s="79"/>
-      <c r="BU12" s="79"/>
-      <c r="BV12" s="79"/>
+      <c r="BO12" s="89"/>
+      <c r="BP12" s="89"/>
+      <c r="BQ12" s="89"/>
+      <c r="BT12" s="89"/>
+      <c r="BU12" s="89"/>
+      <c r="BV12" s="89"/>
       <c r="BW12" s="23"/>
       <c r="BX12" s="7"/>
-      <c r="BY12" s="79"/>
-      <c r="BZ12" s="79"/>
-      <c r="CA12" s="79"/>
-      <c r="CD12" s="79"/>
-      <c r="CE12" s="79"/>
-      <c r="CF12" s="79"/>
+      <c r="BY12" s="89"/>
+      <c r="BZ12" s="89"/>
+      <c r="CA12" s="89"/>
+      <c r="CD12" s="89"/>
+      <c r="CE12" s="89"/>
+      <c r="CF12" s="89"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="7"/>
-      <c r="CI12" s="79"/>
-      <c r="CJ12" s="79"/>
-      <c r="CK12" s="79"/>
-      <c r="CN12" s="79"/>
-      <c r="CO12" s="79"/>
-      <c r="CP12" s="79"/>
+      <c r="CI12" s="89"/>
+      <c r="CJ12" s="89"/>
+      <c r="CK12" s="89"/>
+      <c r="CN12" s="89"/>
+      <c r="CO12" s="89"/>
+      <c r="CP12" s="89"/>
       <c r="CQ12" s="23"/>
       <c r="CR12" s="7"/>
-      <c r="CS12" s="79"/>
-      <c r="CT12" s="79"/>
-      <c r="CU12" s="79"/>
+      <c r="CS12" s="89"/>
+      <c r="CT12" s="89"/>
+      <c r="CU12" s="89"/>
     </row>
     <row r="13" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="35"/>
       <c r="P13" s="36"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="36"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
       <c r="AS13" s="35"/>
       <c r="AT13" s="36"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AZ13" s="88"/>
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="88"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="36"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BJ13" s="80"/>
-      <c r="BK13" s="80"/>
-      <c r="BL13" s="80"/>
+      <c r="BE13" s="88"/>
+      <c r="BF13" s="88"/>
+      <c r="BG13" s="88"/>
+      <c r="BJ13" s="88"/>
+      <c r="BK13" s="88"/>
+      <c r="BL13" s="88"/>
       <c r="BM13" s="35"/>
       <c r="BN13" s="36"/>
-      <c r="BO13" s="80"/>
-      <c r="BP13" s="80"/>
-      <c r="BQ13" s="80"/>
-      <c r="BT13" s="80"/>
-      <c r="BU13" s="80"/>
-      <c r="BV13" s="80"/>
+      <c r="BO13" s="88"/>
+      <c r="BP13" s="88"/>
+      <c r="BQ13" s="88"/>
+      <c r="BT13" s="88"/>
+      <c r="BU13" s="88"/>
+      <c r="BV13" s="88"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="36"/>
-      <c r="BY13" s="80"/>
-      <c r="BZ13" s="80"/>
-      <c r="CA13" s="80"/>
-      <c r="CD13" s="80"/>
-      <c r="CE13" s="80"/>
-      <c r="CF13" s="80"/>
+      <c r="BY13" s="88"/>
+      <c r="BZ13" s="88"/>
+      <c r="CA13" s="88"/>
+      <c r="CD13" s="88"/>
+      <c r="CE13" s="88"/>
+      <c r="CF13" s="88"/>
       <c r="CG13" s="35"/>
       <c r="CH13" s="36"/>
-      <c r="CI13" s="80"/>
-      <c r="CJ13" s="80"/>
-      <c r="CK13" s="80"/>
-      <c r="CN13" s="80"/>
-      <c r="CO13" s="80"/>
-      <c r="CP13" s="80"/>
+      <c r="CI13" s="88"/>
+      <c r="CJ13" s="88"/>
+      <c r="CK13" s="88"/>
+      <c r="CN13" s="88"/>
+      <c r="CO13" s="88"/>
+      <c r="CP13" s="88"/>
       <c r="CQ13" s="35"/>
       <c r="CR13" s="36"/>
-      <c r="CS13" s="80"/>
-      <c r="CT13" s="80"/>
-      <c r="CU13" s="80"/>
+      <c r="CS13" s="88"/>
+      <c r="CT13" s="88"/>
+      <c r="CU13" s="88"/>
     </row>
     <row r="14" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="23"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="23"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="91"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
       <c r="AS14" s="23"/>
       <c r="AT14" s="7"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="92"/>
-      <c r="AW14" s="92"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -2505,46 +2505,46 @@
       <c r="CU14" s="10"/>
     </row>
     <row r="15" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="35"/>
       <c r="P15" s="36"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="36"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
       <c r="AS15" s="35"/>
       <c r="AT15" s="36"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
       <c r="AZ15" s="33"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="33"/>
@@ -2587,46 +2587,46 @@
       <c r="CU15" s="33"/>
     </row>
     <row r="16" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="23"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="23"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="89"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="89"/>
-      <c r="AR16" s="89"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
       <c r="AS16" s="23"/>
       <c r="AT16" s="7"/>
-      <c r="AU16" s="90"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="89"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
       <c r="AZ16" s="11"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="12"/>
@@ -2977,1112 +2977,1112 @@
       <c r="CU20" s="2"/>
     </row>
     <row r="21" spans="2:99" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="22"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
       <c r="O21" s="22"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="86"/>
       <c r="AS21" s="22"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
+      <c r="AU21" s="86"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="86"/>
+      <c r="AZ21" s="86"/>
+      <c r="BA21" s="86"/>
+      <c r="BB21" s="86"/>
       <c r="BC21" s="22"/>
       <c r="BD21" s="3"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="81"/>
-      <c r="BJ21" s="81"/>
-      <c r="BK21" s="81"/>
-      <c r="BL21" s="81"/>
+      <c r="BE21" s="86"/>
+      <c r="BF21" s="86"/>
+      <c r="BG21" s="86"/>
+      <c r="BJ21" s="86"/>
+      <c r="BK21" s="86"/>
+      <c r="BL21" s="86"/>
       <c r="BM21" s="22"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="81"/>
-      <c r="BQ21" s="81"/>
-      <c r="BT21" s="81"/>
-      <c r="BU21" s="81"/>
-      <c r="BV21" s="81"/>
+      <c r="BO21" s="86"/>
+      <c r="BP21" s="86"/>
+      <c r="BQ21" s="86"/>
+      <c r="BT21" s="86"/>
+      <c r="BU21" s="86"/>
+      <c r="BV21" s="86"/>
       <c r="BW21" s="22"/>
       <c r="BX21" s="3"/>
-      <c r="BY21" s="81"/>
-      <c r="BZ21" s="81"/>
-      <c r="CA21" s="81"/>
-      <c r="CD21" s="81"/>
-      <c r="CE21" s="81"/>
-      <c r="CF21" s="81"/>
+      <c r="BY21" s="86"/>
+      <c r="BZ21" s="86"/>
+      <c r="CA21" s="86"/>
+      <c r="CD21" s="86"/>
+      <c r="CE21" s="86"/>
+      <c r="CF21" s="86"/>
       <c r="CG21" s="22"/>
       <c r="CH21" s="3"/>
-      <c r="CI21" s="81"/>
-      <c r="CJ21" s="81"/>
-      <c r="CK21" s="81"/>
-      <c r="CN21" s="81"/>
-      <c r="CO21" s="81"/>
-      <c r="CP21" s="81"/>
+      <c r="CI21" s="86"/>
+      <c r="CJ21" s="86"/>
+      <c r="CK21" s="86"/>
+      <c r="CN21" s="86"/>
+      <c r="CO21" s="86"/>
+      <c r="CP21" s="86"/>
       <c r="CQ21" s="22"/>
       <c r="CR21" s="3"/>
-      <c r="CS21" s="81"/>
-      <c r="CT21" s="81"/>
-      <c r="CU21" s="81"/>
+      <c r="CS21" s="86"/>
+      <c r="CT21" s="86"/>
+      <c r="CU21" s="86"/>
     </row>
     <row r="22" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="34"/>
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="34"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="34"/>
       <c r="O22" s="71"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
       <c r="S22" s="34"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="71"/>
       <c r="Z22" s="72"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
       <c r="AC22" s="34"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
       <c r="AH22" s="34"/>
       <c r="AI22" s="71"/>
       <c r="AJ22" s="72"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="85"/>
       <c r="AM22" s="34"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
       <c r="AR22" s="34"/>
       <c r="AS22" s="71"/>
       <c r="AT22" s="72"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="82"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
       <c r="AW22" s="34"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="82"/>
+      <c r="AZ22" s="85"/>
+      <c r="BA22" s="85"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="72"/>
-      <c r="BE22" s="82"/>
-      <c r="BF22" s="82"/>
+      <c r="BE22" s="85"/>
+      <c r="BF22" s="85"/>
       <c r="BG22" s="34"/>
-      <c r="BJ22" s="82"/>
-      <c r="BK22" s="82"/>
+      <c r="BJ22" s="85"/>
+      <c r="BK22" s="85"/>
       <c r="BL22" s="34"/>
       <c r="BM22" s="71"/>
       <c r="BN22" s="72"/>
-      <c r="BO22" s="82"/>
-      <c r="BP22" s="82"/>
+      <c r="BO22" s="85"/>
+      <c r="BP22" s="85"/>
       <c r="BQ22" s="34"/>
-      <c r="BT22" s="82"/>
-      <c r="BU22" s="82"/>
+      <c r="BT22" s="85"/>
+      <c r="BU22" s="85"/>
       <c r="BV22" s="34"/>
       <c r="BW22" s="71"/>
       <c r="BX22" s="72"/>
-      <c r="BY22" s="82"/>
-      <c r="BZ22" s="82"/>
+      <c r="BY22" s="85"/>
+      <c r="BZ22" s="85"/>
       <c r="CA22" s="34"/>
-      <c r="CD22" s="82"/>
-      <c r="CE22" s="82"/>
+      <c r="CD22" s="85"/>
+      <c r="CE22" s="85"/>
       <c r="CF22" s="34"/>
       <c r="CG22" s="71"/>
       <c r="CH22" s="72"/>
-      <c r="CI22" s="82"/>
-      <c r="CJ22" s="82"/>
+      <c r="CI22" s="85"/>
+      <c r="CJ22" s="85"/>
       <c r="CK22" s="34"/>
-      <c r="CN22" s="82"/>
-      <c r="CO22" s="82"/>
+      <c r="CN22" s="85"/>
+      <c r="CO22" s="85"/>
       <c r="CP22" s="34"/>
       <c r="CQ22" s="71"/>
       <c r="CR22" s="72"/>
-      <c r="CS22" s="82"/>
-      <c r="CT22" s="82"/>
+      <c r="CS22" s="85"/>
+      <c r="CT22" s="85"/>
       <c r="CU22" s="34"/>
     </row>
     <row r="23" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
       <c r="O23" s="39"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
       <c r="Y23" s="39"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
       <c r="AI23" s="39"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
       <c r="AP23" s="38"/>
-      <c r="AQ23" s="75"/>
-      <c r="AR23" s="75"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
       <c r="AS23" s="39"/>
       <c r="AT23" s="38"/>
       <c r="AU23" s="38"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
       <c r="AZ23" s="38"/>
-      <c r="BA23" s="75"/>
-      <c r="BB23" s="75"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
       <c r="BC23" s="39"/>
       <c r="BD23" s="38"/>
       <c r="BE23" s="38"/>
-      <c r="BF23" s="75"/>
-      <c r="BG23" s="75"/>
+      <c r="BF23" s="84"/>
+      <c r="BG23" s="84"/>
       <c r="BJ23" s="38"/>
-      <c r="BK23" s="75"/>
-      <c r="BL23" s="75"/>
+      <c r="BK23" s="84"/>
+      <c r="BL23" s="84"/>
       <c r="BM23" s="39"/>
       <c r="BN23" s="38"/>
       <c r="BO23" s="38"/>
-      <c r="BP23" s="75"/>
-      <c r="BQ23" s="75"/>
+      <c r="BP23" s="84"/>
+      <c r="BQ23" s="84"/>
       <c r="BT23" s="38"/>
-      <c r="BU23" s="75"/>
-      <c r="BV23" s="75"/>
+      <c r="BU23" s="84"/>
+      <c r="BV23" s="84"/>
       <c r="BW23" s="39"/>
       <c r="BX23" s="38"/>
       <c r="BY23" s="38"/>
-      <c r="BZ23" s="75"/>
-      <c r="CA23" s="75"/>
+      <c r="BZ23" s="84"/>
+      <c r="CA23" s="84"/>
       <c r="CD23" s="38"/>
-      <c r="CE23" s="75"/>
-      <c r="CF23" s="75"/>
+      <c r="CE23" s="84"/>
+      <c r="CF23" s="84"/>
       <c r="CG23" s="39"/>
       <c r="CH23" s="38"/>
       <c r="CI23" s="38"/>
-      <c r="CJ23" s="75"/>
-      <c r="CK23" s="75"/>
+      <c r="CJ23" s="84"/>
+      <c r="CK23" s="84"/>
       <c r="CN23" s="38"/>
-      <c r="CO23" s="75"/>
-      <c r="CP23" s="75"/>
+      <c r="CO23" s="84"/>
+      <c r="CP23" s="84"/>
       <c r="CQ23" s="39"/>
       <c r="CR23" s="38"/>
       <c r="CS23" s="38"/>
-      <c r="CT23" s="75"/>
-      <c r="CU23" s="75"/>
+      <c r="CT23" s="84"/>
+      <c r="CU23" s="84"/>
     </row>
     <row r="24" spans="2:99" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
       <c r="O24" s="42"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="V24" s="41"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
       <c r="Y24" s="42"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
       <c r="AF24" s="41"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="41"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="74"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
       <c r="AP24" s="41"/>
-      <c r="AQ24" s="74"/>
-      <c r="AR24" s="74"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
       <c r="AS24" s="42"/>
       <c r="AT24" s="43"/>
       <c r="AU24" s="41"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
       <c r="AZ24" s="41"/>
-      <c r="BA24" s="74"/>
-      <c r="BB24" s="74"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
       <c r="BC24" s="42"/>
       <c r="BD24" s="43"/>
       <c r="BE24" s="41"/>
-      <c r="BF24" s="74"/>
-      <c r="BG24" s="74"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
       <c r="BJ24" s="41"/>
-      <c r="BK24" s="74"/>
-      <c r="BL24" s="74"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="83"/>
       <c r="BM24" s="42"/>
       <c r="BN24" s="43"/>
       <c r="BO24" s="41"/>
-      <c r="BP24" s="74"/>
-      <c r="BQ24" s="74"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="74"/>
-      <c r="BV24" s="74"/>
+      <c r="BU24" s="83"/>
+      <c r="BV24" s="83"/>
       <c r="BW24" s="42"/>
       <c r="BX24" s="43"/>
       <c r="BY24" s="41"/>
-      <c r="BZ24" s="74"/>
-      <c r="CA24" s="74"/>
+      <c r="BZ24" s="83"/>
+      <c r="CA24" s="83"/>
       <c r="CD24" s="41"/>
-      <c r="CE24" s="74"/>
-      <c r="CF24" s="74"/>
+      <c r="CE24" s="83"/>
+      <c r="CF24" s="83"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="43"/>
       <c r="CI24" s="41"/>
-      <c r="CJ24" s="74"/>
-      <c r="CK24" s="74"/>
+      <c r="CJ24" s="83"/>
+      <c r="CK24" s="83"/>
       <c r="CN24" s="41"/>
-      <c r="CO24" s="74"/>
-      <c r="CP24" s="74"/>
+      <c r="CO24" s="83"/>
+      <c r="CP24" s="83"/>
       <c r="CQ24" s="42"/>
       <c r="CR24" s="43"/>
       <c r="CS24" s="41"/>
-      <c r="CT24" s="74"/>
-      <c r="CU24" s="74"/>
+      <c r="CT24" s="83"/>
+      <c r="CU24" s="83"/>
     </row>
     <row r="25" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
       <c r="O25" s="39"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
       <c r="V25" s="38"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
       <c r="AF25" s="38"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
       <c r="AI25" s="39"/>
       <c r="AJ25" s="38"/>
       <c r="AK25" s="38"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
       <c r="AP25" s="38"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="75"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
       <c r="AS25" s="39"/>
       <c r="AT25" s="38"/>
       <c r="AU25" s="38"/>
-      <c r="AV25" s="75"/>
-      <c r="AW25" s="75"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
       <c r="AZ25" s="38"/>
-      <c r="BA25" s="75"/>
-      <c r="BB25" s="75"/>
+      <c r="BA25" s="84"/>
+      <c r="BB25" s="84"/>
       <c r="BC25" s="39"/>
       <c r="BD25" s="38"/>
       <c r="BE25" s="38"/>
-      <c r="BF25" s="75"/>
-      <c r="BG25" s="75"/>
+      <c r="BF25" s="84"/>
+      <c r="BG25" s="84"/>
       <c r="BJ25" s="38"/>
-      <c r="BK25" s="75"/>
-      <c r="BL25" s="75"/>
+      <c r="BK25" s="84"/>
+      <c r="BL25" s="84"/>
       <c r="BM25" s="39"/>
       <c r="BN25" s="38"/>
       <c r="BO25" s="38"/>
-      <c r="BP25" s="75"/>
-      <c r="BQ25" s="75"/>
+      <c r="BP25" s="84"/>
+      <c r="BQ25" s="84"/>
       <c r="BT25" s="38"/>
-      <c r="BU25" s="75"/>
-      <c r="BV25" s="75"/>
+      <c r="BU25" s="84"/>
+      <c r="BV25" s="84"/>
       <c r="BW25" s="39"/>
       <c r="BX25" s="38"/>
       <c r="BY25" s="38"/>
-      <c r="BZ25" s="75"/>
-      <c r="CA25" s="75"/>
+      <c r="BZ25" s="84"/>
+      <c r="CA25" s="84"/>
       <c r="CD25" s="38"/>
-      <c r="CE25" s="75"/>
-      <c r="CF25" s="75"/>
+      <c r="CE25" s="84"/>
+      <c r="CF25" s="84"/>
       <c r="CG25" s="39"/>
       <c r="CH25" s="38"/>
       <c r="CI25" s="38"/>
-      <c r="CJ25" s="75"/>
-      <c r="CK25" s="75"/>
+      <c r="CJ25" s="84"/>
+      <c r="CK25" s="84"/>
       <c r="CN25" s="38"/>
-      <c r="CO25" s="75"/>
-      <c r="CP25" s="75"/>
+      <c r="CO25" s="84"/>
+      <c r="CP25" s="84"/>
       <c r="CQ25" s="39"/>
       <c r="CR25" s="38"/>
       <c r="CS25" s="38"/>
-      <c r="CT25" s="75"/>
-      <c r="CU25" s="75"/>
+      <c r="CT25" s="84"/>
+      <c r="CU25" s="84"/>
     </row>
     <row r="26" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="39"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
       <c r="V26" s="45"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="45"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
       <c r="AF26" s="45"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
       <c r="AI26" s="39"/>
       <c r="AJ26" s="38"/>
       <c r="AK26" s="45"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
       <c r="AP26" s="45"/>
-      <c r="AQ26" s="88"/>
-      <c r="AR26" s="88"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
       <c r="AS26" s="39"/>
       <c r="AT26" s="38"/>
       <c r="AU26" s="45"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
       <c r="AZ26" s="38"/>
-      <c r="BA26" s="75"/>
-      <c r="BB26" s="75"/>
+      <c r="BA26" s="84"/>
+      <c r="BB26" s="84"/>
       <c r="BC26" s="39"/>
       <c r="BD26" s="38"/>
       <c r="BE26" s="38"/>
-      <c r="BF26" s="75"/>
-      <c r="BG26" s="75"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
       <c r="BJ26" s="38"/>
-      <c r="BK26" s="75"/>
-      <c r="BL26" s="75"/>
+      <c r="BK26" s="84"/>
+      <c r="BL26" s="84"/>
       <c r="BM26" s="39"/>
       <c r="BN26" s="38"/>
       <c r="BO26" s="38"/>
-      <c r="BP26" s="75"/>
-      <c r="BQ26" s="75"/>
+      <c r="BP26" s="84"/>
+      <c r="BQ26" s="84"/>
       <c r="BT26" s="38"/>
-      <c r="BU26" s="75"/>
-      <c r="BV26" s="75"/>
+      <c r="BU26" s="84"/>
+      <c r="BV26" s="84"/>
       <c r="BW26" s="39"/>
       <c r="BX26" s="38"/>
       <c r="BY26" s="38"/>
-      <c r="BZ26" s="75"/>
-      <c r="CA26" s="75"/>
+      <c r="BZ26" s="84"/>
+      <c r="CA26" s="84"/>
       <c r="CD26" s="38"/>
-      <c r="CE26" s="75"/>
-      <c r="CF26" s="75"/>
+      <c r="CE26" s="84"/>
+      <c r="CF26" s="84"/>
       <c r="CG26" s="39"/>
       <c r="CH26" s="38"/>
       <c r="CI26" s="38"/>
-      <c r="CJ26" s="75"/>
-      <c r="CK26" s="75"/>
+      <c r="CJ26" s="84"/>
+      <c r="CK26" s="84"/>
       <c r="CN26" s="38"/>
-      <c r="CO26" s="75"/>
-      <c r="CP26" s="75"/>
+      <c r="CO26" s="84"/>
+      <c r="CP26" s="84"/>
       <c r="CQ26" s="39"/>
       <c r="CR26" s="38"/>
       <c r="CS26" s="38"/>
-      <c r="CT26" s="75"/>
-      <c r="CU26" s="75"/>
+      <c r="CT26" s="84"/>
+      <c r="CU26" s="84"/>
     </row>
     <row r="27" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="22"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="22"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AP27" s="89"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="89"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
       <c r="AS27" s="22"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AZ27" s="76"/>
-      <c r="BA27" s="76"/>
-      <c r="BB27" s="76"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
       <c r="BC27" s="22"/>
       <c r="BD27" s="3"/>
-      <c r="BE27" s="76"/>
-      <c r="BF27" s="76"/>
-      <c r="BG27" s="76"/>
-      <c r="BJ27" s="76"/>
-      <c r="BK27" s="76"/>
-      <c r="BL27" s="76"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="90"/>
+      <c r="BG27" s="90"/>
+      <c r="BJ27" s="90"/>
+      <c r="BK27" s="90"/>
+      <c r="BL27" s="90"/>
       <c r="BM27" s="22"/>
       <c r="BN27" s="3"/>
-      <c r="BO27" s="76"/>
-      <c r="BP27" s="76"/>
-      <c r="BQ27" s="76"/>
-      <c r="BT27" s="76"/>
-      <c r="BU27" s="76"/>
-      <c r="BV27" s="76"/>
+      <c r="BO27" s="90"/>
+      <c r="BP27" s="90"/>
+      <c r="BQ27" s="90"/>
+      <c r="BT27" s="90"/>
+      <c r="BU27" s="90"/>
+      <c r="BV27" s="90"/>
       <c r="BW27" s="22"/>
       <c r="BX27" s="3"/>
-      <c r="BY27" s="76"/>
-      <c r="BZ27" s="76"/>
-      <c r="CA27" s="76"/>
-      <c r="CD27" s="76"/>
-      <c r="CE27" s="76"/>
-      <c r="CF27" s="76"/>
+      <c r="BY27" s="90"/>
+      <c r="BZ27" s="90"/>
+      <c r="CA27" s="90"/>
+      <c r="CD27" s="90"/>
+      <c r="CE27" s="90"/>
+      <c r="CF27" s="90"/>
       <c r="CG27" s="22"/>
       <c r="CH27" s="3"/>
-      <c r="CI27" s="76"/>
-      <c r="CJ27" s="76"/>
-      <c r="CK27" s="76"/>
-      <c r="CN27" s="76"/>
-      <c r="CO27" s="76"/>
-      <c r="CP27" s="76"/>
+      <c r="CI27" s="90"/>
+      <c r="CJ27" s="90"/>
+      <c r="CK27" s="90"/>
+      <c r="CN27" s="90"/>
+      <c r="CO27" s="90"/>
+      <c r="CP27" s="90"/>
       <c r="CQ27" s="22"/>
       <c r="CR27" s="3"/>
-      <c r="CS27" s="76"/>
-      <c r="CT27" s="76"/>
-      <c r="CU27" s="76"/>
+      <c r="CS27" s="90"/>
+      <c r="CT27" s="90"/>
+      <c r="CU27" s="90"/>
     </row>
     <row r="28" spans="2:99" s="18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="25"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="25"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="17"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AP28" s="81"/>
+      <c r="AQ28" s="81"/>
+      <c r="AR28" s="81"/>
       <c r="AS28" s="25"/>
       <c r="AT28" s="17"/>
-      <c r="AU28" s="85"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="85"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
+      <c r="AU28" s="81"/>
+      <c r="AV28" s="81"/>
+      <c r="AW28" s="81"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="90"/>
+      <c r="BB28" s="90"/>
       <c r="BC28" s="25"/>
       <c r="BD28" s="17"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
+      <c r="BE28" s="90"/>
+      <c r="BF28" s="90"/>
+      <c r="BG28" s="90"/>
+      <c r="BJ28" s="90"/>
+      <c r="BK28" s="90"/>
+      <c r="BL28" s="90"/>
       <c r="BM28" s="25"/>
       <c r="BN28" s="17"/>
-      <c r="BO28" s="76"/>
-      <c r="BP28" s="76"/>
-      <c r="BQ28" s="76"/>
-      <c r="BT28" s="76"/>
-      <c r="BU28" s="76"/>
-      <c r="BV28" s="76"/>
+      <c r="BO28" s="90"/>
+      <c r="BP28" s="90"/>
+      <c r="BQ28" s="90"/>
+      <c r="BT28" s="90"/>
+      <c r="BU28" s="90"/>
+      <c r="BV28" s="90"/>
       <c r="BW28" s="25"/>
       <c r="BX28" s="17"/>
-      <c r="BY28" s="76"/>
-      <c r="BZ28" s="76"/>
-      <c r="CA28" s="76"/>
-      <c r="CD28" s="76"/>
-      <c r="CE28" s="76"/>
-      <c r="CF28" s="76"/>
+      <c r="BY28" s="90"/>
+      <c r="BZ28" s="90"/>
+      <c r="CA28" s="90"/>
+      <c r="CD28" s="90"/>
+      <c r="CE28" s="90"/>
+      <c r="CF28" s="90"/>
       <c r="CG28" s="25"/>
       <c r="CH28" s="17"/>
-      <c r="CI28" s="76"/>
-      <c r="CJ28" s="76"/>
-      <c r="CK28" s="76"/>
-      <c r="CN28" s="76"/>
-      <c r="CO28" s="76"/>
-      <c r="CP28" s="76"/>
+      <c r="CI28" s="90"/>
+      <c r="CJ28" s="90"/>
+      <c r="CK28" s="90"/>
+      <c r="CN28" s="90"/>
+      <c r="CO28" s="90"/>
+      <c r="CP28" s="90"/>
       <c r="CQ28" s="25"/>
       <c r="CR28" s="17"/>
-      <c r="CS28" s="76"/>
-      <c r="CT28" s="76"/>
-      <c r="CU28" s="76"/>
+      <c r="CS28" s="90"/>
+      <c r="CT28" s="90"/>
+      <c r="CU28" s="90"/>
     </row>
     <row r="29" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="39"/>
       <c r="P29" s="38"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
       <c r="AI29" s="39"/>
       <c r="AJ29" s="38"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="80"/>
       <c r="AS29" s="39"/>
       <c r="AT29" s="38"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77"/>
-      <c r="BB29" s="77"/>
+      <c r="AU29" s="80"/>
+      <c r="AV29" s="80"/>
+      <c r="AW29" s="80"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
       <c r="BC29" s="39"/>
       <c r="BD29" s="38"/>
-      <c r="BE29" s="77"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="77"/>
-      <c r="BJ29" s="77"/>
-      <c r="BK29" s="77"/>
-      <c r="BL29" s="77"/>
+      <c r="BE29" s="91"/>
+      <c r="BF29" s="91"/>
+      <c r="BG29" s="91"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="91"/>
+      <c r="BL29" s="91"/>
       <c r="BM29" s="39"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="77"/>
-      <c r="BP29" s="77"/>
-      <c r="BQ29" s="77"/>
-      <c r="BT29" s="77"/>
-      <c r="BU29" s="77"/>
-      <c r="BV29" s="77"/>
+      <c r="BO29" s="91"/>
+      <c r="BP29" s="91"/>
+      <c r="BQ29" s="91"/>
+      <c r="BT29" s="91"/>
+      <c r="BU29" s="91"/>
+      <c r="BV29" s="91"/>
       <c r="BW29" s="39"/>
       <c r="BX29" s="38"/>
-      <c r="BY29" s="77"/>
-      <c r="BZ29" s="77"/>
-      <c r="CA29" s="77"/>
-      <c r="CD29" s="77"/>
-      <c r="CE29" s="77"/>
-      <c r="CF29" s="77"/>
+      <c r="BY29" s="91"/>
+      <c r="BZ29" s="91"/>
+      <c r="CA29" s="91"/>
+      <c r="CD29" s="91"/>
+      <c r="CE29" s="91"/>
+      <c r="CF29" s="91"/>
       <c r="CG29" s="39"/>
       <c r="CH29" s="38"/>
-      <c r="CI29" s="77"/>
-      <c r="CJ29" s="77"/>
-      <c r="CK29" s="77"/>
-      <c r="CN29" s="77"/>
-      <c r="CO29" s="77"/>
-      <c r="CP29" s="77"/>
+      <c r="CI29" s="91"/>
+      <c r="CJ29" s="91"/>
+      <c r="CK29" s="91"/>
+      <c r="CN29" s="91"/>
+      <c r="CO29" s="91"/>
+      <c r="CP29" s="91"/>
       <c r="CQ29" s="39"/>
       <c r="CR29" s="38"/>
-      <c r="CS29" s="77"/>
-      <c r="CT29" s="77"/>
-      <c r="CU29" s="77"/>
+      <c r="CS29" s="91"/>
+      <c r="CT29" s="91"/>
+      <c r="CU29" s="91"/>
     </row>
     <row r="30" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="22"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
       <c r="O30" s="22"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
       <c r="Y30" s="22"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
       <c r="AS30" s="22"/>
       <c r="AT30" s="3"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AZ30" s="78"/>
-      <c r="BA30" s="78"/>
-      <c r="BB30" s="78"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AZ30" s="92"/>
+      <c r="BA30" s="92"/>
+      <c r="BB30" s="92"/>
       <c r="BC30" s="22"/>
       <c r="BD30" s="3"/>
-      <c r="BE30" s="78"/>
-      <c r="BF30" s="78"/>
-      <c r="BG30" s="78"/>
-      <c r="BJ30" s="78"/>
-      <c r="BK30" s="78"/>
-      <c r="BL30" s="78"/>
+      <c r="BE30" s="92"/>
+      <c r="BF30" s="92"/>
+      <c r="BG30" s="92"/>
+      <c r="BJ30" s="92"/>
+      <c r="BK30" s="92"/>
+      <c r="BL30" s="92"/>
       <c r="BM30" s="22"/>
       <c r="BN30" s="3"/>
-      <c r="BO30" s="78"/>
-      <c r="BP30" s="78"/>
-      <c r="BQ30" s="78"/>
-      <c r="BT30" s="78"/>
-      <c r="BU30" s="78"/>
-      <c r="BV30" s="78"/>
+      <c r="BO30" s="92"/>
+      <c r="BP30" s="92"/>
+      <c r="BQ30" s="92"/>
+      <c r="BT30" s="92"/>
+      <c r="BU30" s="92"/>
+      <c r="BV30" s="92"/>
       <c r="BW30" s="22"/>
       <c r="BX30" s="3"/>
-      <c r="BY30" s="78"/>
-      <c r="BZ30" s="78"/>
-      <c r="CA30" s="78"/>
-      <c r="CD30" s="78"/>
-      <c r="CE30" s="78"/>
-      <c r="CF30" s="78"/>
+      <c r="BY30" s="92"/>
+      <c r="BZ30" s="92"/>
+      <c r="CA30" s="92"/>
+      <c r="CD30" s="92"/>
+      <c r="CE30" s="92"/>
+      <c r="CF30" s="92"/>
       <c r="CG30" s="22"/>
       <c r="CH30" s="3"/>
-      <c r="CI30" s="78"/>
-      <c r="CJ30" s="78"/>
-      <c r="CK30" s="78"/>
-      <c r="CN30" s="78"/>
-      <c r="CO30" s="78"/>
-      <c r="CP30" s="78"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="92"/>
+      <c r="CK30" s="92"/>
+      <c r="CN30" s="92"/>
+      <c r="CO30" s="92"/>
+      <c r="CP30" s="92"/>
       <c r="CQ30" s="22"/>
       <c r="CR30" s="3"/>
-      <c r="CS30" s="78"/>
-      <c r="CT30" s="78"/>
-      <c r="CU30" s="78"/>
+      <c r="CS30" s="92"/>
+      <c r="CT30" s="92"/>
+      <c r="CU30" s="92"/>
     </row>
     <row r="31" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="22"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="22"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
       <c r="AS31" s="22"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AZ31" s="78"/>
-      <c r="BA31" s="78"/>
-      <c r="BB31" s="78"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="92"/>
+      <c r="BB31" s="92"/>
       <c r="BC31" s="22"/>
       <c r="BD31" s="3"/>
-      <c r="BE31" s="78"/>
-      <c r="BF31" s="78"/>
-      <c r="BG31" s="78"/>
-      <c r="BJ31" s="78"/>
-      <c r="BK31" s="78"/>
-      <c r="BL31" s="78"/>
+      <c r="BE31" s="92"/>
+      <c r="BF31" s="92"/>
+      <c r="BG31" s="92"/>
+      <c r="BJ31" s="92"/>
+      <c r="BK31" s="92"/>
+      <c r="BL31" s="92"/>
       <c r="BM31" s="22"/>
       <c r="BN31" s="3"/>
-      <c r="BO31" s="78"/>
-      <c r="BP31" s="78"/>
-      <c r="BQ31" s="78"/>
-      <c r="BT31" s="78"/>
-      <c r="BU31" s="78"/>
-      <c r="BV31" s="78"/>
+      <c r="BO31" s="92"/>
+      <c r="BP31" s="92"/>
+      <c r="BQ31" s="92"/>
+      <c r="BT31" s="92"/>
+      <c r="BU31" s="92"/>
+      <c r="BV31" s="92"/>
       <c r="BW31" s="22"/>
       <c r="BX31" s="3"/>
-      <c r="BY31" s="78"/>
-      <c r="BZ31" s="78"/>
-      <c r="CA31" s="78"/>
-      <c r="CD31" s="78"/>
-      <c r="CE31" s="78"/>
-      <c r="CF31" s="78"/>
+      <c r="BY31" s="92"/>
+      <c r="BZ31" s="92"/>
+      <c r="CA31" s="92"/>
+      <c r="CD31" s="92"/>
+      <c r="CE31" s="92"/>
+      <c r="CF31" s="92"/>
       <c r="CG31" s="22"/>
       <c r="CH31" s="3"/>
-      <c r="CI31" s="78"/>
-      <c r="CJ31" s="78"/>
-      <c r="CK31" s="78"/>
-      <c r="CN31" s="78"/>
-      <c r="CO31" s="78"/>
-      <c r="CP31" s="78"/>
+      <c r="CI31" s="92"/>
+      <c r="CJ31" s="92"/>
+      <c r="CK31" s="92"/>
+      <c r="CN31" s="92"/>
+      <c r="CO31" s="92"/>
+      <c r="CP31" s="92"/>
       <c r="CQ31" s="22"/>
       <c r="CR31" s="3"/>
-      <c r="CS31" s="78"/>
-      <c r="CT31" s="78"/>
-      <c r="CU31" s="78"/>
+      <c r="CS31" s="92"/>
+      <c r="CT31" s="92"/>
+      <c r="CU31" s="92"/>
     </row>
     <row r="32" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="22"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
       <c r="O32" s="22"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="79"/>
+      <c r="AM32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
       <c r="AS32" s="22"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AZ32" s="78"/>
-      <c r="BA32" s="78"/>
-      <c r="BB32" s="78"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AZ32" s="92"/>
+      <c r="BA32" s="92"/>
+      <c r="BB32" s="92"/>
       <c r="BC32" s="22"/>
       <c r="BD32" s="3"/>
-      <c r="BE32" s="78"/>
-      <c r="BF32" s="78"/>
-      <c r="BG32" s="78"/>
-      <c r="BJ32" s="78"/>
-      <c r="BK32" s="78"/>
-      <c r="BL32" s="78"/>
+      <c r="BE32" s="92"/>
+      <c r="BF32" s="92"/>
+      <c r="BG32" s="92"/>
+      <c r="BJ32" s="92"/>
+      <c r="BK32" s="92"/>
+      <c r="BL32" s="92"/>
       <c r="BM32" s="22"/>
       <c r="BN32" s="3"/>
-      <c r="BO32" s="78"/>
-      <c r="BP32" s="78"/>
-      <c r="BQ32" s="78"/>
-      <c r="BT32" s="78"/>
-      <c r="BU32" s="78"/>
-      <c r="BV32" s="78"/>
+      <c r="BO32" s="92"/>
+      <c r="BP32" s="92"/>
+      <c r="BQ32" s="92"/>
+      <c r="BT32" s="92"/>
+      <c r="BU32" s="92"/>
+      <c r="BV32" s="92"/>
       <c r="BW32" s="22"/>
       <c r="BX32" s="3"/>
-      <c r="BY32" s="78"/>
-      <c r="BZ32" s="78"/>
-      <c r="CA32" s="78"/>
-      <c r="CD32" s="78"/>
-      <c r="CE32" s="78"/>
-      <c r="CF32" s="78"/>
+      <c r="BY32" s="92"/>
+      <c r="BZ32" s="92"/>
+      <c r="CA32" s="92"/>
+      <c r="CD32" s="92"/>
+      <c r="CE32" s="92"/>
+      <c r="CF32" s="92"/>
       <c r="CG32" s="22"/>
       <c r="CH32" s="3"/>
-      <c r="CI32" s="78"/>
-      <c r="CJ32" s="78"/>
-      <c r="CK32" s="78"/>
-      <c r="CN32" s="78"/>
-      <c r="CO32" s="78"/>
-      <c r="CP32" s="78"/>
+      <c r="CI32" s="92"/>
+      <c r="CJ32" s="92"/>
+      <c r="CK32" s="92"/>
+      <c r="CN32" s="92"/>
+      <c r="CO32" s="92"/>
+      <c r="CP32" s="92"/>
       <c r="CQ32" s="22"/>
       <c r="CR32" s="3"/>
-      <c r="CS32" s="78"/>
-      <c r="CT32" s="78"/>
-      <c r="CU32" s="78"/>
+      <c r="CS32" s="92"/>
+      <c r="CT32" s="92"/>
+      <c r="CU32" s="92"/>
     </row>
     <row r="33" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="39"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
       <c r="O33" s="39"/>
       <c r="P33" s="38"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
       <c r="Y33" s="39"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
       <c r="AI33" s="39"/>
       <c r="AJ33" s="38"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="84"/>
-      <c r="AP33" s="84"/>
-      <c r="AQ33" s="84"/>
-      <c r="AR33" s="84"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
       <c r="AS33" s="39"/>
       <c r="AT33" s="38"/>
-      <c r="AU33" s="84"/>
-      <c r="AV33" s="84"/>
-      <c r="AW33" s="84"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
+      <c r="AW33" s="76"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
       <c r="BC33" s="39"/>
       <c r="BD33" s="38"/>
-      <c r="BE33" s="77"/>
-      <c r="BF33" s="77"/>
-      <c r="BG33" s="77"/>
-      <c r="BJ33" s="77"/>
-      <c r="BK33" s="77"/>
-      <c r="BL33" s="77"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="91"/>
+      <c r="BG33" s="91"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
+      <c r="BL33" s="91"/>
       <c r="BM33" s="39"/>
       <c r="BN33" s="38"/>
-      <c r="BO33" s="77"/>
-      <c r="BP33" s="77"/>
-      <c r="BQ33" s="77"/>
-      <c r="BT33" s="77"/>
-      <c r="BU33" s="77"/>
-      <c r="BV33" s="77"/>
+      <c r="BO33" s="91"/>
+      <c r="BP33" s="91"/>
+      <c r="BQ33" s="91"/>
+      <c r="BT33" s="91"/>
+      <c r="BU33" s="91"/>
+      <c r="BV33" s="91"/>
       <c r="BW33" s="39"/>
       <c r="BX33" s="38"/>
-      <c r="BY33" s="77"/>
-      <c r="BZ33" s="77"/>
-      <c r="CA33" s="77"/>
-      <c r="CD33" s="77"/>
-      <c r="CE33" s="77"/>
-      <c r="CF33" s="77"/>
+      <c r="BY33" s="91"/>
+      <c r="BZ33" s="91"/>
+      <c r="CA33" s="91"/>
+      <c r="CD33" s="91"/>
+      <c r="CE33" s="91"/>
+      <c r="CF33" s="91"/>
       <c r="CG33" s="39"/>
       <c r="CH33" s="38"/>
-      <c r="CI33" s="77"/>
-      <c r="CJ33" s="77"/>
-      <c r="CK33" s="77"/>
-      <c r="CN33" s="77"/>
-      <c r="CO33" s="77"/>
-      <c r="CP33" s="77"/>
+      <c r="CI33" s="91"/>
+      <c r="CJ33" s="91"/>
+      <c r="CK33" s="91"/>
+      <c r="CN33" s="91"/>
+      <c r="CO33" s="91"/>
+      <c r="CP33" s="91"/>
       <c r="CQ33" s="39"/>
       <c r="CR33" s="38"/>
-      <c r="CS33" s="77"/>
-      <c r="CT33" s="77"/>
-      <c r="CU33" s="77"/>
+      <c r="CS33" s="91"/>
+      <c r="CT33" s="91"/>
+      <c r="CU33" s="91"/>
     </row>
     <row r="34" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="22"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
       <c r="O34" s="22"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="91"/>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="92"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="92"/>
-      <c r="AR34" s="92"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="75"/>
       <c r="AS34" s="22"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="92"/>
-      <c r="AW34" s="92"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="75"/>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="3"/>
       <c r="BB34" s="6"/>
@@ -4125,46 +4125,46 @@
       <c r="CU34" s="6"/>
     </row>
     <row r="35" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="39"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="39"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
       <c r="Y35" s="39"/>
       <c r="Z35" s="38"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
       <c r="AI35" s="39"/>
       <c r="AJ35" s="38"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
-      <c r="AM35" s="84"/>
-      <c r="AP35" s="84"/>
-      <c r="AQ35" s="84"/>
-      <c r="AR35" s="84"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
       <c r="AS35" s="39"/>
       <c r="AT35" s="38"/>
-      <c r="AU35" s="84"/>
-      <c r="AV35" s="84"/>
-      <c r="AW35" s="84"/>
+      <c r="AU35" s="76"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="76"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="32"/>
@@ -4207,41 +4207,41 @@
       <c r="CU35" s="32"/>
     </row>
     <row r="36" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="22"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
       <c r="O36" s="22"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
       <c r="Y36" s="22"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="89"/>
-      <c r="AC36" s="89"/>
-      <c r="AF36" s="90"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
+      <c r="AA36" s="77"/>
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="78"/>
+      <c r="AF36" s="77"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
       <c r="AI36" s="22"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="89"/>
-      <c r="AM36" s="89"/>
-      <c r="AP36" s="90"/>
-      <c r="AQ36" s="89"/>
-      <c r="AR36" s="89"/>
+      <c r="AK36" s="77"/>
+      <c r="AL36" s="78"/>
+      <c r="AM36" s="78"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="78"/>
+      <c r="AR36" s="78"/>
       <c r="AS36" s="22"/>
-      <c r="AU36" s="90"/>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
+      <c r="AU36" s="77"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
       <c r="BC36" s="22"/>
       <c r="BM36" s="22"/>
       <c r="BW36" s="22"/>
@@ -4334,6 +4334,557 @@
     </row>
   </sheetData>
   <mergeCells count="575">
+    <mergeCell ref="CO24:CP24"/>
+    <mergeCell ref="CT24:CU24"/>
+    <mergeCell ref="CO25:CP25"/>
+    <mergeCell ref="CT25:CU25"/>
+    <mergeCell ref="CO26:CP26"/>
+    <mergeCell ref="CT26:CU26"/>
+    <mergeCell ref="CN27:CP27"/>
+    <mergeCell ref="CS27:CU27"/>
+    <mergeCell ref="CN33:CP33"/>
+    <mergeCell ref="CS33:CU33"/>
+    <mergeCell ref="CN28:CP28"/>
+    <mergeCell ref="CS28:CU28"/>
+    <mergeCell ref="CN29:CP29"/>
+    <mergeCell ref="CS29:CU29"/>
+    <mergeCell ref="CN30:CP30"/>
+    <mergeCell ref="CS30:CU30"/>
+    <mergeCell ref="CN31:CP31"/>
+    <mergeCell ref="CS31:CU31"/>
+    <mergeCell ref="CN32:CP32"/>
+    <mergeCell ref="CS32:CU32"/>
+    <mergeCell ref="CS12:CU12"/>
+    <mergeCell ref="CN13:CP13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CN21:CP21"/>
+    <mergeCell ref="CS21:CU21"/>
+    <mergeCell ref="CN22:CO22"/>
+    <mergeCell ref="CS22:CT22"/>
+    <mergeCell ref="CO23:CP23"/>
+    <mergeCell ref="CT23:CU23"/>
+    <mergeCell ref="CD33:CF33"/>
+    <mergeCell ref="CI33:CK33"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CS1:CU1"/>
+    <mergeCell ref="CN2:CO2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CT3:CU3"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CT4:CU4"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CO6:CP6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CS7:CU7"/>
+    <mergeCell ref="CN8:CP8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CN9:CP9"/>
+    <mergeCell ref="CS9:CU9"/>
+    <mergeCell ref="CN10:CP10"/>
+    <mergeCell ref="CS10:CU10"/>
+    <mergeCell ref="CN11:CP11"/>
+    <mergeCell ref="CS11:CU11"/>
+    <mergeCell ref="CN12:CP12"/>
+    <mergeCell ref="CD28:CF28"/>
+    <mergeCell ref="CI28:CK28"/>
+    <mergeCell ref="CD29:CF29"/>
+    <mergeCell ref="CI29:CK29"/>
+    <mergeCell ref="CD30:CF30"/>
+    <mergeCell ref="CI30:CK30"/>
+    <mergeCell ref="CD31:CF31"/>
+    <mergeCell ref="CI31:CK31"/>
+    <mergeCell ref="CD32:CF32"/>
+    <mergeCell ref="CI32:CK32"/>
+    <mergeCell ref="CE23:CF23"/>
+    <mergeCell ref="CJ23:CK23"/>
+    <mergeCell ref="CE24:CF24"/>
+    <mergeCell ref="CJ24:CK24"/>
+    <mergeCell ref="CE25:CF25"/>
+    <mergeCell ref="CJ25:CK25"/>
+    <mergeCell ref="CE26:CF26"/>
+    <mergeCell ref="CJ26:CK26"/>
+    <mergeCell ref="CD27:CF27"/>
+    <mergeCell ref="CI27:CK27"/>
+    <mergeCell ref="CD11:CF11"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CI13:CK13"/>
+    <mergeCell ref="CD21:CF21"/>
+    <mergeCell ref="CI21:CK21"/>
+    <mergeCell ref="CD22:CE22"/>
+    <mergeCell ref="CI22:CJ22"/>
+    <mergeCell ref="CE6:CF6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CI7:CK7"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CI8:CK8"/>
+    <mergeCell ref="CD9:CF9"/>
+    <mergeCell ref="CI9:CK9"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="CI10:CK10"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CJ5:CK5"/>
+    <mergeCell ref="BT29:BV29"/>
+    <mergeCell ref="BY29:CA29"/>
+    <mergeCell ref="BT30:BV30"/>
+    <mergeCell ref="BY30:CA30"/>
+    <mergeCell ref="BT31:BV31"/>
+    <mergeCell ref="BY31:CA31"/>
+    <mergeCell ref="BT32:BV32"/>
+    <mergeCell ref="BY32:CA32"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="BY33:CA33"/>
+    <mergeCell ref="BU24:BV24"/>
+    <mergeCell ref="BZ24:CA24"/>
+    <mergeCell ref="BU25:BV25"/>
+    <mergeCell ref="BZ25:CA25"/>
+    <mergeCell ref="BU26:BV26"/>
+    <mergeCell ref="BZ26:CA26"/>
+    <mergeCell ref="BT27:BV27"/>
+    <mergeCell ref="BY27:CA27"/>
+    <mergeCell ref="BT28:BV28"/>
+    <mergeCell ref="BY28:CA28"/>
+    <mergeCell ref="BY12:CA12"/>
+    <mergeCell ref="BT13:BV13"/>
+    <mergeCell ref="BY13:CA13"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="BY21:CA21"/>
+    <mergeCell ref="BT22:BU22"/>
+    <mergeCell ref="BY22:BZ22"/>
+    <mergeCell ref="BU23:BV23"/>
+    <mergeCell ref="BZ23:CA23"/>
+    <mergeCell ref="BJ33:BL33"/>
+    <mergeCell ref="BO33:BQ33"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BY7:CA7"/>
+    <mergeCell ref="BT8:BV8"/>
+    <mergeCell ref="BY8:CA8"/>
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BY9:CA9"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BY10:CA10"/>
+    <mergeCell ref="BT11:BV11"/>
+    <mergeCell ref="BY11:CA11"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="BJ28:BL28"/>
+    <mergeCell ref="BO28:BQ28"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BO29:BQ29"/>
+    <mergeCell ref="BJ30:BL30"/>
+    <mergeCell ref="BO30:BQ30"/>
+    <mergeCell ref="BJ31:BL31"/>
+    <mergeCell ref="BO31:BQ31"/>
+    <mergeCell ref="BJ32:BL32"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BK23:BL23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="BK24:BL24"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="BK25:BL25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="BK26:BL26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="BJ27:BL27"/>
+    <mergeCell ref="BO27:BQ27"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="BO12:BQ12"/>
+    <mergeCell ref="BJ13:BL13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BO21:BQ21"/>
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="BO22:BP22"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BO7:BQ7"/>
+    <mergeCell ref="BJ8:BL8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BJ9:BL9"/>
+    <mergeCell ref="BO9:BQ9"/>
+    <mergeCell ref="BJ10:BL10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="AZ29:BB29"/>
+    <mergeCell ref="BE29:BG29"/>
+    <mergeCell ref="AZ30:BB30"/>
+    <mergeCell ref="BE30:BG30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BE31:BG31"/>
+    <mergeCell ref="AZ32:BB32"/>
+    <mergeCell ref="BE32:BG32"/>
+    <mergeCell ref="AZ33:BB33"/>
+    <mergeCell ref="BE33:BG33"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BF24:BG24"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BF26:BG26"/>
+    <mergeCell ref="AZ27:BB27"/>
+    <mergeCell ref="BE27:BG27"/>
+    <mergeCell ref="AZ28:BB28"/>
+    <mergeCell ref="BE28:BG28"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="AZ13:BB13"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="AZ21:BB21"/>
+    <mergeCell ref="BE21:BG21"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BE22:BF22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BE7:BG7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="BE9:BG9"/>
+    <mergeCell ref="AZ10:BB10"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="V33:X33"/>
     <mergeCell ref="AF34:AH34"/>
     <mergeCell ref="AK34:AM34"/>
     <mergeCell ref="AF35:AH35"/>
@@ -4358,557 +4909,6 @@
     <mergeCell ref="AK9:AM9"/>
     <mergeCell ref="AU7:AW7"/>
     <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AU22:AV22"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BE7:BG7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="BE9:BG9"/>
-    <mergeCell ref="AZ10:BB10"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="AZ13:BB13"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="AZ21:BB21"/>
-    <mergeCell ref="BE21:BG21"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BE22:BF22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BF24:BG24"/>
-    <mergeCell ref="BA25:BB25"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BF26:BG26"/>
-    <mergeCell ref="AZ27:BB27"/>
-    <mergeCell ref="BE27:BG27"/>
-    <mergeCell ref="AZ28:BB28"/>
-    <mergeCell ref="BE28:BG28"/>
-    <mergeCell ref="AZ29:BB29"/>
-    <mergeCell ref="BE29:BG29"/>
-    <mergeCell ref="AZ30:BB30"/>
-    <mergeCell ref="BE30:BG30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BE31:BG31"/>
-    <mergeCell ref="AZ32:BB32"/>
-    <mergeCell ref="BE32:BG32"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="BE33:BG33"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BO7:BQ7"/>
-    <mergeCell ref="BJ8:BL8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BJ9:BL9"/>
-    <mergeCell ref="BO9:BQ9"/>
-    <mergeCell ref="BJ10:BL10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="BO12:BQ12"/>
-    <mergeCell ref="BJ13:BL13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BO21:BQ21"/>
-    <mergeCell ref="BJ22:BK22"/>
-    <mergeCell ref="BO22:BP22"/>
-    <mergeCell ref="BK23:BL23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="BK24:BL24"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="BK25:BL25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="BK26:BL26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="BJ27:BL27"/>
-    <mergeCell ref="BO27:BQ27"/>
-    <mergeCell ref="BJ28:BL28"/>
-    <mergeCell ref="BO28:BQ28"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BO29:BQ29"/>
-    <mergeCell ref="BJ30:BL30"/>
-    <mergeCell ref="BO30:BQ30"/>
-    <mergeCell ref="BJ31:BL31"/>
-    <mergeCell ref="BO31:BQ31"/>
-    <mergeCell ref="BJ32:BL32"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BJ33:BL33"/>
-    <mergeCell ref="BO33:BQ33"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="BY7:CA7"/>
-    <mergeCell ref="BT8:BV8"/>
-    <mergeCell ref="BY8:CA8"/>
-    <mergeCell ref="BT9:BV9"/>
-    <mergeCell ref="BY9:CA9"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="BY10:CA10"/>
-    <mergeCell ref="BT11:BV11"/>
-    <mergeCell ref="BY11:CA11"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="BY12:CA12"/>
-    <mergeCell ref="BT13:BV13"/>
-    <mergeCell ref="BY13:CA13"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="BY21:CA21"/>
-    <mergeCell ref="BT22:BU22"/>
-    <mergeCell ref="BY22:BZ22"/>
-    <mergeCell ref="BU23:BV23"/>
-    <mergeCell ref="BZ23:CA23"/>
-    <mergeCell ref="BU24:BV24"/>
-    <mergeCell ref="BZ24:CA24"/>
-    <mergeCell ref="BU25:BV25"/>
-    <mergeCell ref="BZ25:CA25"/>
-    <mergeCell ref="BU26:BV26"/>
-    <mergeCell ref="BZ26:CA26"/>
-    <mergeCell ref="BT27:BV27"/>
-    <mergeCell ref="BY27:CA27"/>
-    <mergeCell ref="BT28:BV28"/>
-    <mergeCell ref="BY28:CA28"/>
-    <mergeCell ref="BT29:BV29"/>
-    <mergeCell ref="BY29:CA29"/>
-    <mergeCell ref="BT30:BV30"/>
-    <mergeCell ref="BY30:CA30"/>
-    <mergeCell ref="BT31:BV31"/>
-    <mergeCell ref="BY31:CA31"/>
-    <mergeCell ref="BT32:BV32"/>
-    <mergeCell ref="BY32:CA32"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="BY33:CA33"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CJ5:CK5"/>
-    <mergeCell ref="CE6:CF6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CI7:CK7"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CI8:CK8"/>
-    <mergeCell ref="CD9:CF9"/>
-    <mergeCell ref="CI9:CK9"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="CI10:CK10"/>
-    <mergeCell ref="CD11:CF11"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CI13:CK13"/>
-    <mergeCell ref="CD21:CF21"/>
-    <mergeCell ref="CI21:CK21"/>
-    <mergeCell ref="CD22:CE22"/>
-    <mergeCell ref="CI22:CJ22"/>
-    <mergeCell ref="CE23:CF23"/>
-    <mergeCell ref="CJ23:CK23"/>
-    <mergeCell ref="CE24:CF24"/>
-    <mergeCell ref="CJ24:CK24"/>
-    <mergeCell ref="CE25:CF25"/>
-    <mergeCell ref="CJ25:CK25"/>
-    <mergeCell ref="CE26:CF26"/>
-    <mergeCell ref="CJ26:CK26"/>
-    <mergeCell ref="CD27:CF27"/>
-    <mergeCell ref="CI27:CK27"/>
-    <mergeCell ref="CD28:CF28"/>
-    <mergeCell ref="CI28:CK28"/>
-    <mergeCell ref="CD29:CF29"/>
-    <mergeCell ref="CI29:CK29"/>
-    <mergeCell ref="CD30:CF30"/>
-    <mergeCell ref="CI30:CK30"/>
-    <mergeCell ref="CD31:CF31"/>
-    <mergeCell ref="CI31:CK31"/>
-    <mergeCell ref="CD32:CF32"/>
-    <mergeCell ref="CI32:CK32"/>
-    <mergeCell ref="CD33:CF33"/>
-    <mergeCell ref="CI33:CK33"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CS1:CU1"/>
-    <mergeCell ref="CN2:CO2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CT3:CU3"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CT4:CU4"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CO6:CP6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="CS7:CU7"/>
-    <mergeCell ref="CN8:CP8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CN9:CP9"/>
-    <mergeCell ref="CS9:CU9"/>
-    <mergeCell ref="CN10:CP10"/>
-    <mergeCell ref="CS10:CU10"/>
-    <mergeCell ref="CN11:CP11"/>
-    <mergeCell ref="CS11:CU11"/>
-    <mergeCell ref="CN12:CP12"/>
-    <mergeCell ref="CS12:CU12"/>
-    <mergeCell ref="CN13:CP13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CN21:CP21"/>
-    <mergeCell ref="CS21:CU21"/>
-    <mergeCell ref="CN22:CO22"/>
-    <mergeCell ref="CS22:CT22"/>
-    <mergeCell ref="CO23:CP23"/>
-    <mergeCell ref="CT23:CU23"/>
-    <mergeCell ref="CO24:CP24"/>
-    <mergeCell ref="CT24:CU24"/>
-    <mergeCell ref="CO25:CP25"/>
-    <mergeCell ref="CT25:CU25"/>
-    <mergeCell ref="CO26:CP26"/>
-    <mergeCell ref="CT26:CU26"/>
-    <mergeCell ref="CN27:CP27"/>
-    <mergeCell ref="CS27:CU27"/>
-    <mergeCell ref="CN33:CP33"/>
-    <mergeCell ref="CS33:CU33"/>
-    <mergeCell ref="CN28:CP28"/>
-    <mergeCell ref="CS28:CU28"/>
-    <mergeCell ref="CN29:CP29"/>
-    <mergeCell ref="CS29:CU29"/>
-    <mergeCell ref="CN30:CP30"/>
-    <mergeCell ref="CS30:CU30"/>
-    <mergeCell ref="CN31:CP31"/>
-    <mergeCell ref="CS31:CU31"/>
-    <mergeCell ref="CN32:CP32"/>
-    <mergeCell ref="CS32:CU32"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/formQR.xlsx
+++ b/formQR.xlsx
@@ -525,62 +525,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,234 +719,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="600075" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1019175" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="600075" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1019175" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="600075" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1019175" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1357,1112 +1129,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:99" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="39"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
       <c r="O1" s="39"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
       <c r="Y1" s="39"/>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="38"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
       <c r="AS1" s="39"/>
       <c r="AT1" s="38"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
       <c r="BC1" s="39"/>
       <c r="BD1" s="38"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="86"/>
-      <c r="BL1" s="86"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
       <c r="BM1" s="39"/>
       <c r="BN1" s="38"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="86"/>
-      <c r="BT1" s="86"/>
-      <c r="BU1" s="86"/>
-      <c r="BV1" s="86"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="81"/>
+      <c r="BQ1" s="81"/>
+      <c r="BT1" s="81"/>
+      <c r="BU1" s="81"/>
+      <c r="BV1" s="81"/>
       <c r="BW1" s="39"/>
       <c r="BX1" s="38"/>
-      <c r="BY1" s="86"/>
-      <c r="BZ1" s="86"/>
-      <c r="CA1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="81"/>
+      <c r="CA1" s="81"/>
+      <c r="CD1" s="81"/>
+      <c r="CE1" s="81"/>
+      <c r="CF1" s="81"/>
       <c r="CG1" s="39"/>
       <c r="CH1" s="38"/>
-      <c r="CI1" s="86"/>
-      <c r="CJ1" s="86"/>
-      <c r="CK1" s="86"/>
-      <c r="CN1" s="86"/>
-      <c r="CO1" s="86"/>
-      <c r="CP1" s="86"/>
+      <c r="CI1" s="81"/>
+      <c r="CJ1" s="81"/>
+      <c r="CK1" s="81"/>
+      <c r="CN1" s="81"/>
+      <c r="CO1" s="81"/>
+      <c r="CP1" s="81"/>
       <c r="CQ1" s="39"/>
       <c r="CR1" s="38"/>
-      <c r="CS1" s="86"/>
-      <c r="CT1" s="86"/>
-      <c r="CU1" s="86"/>
+      <c r="CS1" s="81"/>
+      <c r="CT1" s="81"/>
+      <c r="CU1" s="81"/>
     </row>
     <row r="2" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="34"/>
       <c r="E2" s="71"/>
       <c r="F2" s="72"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="34"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="34"/>
       <c r="O2" s="71"/>
       <c r="P2" s="72"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="34"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
       <c r="X2" s="34"/>
       <c r="Y2" s="71"/>
       <c r="Z2" s="72"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
       <c r="AC2" s="34"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
       <c r="AH2" s="34"/>
       <c r="AI2" s="71"/>
       <c r="AJ2" s="72"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
       <c r="AM2" s="34"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="71"/>
       <c r="AT2" s="72"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
       <c r="AW2" s="34"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
       <c r="BB2" s="34"/>
       <c r="BC2" s="71"/>
       <c r="BD2" s="72"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
       <c r="BG2" s="34"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
       <c r="BL2" s="34"/>
       <c r="BM2" s="71"/>
       <c r="BN2" s="72"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
       <c r="BQ2" s="34"/>
-      <c r="BT2" s="85"/>
-      <c r="BU2" s="85"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
       <c r="BV2" s="34"/>
       <c r="BW2" s="71"/>
       <c r="BX2" s="72"/>
-      <c r="BY2" s="85"/>
-      <c r="BZ2" s="85"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
       <c r="CA2" s="34"/>
-      <c r="CD2" s="85"/>
-      <c r="CE2" s="85"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
       <c r="CF2" s="34"/>
       <c r="CG2" s="71"/>
       <c r="CH2" s="72"/>
-      <c r="CI2" s="85"/>
-      <c r="CJ2" s="85"/>
+      <c r="CI2" s="82"/>
+      <c r="CJ2" s="82"/>
       <c r="CK2" s="34"/>
-      <c r="CN2" s="85"/>
-      <c r="CO2" s="85"/>
+      <c r="CN2" s="82"/>
+      <c r="CO2" s="82"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="71"/>
       <c r="CR2" s="72"/>
-      <c r="CS2" s="85"/>
-      <c r="CT2" s="85"/>
+      <c r="CS2" s="82"/>
+      <c r="CT2" s="82"/>
       <c r="CU2" s="34"/>
     </row>
     <row r="3" spans="2:99" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="50"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
       <c r="O3" s="50"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
       <c r="V3" s="49"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
       <c r="Y3" s="50"/>
       <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
       <c r="AF3" s="49"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
       <c r="AI3" s="50"/>
       <c r="AJ3" s="49"/>
       <c r="AK3" s="49"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
       <c r="AP3" s="49"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
       <c r="AS3" s="50"/>
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
       <c r="AZ3" s="49"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
       <c r="BC3" s="50"/>
       <c r="BD3" s="49"/>
       <c r="BE3" s="49"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="75"/>
       <c r="BJ3" s="49"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
       <c r="BM3" s="50"/>
       <c r="BN3" s="49"/>
       <c r="BO3" s="49"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
       <c r="BT3" s="49"/>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="84"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
       <c r="BW3" s="50"/>
       <c r="BX3" s="49"/>
       <c r="BY3" s="49"/>
-      <c r="BZ3" s="84"/>
-      <c r="CA3" s="84"/>
+      <c r="BZ3" s="75"/>
+      <c r="CA3" s="75"/>
       <c r="CD3" s="49"/>
-      <c r="CE3" s="84"/>
-      <c r="CF3" s="84"/>
+      <c r="CE3" s="75"/>
+      <c r="CF3" s="75"/>
       <c r="CG3" s="50"/>
       <c r="CH3" s="49"/>
       <c r="CI3" s="49"/>
-      <c r="CJ3" s="84"/>
-      <c r="CK3" s="84"/>
+      <c r="CJ3" s="75"/>
+      <c r="CK3" s="75"/>
       <c r="CN3" s="49"/>
-      <c r="CO3" s="84"/>
-      <c r="CP3" s="84"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
       <c r="CQ3" s="50"/>
       <c r="CR3" s="49"/>
       <c r="CS3" s="49"/>
-      <c r="CT3" s="84"/>
-      <c r="CU3" s="84"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="75"/>
     </row>
     <row r="4" spans="2:99" s="51" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="53"/>
       <c r="F4" s="54"/>
       <c r="G4" s="52"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="L4" s="52"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="53"/>
       <c r="P4" s="54"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
       <c r="V4" s="52"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
       <c r="Y4" s="53"/>
       <c r="Z4" s="54"/>
       <c r="AA4" s="52"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
       <c r="AF4" s="52"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
       <c r="AI4" s="53"/>
       <c r="AJ4" s="54"/>
       <c r="AK4" s="52"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
       <c r="AP4" s="52"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="83"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
       <c r="AS4" s="53"/>
       <c r="AT4" s="54"/>
       <c r="AU4" s="52"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
       <c r="AZ4" s="52"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
       <c r="BC4" s="53"/>
       <c r="BD4" s="54"/>
       <c r="BE4" s="52"/>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="83"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="74"/>
       <c r="BJ4" s="52"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="83"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
       <c r="BM4" s="53"/>
       <c r="BN4" s="54"/>
       <c r="BO4" s="52"/>
-      <c r="BP4" s="83"/>
-      <c r="BQ4" s="83"/>
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="74"/>
       <c r="BT4" s="52"/>
-      <c r="BU4" s="83"/>
-      <c r="BV4" s="83"/>
+      <c r="BU4" s="74"/>
+      <c r="BV4" s="74"/>
       <c r="BW4" s="53"/>
       <c r="BX4" s="54"/>
       <c r="BY4" s="52"/>
-      <c r="BZ4" s="83"/>
-      <c r="CA4" s="83"/>
+      <c r="BZ4" s="74"/>
+      <c r="CA4" s="74"/>
       <c r="CD4" s="52"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="83"/>
+      <c r="CE4" s="74"/>
+      <c r="CF4" s="74"/>
       <c r="CG4" s="53"/>
       <c r="CH4" s="54"/>
       <c r="CI4" s="52"/>
-      <c r="CJ4" s="83"/>
-      <c r="CK4" s="83"/>
+      <c r="CJ4" s="74"/>
+      <c r="CK4" s="74"/>
       <c r="CN4" s="52"/>
-      <c r="CO4" s="83"/>
-      <c r="CP4" s="83"/>
+      <c r="CO4" s="74"/>
+      <c r="CP4" s="74"/>
       <c r="CQ4" s="53"/>
       <c r="CR4" s="54"/>
       <c r="CS4" s="52"/>
-      <c r="CT4" s="83"/>
-      <c r="CU4" s="83"/>
+      <c r="CT4" s="74"/>
+      <c r="CU4" s="74"/>
     </row>
     <row r="5" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="22"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
       <c r="O5" s="22"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
       <c r="Y5" s="22"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
       <c r="AS5" s="22"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
       <c r="AZ5" s="3"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
       <c r="BC5" s="22"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="84"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
       <c r="BJ5" s="3"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
       <c r="BM5" s="22"/>
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
       <c r="BT5" s="3"/>
-      <c r="BU5" s="84"/>
-      <c r="BV5" s="84"/>
+      <c r="BU5" s="75"/>
+      <c r="BV5" s="75"/>
       <c r="BW5" s="22"/>
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
-      <c r="BZ5" s="84"/>
-      <c r="CA5" s="84"/>
+      <c r="BZ5" s="75"/>
+      <c r="CA5" s="75"/>
       <c r="CD5" s="3"/>
-      <c r="CE5" s="84"/>
-      <c r="CF5" s="84"/>
+      <c r="CE5" s="75"/>
+      <c r="CF5" s="75"/>
       <c r="CG5" s="22"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="84"/>
-      <c r="CK5" s="84"/>
+      <c r="CJ5" s="75"/>
+      <c r="CK5" s="75"/>
       <c r="CN5" s="3"/>
-      <c r="CO5" s="84"/>
-      <c r="CP5" s="84"/>
+      <c r="CO5" s="75"/>
+      <c r="CP5" s="75"/>
       <c r="CQ5" s="22"/>
       <c r="CR5" s="3"/>
       <c r="CS5" s="3"/>
-      <c r="CT5" s="84"/>
-      <c r="CU5" s="84"/>
+      <c r="CT5" s="75"/>
+      <c r="CU5" s="75"/>
     </row>
     <row r="6" spans="2:99" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="22"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="22"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
       <c r="AF6" s="13"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
       <c r="AS6" s="22"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
       <c r="AZ6" s="3"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
       <c r="BC6" s="22"/>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
-      <c r="BF6" s="84"/>
-      <c r="BG6" s="84"/>
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="75"/>
       <c r="BJ6" s="3"/>
-      <c r="BK6" s="84"/>
-      <c r="BL6" s="84"/>
+      <c r="BK6" s="75"/>
+      <c r="BL6" s="75"/>
       <c r="BM6" s="22"/>
       <c r="BN6" s="3"/>
       <c r="BO6" s="3"/>
-      <c r="BP6" s="84"/>
-      <c r="BQ6" s="84"/>
+      <c r="BP6" s="75"/>
+      <c r="BQ6" s="75"/>
       <c r="BT6" s="3"/>
-      <c r="BU6" s="84"/>
-      <c r="BV6" s="84"/>
+      <c r="BU6" s="75"/>
+      <c r="BV6" s="75"/>
       <c r="BW6" s="22"/>
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
-      <c r="BZ6" s="84"/>
-      <c r="CA6" s="84"/>
+      <c r="BZ6" s="75"/>
+      <c r="CA6" s="75"/>
       <c r="CD6" s="3"/>
-      <c r="CE6" s="84"/>
-      <c r="CF6" s="84"/>
+      <c r="CE6" s="75"/>
+      <c r="CF6" s="75"/>
       <c r="CG6" s="22"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="84"/>
-      <c r="CK6" s="84"/>
+      <c r="CJ6" s="75"/>
+      <c r="CK6" s="75"/>
       <c r="CN6" s="3"/>
-      <c r="CO6" s="84"/>
-      <c r="CP6" s="84"/>
+      <c r="CO6" s="75"/>
+      <c r="CP6" s="75"/>
       <c r="CQ6" s="22"/>
       <c r="CR6" s="3"/>
       <c r="CS6" s="3"/>
-      <c r="CT6" s="84"/>
-      <c r="CU6" s="84"/>
+      <c r="CT6" s="75"/>
+      <c r="CU6" s="75"/>
     </row>
     <row r="7" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="23"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="23"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
       <c r="AI7" s="23"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
       <c r="AS7" s="23"/>
       <c r="AT7" s="7"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="23"/>
       <c r="BD7" s="7"/>
-      <c r="BE7" s="87"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="87"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
       <c r="BJ7" s="9"/>
       <c r="BK7" s="9"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="23"/>
       <c r="BN7" s="7"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="87"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
       <c r="BT7" s="9"/>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
       <c r="BW7" s="23"/>
       <c r="BX7" s="7"/>
-      <c r="BY7" s="87"/>
-      <c r="BZ7" s="87"/>
-      <c r="CA7" s="87"/>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="83"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9"/>
       <c r="CF7" s="9"/>
       <c r="CG7" s="23"/>
       <c r="CH7" s="7"/>
-      <c r="CI7" s="87"/>
-      <c r="CJ7" s="87"/>
-      <c r="CK7" s="87"/>
+      <c r="CI7" s="83"/>
+      <c r="CJ7" s="83"/>
+      <c r="CK7" s="83"/>
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="23"/>
       <c r="CR7" s="7"/>
-      <c r="CS7" s="87"/>
-      <c r="CT7" s="87"/>
-      <c r="CU7" s="87"/>
+      <c r="CS7" s="83"/>
+      <c r="CT7" s="83"/>
+      <c r="CU7" s="83"/>
     </row>
     <row r="8" spans="2:99" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="24"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="24"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="19"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
       <c r="AS8" s="24"/>
       <c r="AT8" s="19"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
       <c r="BC8" s="24"/>
       <c r="BD8" s="19"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87"/>
-      <c r="BJ8" s="87"/>
-      <c r="BK8" s="87"/>
-      <c r="BL8" s="87"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="83"/>
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="83"/>
+      <c r="BL8" s="83"/>
       <c r="BM8" s="24"/>
       <c r="BN8" s="19"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="87"/>
-      <c r="BQ8" s="87"/>
-      <c r="BT8" s="87"/>
-      <c r="BU8" s="87"/>
-      <c r="BV8" s="87"/>
+      <c r="BO8" s="83"/>
+      <c r="BP8" s="83"/>
+      <c r="BQ8" s="83"/>
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="83"/>
+      <c r="BV8" s="83"/>
       <c r="BW8" s="24"/>
       <c r="BX8" s="19"/>
-      <c r="BY8" s="87"/>
-      <c r="BZ8" s="87"/>
-      <c r="CA8" s="87"/>
-      <c r="CD8" s="87"/>
-      <c r="CE8" s="87"/>
-      <c r="CF8" s="87"/>
+      <c r="BY8" s="83"/>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CD8" s="83"/>
+      <c r="CE8" s="83"/>
+      <c r="CF8" s="83"/>
       <c r="CG8" s="24"/>
       <c r="CH8" s="19"/>
-      <c r="CI8" s="87"/>
-      <c r="CJ8" s="87"/>
-      <c r="CK8" s="87"/>
-      <c r="CN8" s="87"/>
-      <c r="CO8" s="87"/>
-      <c r="CP8" s="87"/>
+      <c r="CI8" s="83"/>
+      <c r="CJ8" s="83"/>
+      <c r="CK8" s="83"/>
+      <c r="CN8" s="83"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="83"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="19"/>
-      <c r="CS8" s="87"/>
-      <c r="CT8" s="87"/>
-      <c r="CU8" s="87"/>
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="83"/>
+      <c r="CU8" s="83"/>
     </row>
     <row r="9" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="23"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="23"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
       <c r="AI9" s="23"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
       <c r="AS9" s="23"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="80"/>
-      <c r="AV9" s="80"/>
-      <c r="AW9" s="80"/>
-      <c r="AZ9" s="88"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="88"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AZ9" s="80"/>
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
       <c r="BC9" s="23"/>
       <c r="BD9" s="7"/>
-      <c r="BE9" s="88"/>
-      <c r="BF9" s="88"/>
-      <c r="BG9" s="88"/>
-      <c r="BJ9" s="88"/>
-      <c r="BK9" s="88"/>
-      <c r="BL9" s="88"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BJ9" s="80"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="80"/>
       <c r="BM9" s="23"/>
       <c r="BN9" s="7"/>
-      <c r="BO9" s="88"/>
-      <c r="BP9" s="88"/>
-      <c r="BQ9" s="88"/>
-      <c r="BT9" s="88"/>
-      <c r="BU9" s="88"/>
-      <c r="BV9" s="88"/>
+      <c r="BO9" s="80"/>
+      <c r="BP9" s="80"/>
+      <c r="BQ9" s="80"/>
+      <c r="BT9" s="80"/>
+      <c r="BU9" s="80"/>
+      <c r="BV9" s="80"/>
       <c r="BW9" s="23"/>
       <c r="BX9" s="7"/>
-      <c r="BY9" s="88"/>
-      <c r="BZ9" s="88"/>
-      <c r="CA9" s="88"/>
-      <c r="CD9" s="88"/>
-      <c r="CE9" s="88"/>
-      <c r="CF9" s="88"/>
+      <c r="BY9" s="80"/>
+      <c r="BZ9" s="80"/>
+      <c r="CA9" s="80"/>
+      <c r="CD9" s="80"/>
+      <c r="CE9" s="80"/>
+      <c r="CF9" s="80"/>
       <c r="CG9" s="23"/>
       <c r="CH9" s="7"/>
-      <c r="CI9" s="88"/>
-      <c r="CJ9" s="88"/>
-      <c r="CK9" s="88"/>
-      <c r="CN9" s="88"/>
-      <c r="CO9" s="88"/>
-      <c r="CP9" s="88"/>
+      <c r="CI9" s="80"/>
+      <c r="CJ9" s="80"/>
+      <c r="CK9" s="80"/>
+      <c r="CN9" s="80"/>
+      <c r="CO9" s="80"/>
+      <c r="CP9" s="80"/>
       <c r="CQ9" s="23"/>
       <c r="CR9" s="7"/>
-      <c r="CS9" s="88"/>
-      <c r="CT9" s="88"/>
-      <c r="CU9" s="88"/>
+      <c r="CS9" s="80"/>
+      <c r="CT9" s="80"/>
+      <c r="CU9" s="80"/>
     </row>
     <row r="10" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="23"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="23"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
       <c r="AS10" s="23"/>
       <c r="AT10" s="7"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
       <c r="BC10" s="23"/>
       <c r="BD10" s="7"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="79"/>
       <c r="BM10" s="23"/>
       <c r="BN10" s="7"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
-      <c r="BQ10" s="89"/>
-      <c r="BT10" s="89"/>
-      <c r="BU10" s="89"/>
-      <c r="BV10" s="89"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
       <c r="BW10" s="23"/>
       <c r="BX10" s="7"/>
-      <c r="BY10" s="89"/>
-      <c r="BZ10" s="89"/>
-      <c r="CA10" s="89"/>
-      <c r="CD10" s="89"/>
-      <c r="CE10" s="89"/>
-      <c r="CF10" s="89"/>
+      <c r="BY10" s="79"/>
+      <c r="BZ10" s="79"/>
+      <c r="CA10" s="79"/>
+      <c r="CD10" s="79"/>
+      <c r="CE10" s="79"/>
+      <c r="CF10" s="79"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="7"/>
-      <c r="CI10" s="89"/>
-      <c r="CJ10" s="89"/>
-      <c r="CK10" s="89"/>
-      <c r="CN10" s="89"/>
-      <c r="CO10" s="89"/>
-      <c r="CP10" s="89"/>
+      <c r="CI10" s="79"/>
+      <c r="CJ10" s="79"/>
+      <c r="CK10" s="79"/>
+      <c r="CN10" s="79"/>
+      <c r="CO10" s="79"/>
+      <c r="CP10" s="79"/>
       <c r="CQ10" s="23"/>
       <c r="CR10" s="7"/>
-      <c r="CS10" s="89"/>
-      <c r="CT10" s="89"/>
-      <c r="CU10" s="89"/>
+      <c r="CS10" s="79"/>
+      <c r="CT10" s="79"/>
+      <c r="CU10" s="79"/>
     </row>
     <row r="11" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="23"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="23"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
       <c r="AI11" s="23"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
       <c r="AS11" s="23"/>
       <c r="AT11" s="7"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
       <c r="BC11" s="23"/>
       <c r="BD11" s="7"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="89"/>
+      <c r="BE11" s="79"/>
+      <c r="BF11" s="79"/>
+      <c r="BG11" s="79"/>
+      <c r="BJ11" s="79"/>
+      <c r="BK11" s="79"/>
+      <c r="BL11" s="79"/>
       <c r="BM11" s="23"/>
       <c r="BN11" s="7"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BT11" s="89"/>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
+      <c r="BO11" s="79"/>
+      <c r="BP11" s="79"/>
+      <c r="BQ11" s="79"/>
+      <c r="BT11" s="79"/>
+      <c r="BU11" s="79"/>
+      <c r="BV11" s="79"/>
       <c r="BW11" s="23"/>
       <c r="BX11" s="7"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
+      <c r="BY11" s="79"/>
+      <c r="BZ11" s="79"/>
+      <c r="CA11" s="79"/>
+      <c r="CD11" s="79"/>
+      <c r="CE11" s="79"/>
+      <c r="CF11" s="79"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="7"/>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="89"/>
-      <c r="CP11" s="89"/>
+      <c r="CI11" s="79"/>
+      <c r="CJ11" s="79"/>
+      <c r="CK11" s="79"/>
+      <c r="CN11" s="79"/>
+      <c r="CO11" s="79"/>
+      <c r="CP11" s="79"/>
       <c r="CQ11" s="23"/>
       <c r="CR11" s="7"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="89"/>
+      <c r="CS11" s="79"/>
+      <c r="CT11" s="79"/>
+      <c r="CU11" s="79"/>
     </row>
     <row r="12" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="23"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="23"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
       <c r="AI12" s="23"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
       <c r="AS12" s="23"/>
       <c r="AT12" s="7"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AZ12" s="79"/>
+      <c r="BA12" s="79"/>
+      <c r="BB12" s="79"/>
       <c r="BC12" s="23"/>
       <c r="BD12" s="7"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BJ12" s="89"/>
-      <c r="BK12" s="89"/>
-      <c r="BL12" s="89"/>
+      <c r="BE12" s="79"/>
+      <c r="BF12" s="79"/>
+      <c r="BG12" s="79"/>
+      <c r="BJ12" s="79"/>
+      <c r="BK12" s="79"/>
+      <c r="BL12" s="79"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="7"/>
-      <c r="BO12" s="89"/>
-      <c r="BP12" s="89"/>
-      <c r="BQ12" s="89"/>
-      <c r="BT12" s="89"/>
-      <c r="BU12" s="89"/>
-      <c r="BV12" s="89"/>
+      <c r="BO12" s="79"/>
+      <c r="BP12" s="79"/>
+      <c r="BQ12" s="79"/>
+      <c r="BT12" s="79"/>
+      <c r="BU12" s="79"/>
+      <c r="BV12" s="79"/>
       <c r="BW12" s="23"/>
       <c r="BX12" s="7"/>
-      <c r="BY12" s="89"/>
-      <c r="BZ12" s="89"/>
-      <c r="CA12" s="89"/>
-      <c r="CD12" s="89"/>
-      <c r="CE12" s="89"/>
-      <c r="CF12" s="89"/>
+      <c r="BY12" s="79"/>
+      <c r="BZ12" s="79"/>
+      <c r="CA12" s="79"/>
+      <c r="CD12" s="79"/>
+      <c r="CE12" s="79"/>
+      <c r="CF12" s="79"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="7"/>
-      <c r="CI12" s="89"/>
-      <c r="CJ12" s="89"/>
-      <c r="CK12" s="89"/>
-      <c r="CN12" s="89"/>
-      <c r="CO12" s="89"/>
-      <c r="CP12" s="89"/>
+      <c r="CI12" s="79"/>
+      <c r="CJ12" s="79"/>
+      <c r="CK12" s="79"/>
+      <c r="CN12" s="79"/>
+      <c r="CO12" s="79"/>
+      <c r="CP12" s="79"/>
       <c r="CQ12" s="23"/>
       <c r="CR12" s="7"/>
-      <c r="CS12" s="89"/>
-      <c r="CT12" s="89"/>
-      <c r="CU12" s="89"/>
+      <c r="CS12" s="79"/>
+      <c r="CT12" s="79"/>
+      <c r="CU12" s="79"/>
     </row>
     <row r="13" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="35"/>
       <c r="P13" s="36"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="36"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
       <c r="AS13" s="35"/>
       <c r="AT13" s="36"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AZ13" s="88"/>
-      <c r="BA13" s="88"/>
-      <c r="BB13" s="88"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AZ13" s="80"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="36"/>
-      <c r="BE13" s="88"/>
-      <c r="BF13" s="88"/>
-      <c r="BG13" s="88"/>
-      <c r="BJ13" s="88"/>
-      <c r="BK13" s="88"/>
-      <c r="BL13" s="88"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="80"/>
+      <c r="BG13" s="80"/>
+      <c r="BJ13" s="80"/>
+      <c r="BK13" s="80"/>
+      <c r="BL13" s="80"/>
       <c r="BM13" s="35"/>
       <c r="BN13" s="36"/>
-      <c r="BO13" s="88"/>
-      <c r="BP13" s="88"/>
-      <c r="BQ13" s="88"/>
-      <c r="BT13" s="88"/>
-      <c r="BU13" s="88"/>
-      <c r="BV13" s="88"/>
+      <c r="BO13" s="80"/>
+      <c r="BP13" s="80"/>
+      <c r="BQ13" s="80"/>
+      <c r="BT13" s="80"/>
+      <c r="BU13" s="80"/>
+      <c r="BV13" s="80"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="36"/>
-      <c r="BY13" s="88"/>
-      <c r="BZ13" s="88"/>
-      <c r="CA13" s="88"/>
-      <c r="CD13" s="88"/>
-      <c r="CE13" s="88"/>
-      <c r="CF13" s="88"/>
+      <c r="BY13" s="80"/>
+      <c r="BZ13" s="80"/>
+      <c r="CA13" s="80"/>
+      <c r="CD13" s="80"/>
+      <c r="CE13" s="80"/>
+      <c r="CF13" s="80"/>
       <c r="CG13" s="35"/>
       <c r="CH13" s="36"/>
-      <c r="CI13" s="88"/>
-      <c r="CJ13" s="88"/>
-      <c r="CK13" s="88"/>
-      <c r="CN13" s="88"/>
-      <c r="CO13" s="88"/>
-      <c r="CP13" s="88"/>
+      <c r="CI13" s="80"/>
+      <c r="CJ13" s="80"/>
+      <c r="CK13" s="80"/>
+      <c r="CN13" s="80"/>
+      <c r="CO13" s="80"/>
+      <c r="CP13" s="80"/>
       <c r="CQ13" s="35"/>
       <c r="CR13" s="36"/>
-      <c r="CS13" s="88"/>
-      <c r="CT13" s="88"/>
-      <c r="CU13" s="88"/>
+      <c r="CS13" s="80"/>
+      <c r="CT13" s="80"/>
+      <c r="CU13" s="80"/>
     </row>
     <row r="14" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="23"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="23"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="7"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
       <c r="AS14" s="23"/>
       <c r="AT14" s="7"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -2505,46 +2277,46 @@
       <c r="CU14" s="10"/>
     </row>
     <row r="15" spans="2:99" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="35"/>
       <c r="P15" s="36"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="36"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
       <c r="AS15" s="35"/>
       <c r="AT15" s="36"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
       <c r="AZ15" s="33"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="33"/>
@@ -2587,46 +2359,46 @@
       <c r="CU15" s="33"/>
     </row>
     <row r="16" spans="2:99" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="23"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="23"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="89"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="89"/>
+      <c r="AR16" s="89"/>
       <c r="AS16" s="23"/>
       <c r="AT16" s="7"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
       <c r="AZ16" s="11"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="12"/>
@@ -2977,1112 +2749,1112 @@
       <c r="CU20" s="2"/>
     </row>
     <row r="21" spans="2:99" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="22"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
       <c r="O21" s="22"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="81"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="81"/>
       <c r="AS21" s="22"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
-      <c r="AZ21" s="86"/>
-      <c r="BA21" s="86"/>
-      <c r="BB21" s="86"/>
+      <c r="AU21" s="81"/>
+      <c r="AV21" s="81"/>
+      <c r="AW21" s="81"/>
+      <c r="AZ21" s="81"/>
+      <c r="BA21" s="81"/>
+      <c r="BB21" s="81"/>
       <c r="BC21" s="22"/>
       <c r="BD21" s="3"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="86"/>
-      <c r="BG21" s="86"/>
-      <c r="BJ21" s="86"/>
-      <c r="BK21" s="86"/>
-      <c r="BL21" s="86"/>
+      <c r="BE21" s="81"/>
+      <c r="BF21" s="81"/>
+      <c r="BG21" s="81"/>
+      <c r="BJ21" s="81"/>
+      <c r="BK21" s="81"/>
+      <c r="BL21" s="81"/>
       <c r="BM21" s="22"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="86"/>
-      <c r="BT21" s="86"/>
-      <c r="BU21" s="86"/>
-      <c r="BV21" s="86"/>
+      <c r="BO21" s="81"/>
+      <c r="BP21" s="81"/>
+      <c r="BQ21" s="81"/>
+      <c r="BT21" s="81"/>
+      <c r="BU21" s="81"/>
+      <c r="BV21" s="81"/>
       <c r="BW21" s="22"/>
       <c r="BX21" s="3"/>
-      <c r="BY21" s="86"/>
-      <c r="BZ21" s="86"/>
-      <c r="CA21" s="86"/>
-      <c r="CD21" s="86"/>
-      <c r="CE21" s="86"/>
-      <c r="CF21" s="86"/>
+      <c r="BY21" s="81"/>
+      <c r="BZ21" s="81"/>
+      <c r="CA21" s="81"/>
+      <c r="CD21" s="81"/>
+      <c r="CE21" s="81"/>
+      <c r="CF21" s="81"/>
       <c r="CG21" s="22"/>
       <c r="CH21" s="3"/>
-      <c r="CI21" s="86"/>
-      <c r="CJ21" s="86"/>
-      <c r="CK21" s="86"/>
-      <c r="CN21" s="86"/>
-      <c r="CO21" s="86"/>
-      <c r="CP21" s="86"/>
+      <c r="CI21" s="81"/>
+      <c r="CJ21" s="81"/>
+      <c r="CK21" s="81"/>
+      <c r="CN21" s="81"/>
+      <c r="CO21" s="81"/>
+      <c r="CP21" s="81"/>
       <c r="CQ21" s="22"/>
       <c r="CR21" s="3"/>
-      <c r="CS21" s="86"/>
-      <c r="CT21" s="86"/>
-      <c r="CU21" s="86"/>
+      <c r="CS21" s="81"/>
+      <c r="CT21" s="81"/>
+      <c r="CU21" s="81"/>
     </row>
     <row r="22" spans="2:99" s="73" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="34"/>
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="34"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
       <c r="N22" s="34"/>
       <c r="O22" s="71"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
       <c r="S22" s="34"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="71"/>
       <c r="Z22" s="72"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
       <c r="AC22" s="34"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
       <c r="AH22" s="34"/>
       <c r="AI22" s="71"/>
       <c r="AJ22" s="72"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
       <c r="AM22" s="34"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
       <c r="AR22" s="34"/>
       <c r="AS22" s="71"/>
       <c r="AT22" s="72"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="82"/>
       <c r="AW22" s="34"/>
-      <c r="AZ22" s="85"/>
-      <c r="BA22" s="85"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="72"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="85"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
       <c r="BG22" s="34"/>
-      <c r="BJ22" s="85"/>
-      <c r="BK22" s="85"/>
+      <c r="BJ22" s="82"/>
+      <c r="BK22" s="82"/>
       <c r="BL22" s="34"/>
       <c r="BM22" s="71"/>
       <c r="BN22" s="72"/>
-      <c r="BO22" s="85"/>
-      <c r="BP22" s="85"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="82"/>
       <c r="BQ22" s="34"/>
-      <c r="BT22" s="85"/>
-      <c r="BU22" s="85"/>
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="82"/>
       <c r="BV22" s="34"/>
       <c r="BW22" s="71"/>
       <c r="BX22" s="72"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="85"/>
+      <c r="BY22" s="82"/>
+      <c r="BZ22" s="82"/>
       <c r="CA22" s="34"/>
-      <c r="CD22" s="85"/>
-      <c r="CE22" s="85"/>
+      <c r="CD22" s="82"/>
+      <c r="CE22" s="82"/>
       <c r="CF22" s="34"/>
       <c r="CG22" s="71"/>
       <c r="CH22" s="72"/>
-      <c r="CI22" s="85"/>
-      <c r="CJ22" s="85"/>
+      <c r="CI22" s="82"/>
+      <c r="CJ22" s="82"/>
       <c r="CK22" s="34"/>
-      <c r="CN22" s="85"/>
-      <c r="CO22" s="85"/>
+      <c r="CN22" s="82"/>
+      <c r="CO22" s="82"/>
       <c r="CP22" s="34"/>
       <c r="CQ22" s="71"/>
       <c r="CR22" s="72"/>
-      <c r="CS22" s="85"/>
-      <c r="CT22" s="85"/>
+      <c r="CS22" s="82"/>
+      <c r="CT22" s="82"/>
       <c r="CU22" s="34"/>
     </row>
     <row r="23" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
       <c r="O23" s="39"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
       <c r="Y23" s="39"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
       <c r="AI23" s="39"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
       <c r="AP23" s="38"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="84"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
       <c r="AS23" s="39"/>
       <c r="AT23" s="38"/>
       <c r="AU23" s="38"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="84"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
       <c r="AZ23" s="38"/>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="84"/>
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="75"/>
       <c r="BC23" s="39"/>
       <c r="BD23" s="38"/>
       <c r="BE23" s="38"/>
-      <c r="BF23" s="84"/>
-      <c r="BG23" s="84"/>
+      <c r="BF23" s="75"/>
+      <c r="BG23" s="75"/>
       <c r="BJ23" s="38"/>
-      <c r="BK23" s="84"/>
-      <c r="BL23" s="84"/>
+      <c r="BK23" s="75"/>
+      <c r="BL23" s="75"/>
       <c r="BM23" s="39"/>
       <c r="BN23" s="38"/>
       <c r="BO23" s="38"/>
-      <c r="BP23" s="84"/>
-      <c r="BQ23" s="84"/>
+      <c r="BP23" s="75"/>
+      <c r="BQ23" s="75"/>
       <c r="BT23" s="38"/>
-      <c r="BU23" s="84"/>
-      <c r="BV23" s="84"/>
+      <c r="BU23" s="75"/>
+      <c r="BV23" s="75"/>
       <c r="BW23" s="39"/>
       <c r="BX23" s="38"/>
       <c r="BY23" s="38"/>
-      <c r="BZ23" s="84"/>
-      <c r="CA23" s="84"/>
+      <c r="BZ23" s="75"/>
+      <c r="CA23" s="75"/>
       <c r="CD23" s="38"/>
-      <c r="CE23" s="84"/>
-      <c r="CF23" s="84"/>
+      <c r="CE23" s="75"/>
+      <c r="CF23" s="75"/>
       <c r="CG23" s="39"/>
       <c r="CH23" s="38"/>
       <c r="CI23" s="38"/>
-      <c r="CJ23" s="84"/>
-      <c r="CK23" s="84"/>
+      <c r="CJ23" s="75"/>
+      <c r="CK23" s="75"/>
       <c r="CN23" s="38"/>
-      <c r="CO23" s="84"/>
-      <c r="CP23" s="84"/>
+      <c r="CO23" s="75"/>
+      <c r="CP23" s="75"/>
       <c r="CQ23" s="39"/>
       <c r="CR23" s="38"/>
       <c r="CS23" s="38"/>
-      <c r="CT23" s="84"/>
-      <c r="CU23" s="84"/>
+      <c r="CT23" s="75"/>
+      <c r="CU23" s="75"/>
     </row>
     <row r="24" spans="2:99" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
       <c r="O24" s="42"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
       <c r="V24" s="41"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
       <c r="Y24" s="42"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
       <c r="AF24" s="41"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="41"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
       <c r="AP24" s="41"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
       <c r="AS24" s="42"/>
       <c r="AT24" s="43"/>
       <c r="AU24" s="41"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
       <c r="AZ24" s="41"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
       <c r="BC24" s="42"/>
       <c r="BD24" s="43"/>
       <c r="BE24" s="41"/>
-      <c r="BF24" s="83"/>
-      <c r="BG24" s="83"/>
+      <c r="BF24" s="74"/>
+      <c r="BG24" s="74"/>
       <c r="BJ24" s="41"/>
-      <c r="BK24" s="83"/>
-      <c r="BL24" s="83"/>
+      <c r="BK24" s="74"/>
+      <c r="BL24" s="74"/>
       <c r="BM24" s="42"/>
       <c r="BN24" s="43"/>
       <c r="BO24" s="41"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
+      <c r="BP24" s="74"/>
+      <c r="BQ24" s="74"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="83"/>
-      <c r="BV24" s="83"/>
+      <c r="BU24" s="74"/>
+      <c r="BV24" s="74"/>
       <c r="BW24" s="42"/>
       <c r="BX24" s="43"/>
       <c r="BY24" s="41"/>
-      <c r="BZ24" s="83"/>
-      <c r="CA24" s="83"/>
+      <c r="BZ24" s="74"/>
+      <c r="CA24" s="74"/>
       <c r="CD24" s="41"/>
-      <c r="CE24" s="83"/>
-      <c r="CF24" s="83"/>
+      <c r="CE24" s="74"/>
+      <c r="CF24" s="74"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="43"/>
       <c r="CI24" s="41"/>
-      <c r="CJ24" s="83"/>
-      <c r="CK24" s="83"/>
+      <c r="CJ24" s="74"/>
+      <c r="CK24" s="74"/>
       <c r="CN24" s="41"/>
-      <c r="CO24" s="83"/>
-      <c r="CP24" s="83"/>
+      <c r="CO24" s="74"/>
+      <c r="CP24" s="74"/>
       <c r="CQ24" s="42"/>
       <c r="CR24" s="43"/>
       <c r="CS24" s="41"/>
-      <c r="CT24" s="83"/>
-      <c r="CU24" s="83"/>
+      <c r="CT24" s="74"/>
+      <c r="CU24" s="74"/>
     </row>
     <row r="25" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="39"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
       <c r="V25" s="38"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
       <c r="AF25" s="38"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
       <c r="AI25" s="39"/>
       <c r="AJ25" s="38"/>
       <c r="AK25" s="38"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
       <c r="AP25" s="38"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="84"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="75"/>
       <c r="AS25" s="39"/>
       <c r="AT25" s="38"/>
       <c r="AU25" s="38"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
       <c r="AZ25" s="38"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
+      <c r="BA25" s="75"/>
+      <c r="BB25" s="75"/>
       <c r="BC25" s="39"/>
       <c r="BD25" s="38"/>
       <c r="BE25" s="38"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
+      <c r="BF25" s="75"/>
+      <c r="BG25" s="75"/>
       <c r="BJ25" s="38"/>
-      <c r="BK25" s="84"/>
-      <c r="BL25" s="84"/>
+      <c r="BK25" s="75"/>
+      <c r="BL25" s="75"/>
       <c r="BM25" s="39"/>
       <c r="BN25" s="38"/>
       <c r="BO25" s="38"/>
-      <c r="BP25" s="84"/>
-      <c r="BQ25" s="84"/>
+      <c r="BP25" s="75"/>
+      <c r="BQ25" s="75"/>
       <c r="BT25" s="38"/>
-      <c r="BU25" s="84"/>
-      <c r="BV25" s="84"/>
+      <c r="BU25" s="75"/>
+      <c r="BV25" s="75"/>
       <c r="BW25" s="39"/>
       <c r="BX25" s="38"/>
       <c r="BY25" s="38"/>
-      <c r="BZ25" s="84"/>
-      <c r="CA25" s="84"/>
+      <c r="BZ25" s="75"/>
+      <c r="CA25" s="75"/>
       <c r="CD25" s="38"/>
-      <c r="CE25" s="84"/>
-      <c r="CF25" s="84"/>
+      <c r="CE25" s="75"/>
+      <c r="CF25" s="75"/>
       <c r="CG25" s="39"/>
       <c r="CH25" s="38"/>
       <c r="CI25" s="38"/>
-      <c r="CJ25" s="84"/>
-      <c r="CK25" s="84"/>
+      <c r="CJ25" s="75"/>
+      <c r="CK25" s="75"/>
       <c r="CN25" s="38"/>
-      <c r="CO25" s="84"/>
-      <c r="CP25" s="84"/>
+      <c r="CO25" s="75"/>
+      <c r="CP25" s="75"/>
       <c r="CQ25" s="39"/>
       <c r="CR25" s="38"/>
       <c r="CS25" s="38"/>
-      <c r="CT25" s="84"/>
-      <c r="CU25" s="84"/>
+      <c r="CT25" s="75"/>
+      <c r="CU25" s="75"/>
     </row>
     <row r="26" spans="2:99" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
       <c r="O26" s="39"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
       <c r="V26" s="45"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="45"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
       <c r="AF26" s="45"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
       <c r="AI26" s="39"/>
       <c r="AJ26" s="38"/>
       <c r="AK26" s="45"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="88"/>
       <c r="AP26" s="45"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
+      <c r="AQ26" s="88"/>
+      <c r="AR26" s="88"/>
       <c r="AS26" s="39"/>
       <c r="AT26" s="38"/>
       <c r="AU26" s="45"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="82"/>
+      <c r="AV26" s="88"/>
+      <c r="AW26" s="88"/>
       <c r="AZ26" s="38"/>
-      <c r="BA26" s="84"/>
-      <c r="BB26" s="84"/>
+      <c r="BA26" s="75"/>
+      <c r="BB26" s="75"/>
       <c r="BC26" s="39"/>
       <c r="BD26" s="38"/>
       <c r="BE26" s="38"/>
-      <c r="BF26" s="84"/>
-      <c r="BG26" s="84"/>
+      <c r="BF26" s="75"/>
+      <c r="BG26" s="75"/>
       <c r="BJ26" s="38"/>
-      <c r="BK26" s="84"/>
-      <c r="BL26" s="84"/>
+      <c r="BK26" s="75"/>
+      <c r="BL26" s="75"/>
       <c r="BM26" s="39"/>
       <c r="BN26" s="38"/>
       <c r="BO26" s="38"/>
-      <c r="BP26" s="84"/>
-      <c r="BQ26" s="84"/>
+      <c r="BP26" s="75"/>
+      <c r="BQ26" s="75"/>
       <c r="BT26" s="38"/>
-      <c r="BU26" s="84"/>
-      <c r="BV26" s="84"/>
+      <c r="BU26" s="75"/>
+      <c r="BV26" s="75"/>
       <c r="BW26" s="39"/>
       <c r="BX26" s="38"/>
       <c r="BY26" s="38"/>
-      <c r="BZ26" s="84"/>
-      <c r="CA26" s="84"/>
+      <c r="BZ26" s="75"/>
+      <c r="CA26" s="75"/>
       <c r="CD26" s="38"/>
-      <c r="CE26" s="84"/>
-      <c r="CF26" s="84"/>
+      <c r="CE26" s="75"/>
+      <c r="CF26" s="75"/>
       <c r="CG26" s="39"/>
       <c r="CH26" s="38"/>
       <c r="CI26" s="38"/>
-      <c r="CJ26" s="84"/>
-      <c r="CK26" s="84"/>
+      <c r="CJ26" s="75"/>
+      <c r="CK26" s="75"/>
       <c r="CN26" s="38"/>
-      <c r="CO26" s="84"/>
-      <c r="CP26" s="84"/>
+      <c r="CO26" s="75"/>
+      <c r="CP26" s="75"/>
       <c r="CQ26" s="39"/>
       <c r="CR26" s="38"/>
       <c r="CS26" s="38"/>
-      <c r="CT26" s="84"/>
-      <c r="CU26" s="84"/>
+      <c r="CT26" s="75"/>
+      <c r="CU26" s="75"/>
     </row>
     <row r="27" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="22"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="22"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+      <c r="AP27" s="89"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
       <c r="AS27" s="22"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
       <c r="BC27" s="22"/>
       <c r="BD27" s="3"/>
-      <c r="BE27" s="90"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="90"/>
-      <c r="BJ27" s="90"/>
-      <c r="BK27" s="90"/>
-      <c r="BL27" s="90"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="76"/>
+      <c r="BG27" s="76"/>
+      <c r="BJ27" s="76"/>
+      <c r="BK27" s="76"/>
+      <c r="BL27" s="76"/>
       <c r="BM27" s="22"/>
       <c r="BN27" s="3"/>
-      <c r="BO27" s="90"/>
-      <c r="BP27" s="90"/>
-      <c r="BQ27" s="90"/>
-      <c r="BT27" s="90"/>
-      <c r="BU27" s="90"/>
-      <c r="BV27" s="90"/>
+      <c r="BO27" s="76"/>
+      <c r="BP27" s="76"/>
+      <c r="BQ27" s="76"/>
+      <c r="BT27" s="76"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="76"/>
       <c r="BW27" s="22"/>
       <c r="BX27" s="3"/>
-      <c r="BY27" s="90"/>
-      <c r="BZ27" s="90"/>
-      <c r="CA27" s="90"/>
-      <c r="CD27" s="90"/>
-      <c r="CE27" s="90"/>
-      <c r="CF27" s="90"/>
+      <c r="BY27" s="76"/>
+      <c r="BZ27" s="76"/>
+      <c r="CA27" s="76"/>
+      <c r="CD27" s="76"/>
+      <c r="CE27" s="76"/>
+      <c r="CF27" s="76"/>
       <c r="CG27" s="22"/>
       <c r="CH27" s="3"/>
-      <c r="CI27" s="90"/>
-      <c r="CJ27" s="90"/>
-      <c r="CK27" s="90"/>
-      <c r="CN27" s="90"/>
-      <c r="CO27" s="90"/>
-      <c r="CP27" s="90"/>
+      <c r="CI27" s="76"/>
+      <c r="CJ27" s="76"/>
+      <c r="CK27" s="76"/>
+      <c r="CN27" s="76"/>
+      <c r="CO27" s="76"/>
+      <c r="CP27" s="76"/>
       <c r="CQ27" s="22"/>
       <c r="CR27" s="3"/>
-      <c r="CS27" s="90"/>
-      <c r="CT27" s="90"/>
-      <c r="CU27" s="90"/>
+      <c r="CS27" s="76"/>
+      <c r="CT27" s="76"/>
+      <c r="CU27" s="76"/>
     </row>
     <row r="28" spans="2:99" s="18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="25"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="25"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="17"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AP28" s="81"/>
-      <c r="AQ28" s="81"/>
-      <c r="AR28" s="81"/>
+      <c r="AK28" s="85"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="85"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
+      <c r="AR28" s="85"/>
       <c r="AS28" s="25"/>
       <c r="AT28" s="17"/>
-      <c r="AU28" s="81"/>
-      <c r="AV28" s="81"/>
-      <c r="AW28" s="81"/>
-      <c r="AZ28" s="90"/>
-      <c r="BA28" s="90"/>
-      <c r="BB28" s="90"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="85"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
       <c r="BC28" s="25"/>
       <c r="BD28" s="17"/>
-      <c r="BE28" s="90"/>
-      <c r="BF28" s="90"/>
-      <c r="BG28" s="90"/>
-      <c r="BJ28" s="90"/>
-      <c r="BK28" s="90"/>
-      <c r="BL28" s="90"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
       <c r="BM28" s="25"/>
       <c r="BN28" s="17"/>
-      <c r="BO28" s="90"/>
-      <c r="BP28" s="90"/>
-      <c r="BQ28" s="90"/>
-      <c r="BT28" s="90"/>
-      <c r="BU28" s="90"/>
-      <c r="BV28" s="90"/>
+      <c r="BO28" s="76"/>
+      <c r="BP28" s="76"/>
+      <c r="BQ28" s="76"/>
+      <c r="BT28" s="76"/>
+      <c r="BU28" s="76"/>
+      <c r="BV28" s="76"/>
       <c r="BW28" s="25"/>
       <c r="BX28" s="17"/>
-      <c r="BY28" s="90"/>
-      <c r="BZ28" s="90"/>
-      <c r="CA28" s="90"/>
-      <c r="CD28" s="90"/>
-      <c r="CE28" s="90"/>
-      <c r="CF28" s="90"/>
+      <c r="BY28" s="76"/>
+      <c r="BZ28" s="76"/>
+      <c r="CA28" s="76"/>
+      <c r="CD28" s="76"/>
+      <c r="CE28" s="76"/>
+      <c r="CF28" s="76"/>
       <c r="CG28" s="25"/>
       <c r="CH28" s="17"/>
-      <c r="CI28" s="90"/>
-      <c r="CJ28" s="90"/>
-      <c r="CK28" s="90"/>
-      <c r="CN28" s="90"/>
-      <c r="CO28" s="90"/>
-      <c r="CP28" s="90"/>
+      <c r="CI28" s="76"/>
+      <c r="CJ28" s="76"/>
+      <c r="CK28" s="76"/>
+      <c r="CN28" s="76"/>
+      <c r="CO28" s="76"/>
+      <c r="CP28" s="76"/>
       <c r="CQ28" s="25"/>
       <c r="CR28" s="17"/>
-      <c r="CS28" s="90"/>
-      <c r="CT28" s="90"/>
-      <c r="CU28" s="90"/>
+      <c r="CS28" s="76"/>
+      <c r="CT28" s="76"/>
+      <c r="CU28" s="76"/>
     </row>
     <row r="29" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
       <c r="O29" s="39"/>
       <c r="P29" s="38"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
       <c r="AI29" s="39"/>
       <c r="AJ29" s="38"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
+      <c r="AK29" s="86"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="86"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="86"/>
       <c r="AS29" s="39"/>
       <c r="AT29" s="38"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
-      <c r="AW29" s="80"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="91"/>
+      <c r="AU29" s="86"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="86"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77"/>
+      <c r="BB29" s="77"/>
       <c r="BC29" s="39"/>
       <c r="BD29" s="38"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="91"/>
-      <c r="BG29" s="91"/>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="91"/>
-      <c r="BL29" s="91"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="77"/>
+      <c r="BG29" s="77"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="77"/>
+      <c r="BL29" s="77"/>
       <c r="BM29" s="39"/>
       <c r="BN29" s="38"/>
-      <c r="BO29" s="91"/>
-      <c r="BP29" s="91"/>
-      <c r="BQ29" s="91"/>
-      <c r="BT29" s="91"/>
-      <c r="BU29" s="91"/>
-      <c r="BV29" s="91"/>
+      <c r="BO29" s="77"/>
+      <c r="BP29" s="77"/>
+      <c r="BQ29" s="77"/>
+      <c r="BT29" s="77"/>
+      <c r="BU29" s="77"/>
+      <c r="BV29" s="77"/>
       <c r="BW29" s="39"/>
       <c r="BX29" s="38"/>
-      <c r="BY29" s="91"/>
-      <c r="BZ29" s="91"/>
-      <c r="CA29" s="91"/>
-      <c r="CD29" s="91"/>
-      <c r="CE29" s="91"/>
-      <c r="CF29" s="91"/>
+      <c r="BY29" s="77"/>
+      <c r="BZ29" s="77"/>
+      <c r="CA29" s="77"/>
+      <c r="CD29" s="77"/>
+      <c r="CE29" s="77"/>
+      <c r="CF29" s="77"/>
       <c r="CG29" s="39"/>
       <c r="CH29" s="38"/>
-      <c r="CI29" s="91"/>
-      <c r="CJ29" s="91"/>
-      <c r="CK29" s="91"/>
-      <c r="CN29" s="91"/>
-      <c r="CO29" s="91"/>
-      <c r="CP29" s="91"/>
+      <c r="CI29" s="77"/>
+      <c r="CJ29" s="77"/>
+      <c r="CK29" s="77"/>
+      <c r="CN29" s="77"/>
+      <c r="CO29" s="77"/>
+      <c r="CP29" s="77"/>
       <c r="CQ29" s="39"/>
       <c r="CR29" s="38"/>
-      <c r="CS29" s="91"/>
-      <c r="CT29" s="91"/>
-      <c r="CU29" s="91"/>
+      <c r="CS29" s="77"/>
+      <c r="CT29" s="77"/>
+      <c r="CU29" s="77"/>
     </row>
     <row r="30" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="22"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="22"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
       <c r="Y30" s="22"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
       <c r="AS30" s="22"/>
       <c r="AT30" s="3"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AZ30" s="92"/>
-      <c r="BA30" s="92"/>
-      <c r="BB30" s="92"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
       <c r="BC30" s="22"/>
       <c r="BD30" s="3"/>
-      <c r="BE30" s="92"/>
-      <c r="BF30" s="92"/>
-      <c r="BG30" s="92"/>
-      <c r="BJ30" s="92"/>
-      <c r="BK30" s="92"/>
-      <c r="BL30" s="92"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="78"/>
+      <c r="BL30" s="78"/>
       <c r="BM30" s="22"/>
       <c r="BN30" s="3"/>
-      <c r="BO30" s="92"/>
-      <c r="BP30" s="92"/>
-      <c r="BQ30" s="92"/>
-      <c r="BT30" s="92"/>
-      <c r="BU30" s="92"/>
-      <c r="BV30" s="92"/>
+      <c r="BO30" s="78"/>
+      <c r="BP30" s="78"/>
+      <c r="BQ30" s="78"/>
+      <c r="BT30" s="78"/>
+      <c r="BU30" s="78"/>
+      <c r="BV30" s="78"/>
       <c r="BW30" s="22"/>
       <c r="BX30" s="3"/>
-      <c r="BY30" s="92"/>
-      <c r="BZ30" s="92"/>
-      <c r="CA30" s="92"/>
-      <c r="CD30" s="92"/>
-      <c r="CE30" s="92"/>
-      <c r="CF30" s="92"/>
+      <c r="BY30" s="78"/>
+      <c r="BZ30" s="78"/>
+      <c r="CA30" s="78"/>
+      <c r="CD30" s="78"/>
+      <c r="CE30" s="78"/>
+      <c r="CF30" s="78"/>
       <c r="CG30" s="22"/>
       <c r="CH30" s="3"/>
-      <c r="CI30" s="92"/>
-      <c r="CJ30" s="92"/>
-      <c r="CK30" s="92"/>
-      <c r="CN30" s="92"/>
-      <c r="CO30" s="92"/>
-      <c r="CP30" s="92"/>
+      <c r="CI30" s="78"/>
+      <c r="CJ30" s="78"/>
+      <c r="CK30" s="78"/>
+      <c r="CN30" s="78"/>
+      <c r="CO30" s="78"/>
+      <c r="CP30" s="78"/>
       <c r="CQ30" s="22"/>
       <c r="CR30" s="3"/>
-      <c r="CS30" s="92"/>
-      <c r="CT30" s="92"/>
-      <c r="CU30" s="92"/>
+      <c r="CS30" s="78"/>
+      <c r="CT30" s="78"/>
+      <c r="CU30" s="78"/>
     </row>
     <row r="31" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="22"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="22"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="79"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="87"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="87"/>
+      <c r="AR31" s="87"/>
       <c r="AS31" s="22"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="79"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="79"/>
-      <c r="AZ31" s="92"/>
-      <c r="BA31" s="92"/>
-      <c r="BB31" s="92"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87"/>
+      <c r="AZ31" s="78"/>
+      <c r="BA31" s="78"/>
+      <c r="BB31" s="78"/>
       <c r="BC31" s="22"/>
       <c r="BD31" s="3"/>
-      <c r="BE31" s="92"/>
-      <c r="BF31" s="92"/>
-      <c r="BG31" s="92"/>
-      <c r="BJ31" s="92"/>
-      <c r="BK31" s="92"/>
-      <c r="BL31" s="92"/>
+      <c r="BE31" s="78"/>
+      <c r="BF31" s="78"/>
+      <c r="BG31" s="78"/>
+      <c r="BJ31" s="78"/>
+      <c r="BK31" s="78"/>
+      <c r="BL31" s="78"/>
       <c r="BM31" s="22"/>
       <c r="BN31" s="3"/>
-      <c r="BO31" s="92"/>
-      <c r="BP31" s="92"/>
-      <c r="BQ31" s="92"/>
-      <c r="BT31" s="92"/>
-      <c r="BU31" s="92"/>
-      <c r="BV31" s="92"/>
+      <c r="BO31" s="78"/>
+      <c r="BP31" s="78"/>
+      <c r="BQ31" s="78"/>
+      <c r="BT31" s="78"/>
+      <c r="BU31" s="78"/>
+      <c r="BV31" s="78"/>
       <c r="BW31" s="22"/>
       <c r="BX31" s="3"/>
-      <c r="BY31" s="92"/>
-      <c r="BZ31" s="92"/>
-      <c r="CA31" s="92"/>
-      <c r="CD31" s="92"/>
-      <c r="CE31" s="92"/>
-      <c r="CF31" s="92"/>
+      <c r="BY31" s="78"/>
+      <c r="BZ31" s="78"/>
+      <c r="CA31" s="78"/>
+      <c r="CD31" s="78"/>
+      <c r="CE31" s="78"/>
+      <c r="CF31" s="78"/>
       <c r="CG31" s="22"/>
       <c r="CH31" s="3"/>
-      <c r="CI31" s="92"/>
-      <c r="CJ31" s="92"/>
-      <c r="CK31" s="92"/>
-      <c r="CN31" s="92"/>
-      <c r="CO31" s="92"/>
-      <c r="CP31" s="92"/>
+      <c r="CI31" s="78"/>
+      <c r="CJ31" s="78"/>
+      <c r="CK31" s="78"/>
+      <c r="CN31" s="78"/>
+      <c r="CO31" s="78"/>
+      <c r="CP31" s="78"/>
       <c r="CQ31" s="22"/>
       <c r="CR31" s="3"/>
-      <c r="CS31" s="92"/>
-      <c r="CT31" s="92"/>
-      <c r="CU31" s="92"/>
+      <c r="CS31" s="78"/>
+      <c r="CT31" s="78"/>
+      <c r="CU31" s="78"/>
     </row>
     <row r="32" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="22"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
       <c r="O32" s="22"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="79"/>
-      <c r="AM32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="79"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
       <c r="AS32" s="22"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AZ32" s="92"/>
-      <c r="BA32" s="92"/>
-      <c r="BB32" s="92"/>
+      <c r="AU32" s="87"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AZ32" s="78"/>
+      <c r="BA32" s="78"/>
+      <c r="BB32" s="78"/>
       <c r="BC32" s="22"/>
       <c r="BD32" s="3"/>
-      <c r="BE32" s="92"/>
-      <c r="BF32" s="92"/>
-      <c r="BG32" s="92"/>
-      <c r="BJ32" s="92"/>
-      <c r="BK32" s="92"/>
-      <c r="BL32" s="92"/>
+      <c r="BE32" s="78"/>
+      <c r="BF32" s="78"/>
+      <c r="BG32" s="78"/>
+      <c r="BJ32" s="78"/>
+      <c r="BK32" s="78"/>
+      <c r="BL32" s="78"/>
       <c r="BM32" s="22"/>
       <c r="BN32" s="3"/>
-      <c r="BO32" s="92"/>
-      <c r="BP32" s="92"/>
-      <c r="BQ32" s="92"/>
-      <c r="BT32" s="92"/>
-      <c r="BU32" s="92"/>
-      <c r="BV32" s="92"/>
+      <c r="BO32" s="78"/>
+      <c r="BP32" s="78"/>
+      <c r="BQ32" s="78"/>
+      <c r="BT32" s="78"/>
+      <c r="BU32" s="78"/>
+      <c r="BV32" s="78"/>
       <c r="BW32" s="22"/>
       <c r="BX32" s="3"/>
-      <c r="BY32" s="92"/>
-      <c r="BZ32" s="92"/>
-      <c r="CA32" s="92"/>
-      <c r="CD32" s="92"/>
-      <c r="CE32" s="92"/>
-      <c r="CF32" s="92"/>
+      <c r="BY32" s="78"/>
+      <c r="BZ32" s="78"/>
+      <c r="CA32" s="78"/>
+      <c r="CD32" s="78"/>
+      <c r="CE32" s="78"/>
+      <c r="CF32" s="78"/>
       <c r="CG32" s="22"/>
       <c r="CH32" s="3"/>
-      <c r="CI32" s="92"/>
-      <c r="CJ32" s="92"/>
-      <c r="CK32" s="92"/>
-      <c r="CN32" s="92"/>
-      <c r="CO32" s="92"/>
-      <c r="CP32" s="92"/>
+      <c r="CI32" s="78"/>
+      <c r="CJ32" s="78"/>
+      <c r="CK32" s="78"/>
+      <c r="CN32" s="78"/>
+      <c r="CO32" s="78"/>
+      <c r="CP32" s="78"/>
       <c r="CQ32" s="22"/>
       <c r="CR32" s="3"/>
-      <c r="CS32" s="92"/>
-      <c r="CT32" s="92"/>
-      <c r="CU32" s="92"/>
+      <c r="CS32" s="78"/>
+      <c r="CT32" s="78"/>
+      <c r="CU32" s="78"/>
     </row>
     <row r="33" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="39"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
       <c r="O33" s="39"/>
       <c r="P33" s="38"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
       <c r="Y33" s="39"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="76"/>
-      <c r="AF33" s="76"/>
-      <c r="AG33" s="76"/>
-      <c r="AH33" s="76"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="84"/>
+      <c r="AH33" s="84"/>
       <c r="AI33" s="39"/>
       <c r="AJ33" s="38"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="76"/>
-      <c r="AM33" s="76"/>
-      <c r="AP33" s="76"/>
-      <c r="AQ33" s="76"/>
-      <c r="AR33" s="76"/>
+      <c r="AK33" s="84"/>
+      <c r="AL33" s="84"/>
+      <c r="AM33" s="84"/>
+      <c r="AP33" s="84"/>
+      <c r="AQ33" s="84"/>
+      <c r="AR33" s="84"/>
       <c r="AS33" s="39"/>
       <c r="AT33" s="38"/>
-      <c r="AU33" s="76"/>
-      <c r="AV33" s="76"/>
-      <c r="AW33" s="76"/>
-      <c r="AZ33" s="91"/>
-      <c r="BA33" s="91"/>
-      <c r="BB33" s="91"/>
+      <c r="AU33" s="84"/>
+      <c r="AV33" s="84"/>
+      <c r="AW33" s="84"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="77"/>
+      <c r="BB33" s="77"/>
       <c r="BC33" s="39"/>
       <c r="BD33" s="38"/>
-      <c r="BE33" s="91"/>
-      <c r="BF33" s="91"/>
-      <c r="BG33" s="91"/>
-      <c r="BJ33" s="91"/>
-      <c r="BK33" s="91"/>
-      <c r="BL33" s="91"/>
+      <c r="BE33" s="77"/>
+      <c r="BF33" s="77"/>
+      <c r="BG33" s="77"/>
+      <c r="BJ33" s="77"/>
+      <c r="BK33" s="77"/>
+      <c r="BL33" s="77"/>
       <c r="BM33" s="39"/>
       <c r="BN33" s="38"/>
-      <c r="BO33" s="91"/>
-      <c r="BP33" s="91"/>
-      <c r="BQ33" s="91"/>
-      <c r="BT33" s="91"/>
-      <c r="BU33" s="91"/>
-      <c r="BV33" s="91"/>
+      <c r="BO33" s="77"/>
+      <c r="BP33" s="77"/>
+      <c r="BQ33" s="77"/>
+      <c r="BT33" s="77"/>
+      <c r="BU33" s="77"/>
+      <c r="BV33" s="77"/>
       <c r="BW33" s="39"/>
       <c r="BX33" s="38"/>
-      <c r="BY33" s="91"/>
-      <c r="BZ33" s="91"/>
-      <c r="CA33" s="91"/>
-      <c r="CD33" s="91"/>
-      <c r="CE33" s="91"/>
-      <c r="CF33" s="91"/>
+      <c r="BY33" s="77"/>
+      <c r="BZ33" s="77"/>
+      <c r="CA33" s="77"/>
+      <c r="CD33" s="77"/>
+      <c r="CE33" s="77"/>
+      <c r="CF33" s="77"/>
       <c r="CG33" s="39"/>
       <c r="CH33" s="38"/>
-      <c r="CI33" s="91"/>
-      <c r="CJ33" s="91"/>
-      <c r="CK33" s="91"/>
-      <c r="CN33" s="91"/>
-      <c r="CO33" s="91"/>
-      <c r="CP33" s="91"/>
+      <c r="CI33" s="77"/>
+      <c r="CJ33" s="77"/>
+      <c r="CK33" s="77"/>
+      <c r="CN33" s="77"/>
+      <c r="CO33" s="77"/>
+      <c r="CP33" s="77"/>
       <c r="CQ33" s="39"/>
       <c r="CR33" s="38"/>
-      <c r="CS33" s="91"/>
-      <c r="CT33" s="91"/>
-      <c r="CU33" s="91"/>
+      <c r="CS33" s="77"/>
+      <c r="CT33" s="77"/>
+      <c r="CU33" s="77"/>
     </row>
     <row r="34" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="22"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
       <c r="O34" s="22"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="92"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="92"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="75"/>
-      <c r="AR34" s="75"/>
+      <c r="AK34" s="91"/>
+      <c r="AL34" s="92"/>
+      <c r="AM34" s="92"/>
+      <c r="AP34" s="91"/>
+      <c r="AQ34" s="92"/>
+      <c r="AR34" s="92"/>
       <c r="AS34" s="22"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="75"/>
-      <c r="AW34" s="75"/>
+      <c r="AU34" s="91"/>
+      <c r="AV34" s="92"/>
+      <c r="AW34" s="92"/>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="3"/>
       <c r="BB34" s="6"/>
@@ -4125,46 +3897,46 @@
       <c r="CU34" s="6"/>
     </row>
     <row r="35" spans="2:99" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="39"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
       <c r="O35" s="39"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
       <c r="Y35" s="39"/>
       <c r="Z35" s="38"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="76"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="84"/>
       <c r="AI35" s="39"/>
       <c r="AJ35" s="38"/>
-      <c r="AK35" s="76"/>
-      <c r="AL35" s="76"/>
-      <c r="AM35" s="76"/>
-      <c r="AP35" s="76"/>
-      <c r="AQ35" s="76"/>
-      <c r="AR35" s="76"/>
+      <c r="AK35" s="84"/>
+      <c r="AL35" s="84"/>
+      <c r="AM35" s="84"/>
+      <c r="AP35" s="84"/>
+      <c r="AQ35" s="84"/>
+      <c r="AR35" s="84"/>
       <c r="AS35" s="39"/>
       <c r="AT35" s="38"/>
-      <c r="AU35" s="76"/>
-      <c r="AV35" s="76"/>
-      <c r="AW35" s="76"/>
+      <c r="AU35" s="84"/>
+      <c r="AV35" s="84"/>
+      <c r="AW35" s="84"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="38"/>
       <c r="BB35" s="32"/>
@@ -4207,41 +3979,41 @@
       <c r="CU35" s="32"/>
     </row>
     <row r="36" spans="2:99" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
       <c r="E36" s="22"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
       <c r="O36" s="22"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
       <c r="Y36" s="22"/>
-      <c r="AA36" s="77"/>
-      <c r="AB36" s="78"/>
-      <c r="AC36" s="78"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="78"/>
-      <c r="AH36" s="78"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="89"/>
+      <c r="AC36" s="89"/>
+      <c r="AF36" s="90"/>
+      <c r="AG36" s="89"/>
+      <c r="AH36" s="89"/>
       <c r="AI36" s="22"/>
-      <c r="AK36" s="77"/>
-      <c r="AL36" s="78"/>
-      <c r="AM36" s="78"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="78"/>
-      <c r="AR36" s="78"/>
+      <c r="AK36" s="90"/>
+      <c r="AL36" s="89"/>
+      <c r="AM36" s="89"/>
+      <c r="AP36" s="90"/>
+      <c r="AQ36" s="89"/>
+      <c r="AR36" s="89"/>
       <c r="AS36" s="22"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="78"/>
-      <c r="AW36" s="78"/>
+      <c r="AU36" s="90"/>
+      <c r="AV36" s="89"/>
+      <c r="AW36" s="89"/>
       <c r="BC36" s="22"/>
       <c r="BM36" s="22"/>
       <c r="BW36" s="22"/>
@@ -4334,35 +4106,528 @@
     </row>
   </sheetData>
   <mergeCells count="575">
-    <mergeCell ref="CO24:CP24"/>
-    <mergeCell ref="CT24:CU24"/>
-    <mergeCell ref="CO25:CP25"/>
-    <mergeCell ref="CT25:CU25"/>
-    <mergeCell ref="CO26:CP26"/>
-    <mergeCell ref="CT26:CU26"/>
-    <mergeCell ref="CN27:CP27"/>
-    <mergeCell ref="CS27:CU27"/>
-    <mergeCell ref="CN33:CP33"/>
-    <mergeCell ref="CS33:CU33"/>
-    <mergeCell ref="CN28:CP28"/>
-    <mergeCell ref="CS28:CU28"/>
-    <mergeCell ref="CN29:CP29"/>
-    <mergeCell ref="CS29:CU29"/>
-    <mergeCell ref="CN30:CP30"/>
-    <mergeCell ref="CS30:CU30"/>
-    <mergeCell ref="CN31:CP31"/>
-    <mergeCell ref="CS31:CU31"/>
-    <mergeCell ref="CN32:CP32"/>
-    <mergeCell ref="CS32:CU32"/>
-    <mergeCell ref="CS12:CU12"/>
-    <mergeCell ref="CN13:CP13"/>
-    <mergeCell ref="CS13:CU13"/>
-    <mergeCell ref="CN21:CP21"/>
-    <mergeCell ref="CS21:CU21"/>
-    <mergeCell ref="CN22:CO22"/>
-    <mergeCell ref="CS22:CT22"/>
-    <mergeCell ref="CO23:CP23"/>
-    <mergeCell ref="CT23:CU23"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AU15:AW15"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AP34:AR34"/>
+    <mergeCell ref="AU34:AW34"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="AU35:AW35"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="AU36:AW36"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AU8:AW8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AQ23:AR23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BE7:BG7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BE8:BG8"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="BE9:BG9"/>
+    <mergeCell ref="AZ10:BB10"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="AZ13:BB13"/>
+    <mergeCell ref="BE13:BG13"/>
+    <mergeCell ref="AZ21:BB21"/>
+    <mergeCell ref="BE21:BG21"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BE22:BF22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BF24:BG24"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BF26:BG26"/>
+    <mergeCell ref="AZ27:BB27"/>
+    <mergeCell ref="BE27:BG27"/>
+    <mergeCell ref="AZ28:BB28"/>
+    <mergeCell ref="BE28:BG28"/>
+    <mergeCell ref="AZ29:BB29"/>
+    <mergeCell ref="BE29:BG29"/>
+    <mergeCell ref="AZ30:BB30"/>
+    <mergeCell ref="BE30:BG30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BE31:BG31"/>
+    <mergeCell ref="AZ32:BB32"/>
+    <mergeCell ref="BE32:BG32"/>
+    <mergeCell ref="AZ33:BB33"/>
+    <mergeCell ref="BE33:BG33"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BO7:BQ7"/>
+    <mergeCell ref="BJ8:BL8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BJ9:BL9"/>
+    <mergeCell ref="BO9:BQ9"/>
+    <mergeCell ref="BJ10:BL10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="BO12:BQ12"/>
+    <mergeCell ref="BJ13:BL13"/>
+    <mergeCell ref="BO13:BQ13"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BO21:BQ21"/>
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="BO22:BP22"/>
+    <mergeCell ref="BK23:BL23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="BK24:BL24"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="BK25:BL25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="BK26:BL26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="BJ27:BL27"/>
+    <mergeCell ref="BO27:BQ27"/>
+    <mergeCell ref="BJ28:BL28"/>
+    <mergeCell ref="BO28:BQ28"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BO29:BQ29"/>
+    <mergeCell ref="BJ30:BL30"/>
+    <mergeCell ref="BO30:BQ30"/>
+    <mergeCell ref="BJ31:BL31"/>
+    <mergeCell ref="BO31:BQ31"/>
+    <mergeCell ref="BJ32:BL32"/>
+    <mergeCell ref="BO32:BQ32"/>
+    <mergeCell ref="BJ33:BL33"/>
+    <mergeCell ref="BO33:BQ33"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BY7:CA7"/>
+    <mergeCell ref="BT8:BV8"/>
+    <mergeCell ref="BY8:CA8"/>
+    <mergeCell ref="BT9:BV9"/>
+    <mergeCell ref="BY9:CA9"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="BY10:CA10"/>
+    <mergeCell ref="BT11:BV11"/>
+    <mergeCell ref="BY11:CA11"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="BY12:CA12"/>
+    <mergeCell ref="BT13:BV13"/>
+    <mergeCell ref="BY13:CA13"/>
+    <mergeCell ref="BT21:BV21"/>
+    <mergeCell ref="BY21:CA21"/>
+    <mergeCell ref="BT22:BU22"/>
+    <mergeCell ref="BY22:BZ22"/>
+    <mergeCell ref="BU23:BV23"/>
+    <mergeCell ref="BZ23:CA23"/>
+    <mergeCell ref="BU24:BV24"/>
+    <mergeCell ref="BZ24:CA24"/>
+    <mergeCell ref="BU25:BV25"/>
+    <mergeCell ref="BZ25:CA25"/>
+    <mergeCell ref="BU26:BV26"/>
+    <mergeCell ref="BZ26:CA26"/>
+    <mergeCell ref="BT27:BV27"/>
+    <mergeCell ref="BY27:CA27"/>
+    <mergeCell ref="BT28:BV28"/>
+    <mergeCell ref="BY28:CA28"/>
+    <mergeCell ref="BT29:BV29"/>
+    <mergeCell ref="BY29:CA29"/>
+    <mergeCell ref="BT30:BV30"/>
+    <mergeCell ref="BY30:CA30"/>
+    <mergeCell ref="BT31:BV31"/>
+    <mergeCell ref="BY31:CA31"/>
+    <mergeCell ref="BT32:BV32"/>
+    <mergeCell ref="BY32:CA32"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="BY33:CA33"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CJ5:CK5"/>
+    <mergeCell ref="CE6:CF6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CI7:CK7"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CI8:CK8"/>
+    <mergeCell ref="CD9:CF9"/>
+    <mergeCell ref="CI9:CK9"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="CI10:CK10"/>
+    <mergeCell ref="CD11:CF11"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="CD13:CF13"/>
+    <mergeCell ref="CI13:CK13"/>
+    <mergeCell ref="CD21:CF21"/>
+    <mergeCell ref="CI21:CK21"/>
+    <mergeCell ref="CD22:CE22"/>
+    <mergeCell ref="CI22:CJ22"/>
+    <mergeCell ref="CE23:CF23"/>
+    <mergeCell ref="CJ23:CK23"/>
+    <mergeCell ref="CE24:CF24"/>
+    <mergeCell ref="CJ24:CK24"/>
+    <mergeCell ref="CE25:CF25"/>
+    <mergeCell ref="CJ25:CK25"/>
+    <mergeCell ref="CE26:CF26"/>
+    <mergeCell ref="CJ26:CK26"/>
+    <mergeCell ref="CD27:CF27"/>
+    <mergeCell ref="CI27:CK27"/>
+    <mergeCell ref="CD28:CF28"/>
+    <mergeCell ref="CI28:CK28"/>
+    <mergeCell ref="CD29:CF29"/>
+    <mergeCell ref="CI29:CK29"/>
+    <mergeCell ref="CD30:CF30"/>
+    <mergeCell ref="CI30:CK30"/>
+    <mergeCell ref="CD31:CF31"/>
+    <mergeCell ref="CI31:CK31"/>
+    <mergeCell ref="CD32:CF32"/>
+    <mergeCell ref="CI32:CK32"/>
     <mergeCell ref="CD33:CF33"/>
     <mergeCell ref="CI33:CK33"/>
     <mergeCell ref="CN1:CP1"/>
@@ -4387,528 +4652,35 @@
     <mergeCell ref="CN11:CP11"/>
     <mergeCell ref="CS11:CU11"/>
     <mergeCell ref="CN12:CP12"/>
-    <mergeCell ref="CD28:CF28"/>
-    <mergeCell ref="CI28:CK28"/>
-    <mergeCell ref="CD29:CF29"/>
-    <mergeCell ref="CI29:CK29"/>
-    <mergeCell ref="CD30:CF30"/>
-    <mergeCell ref="CI30:CK30"/>
-    <mergeCell ref="CD31:CF31"/>
-    <mergeCell ref="CI31:CK31"/>
-    <mergeCell ref="CD32:CF32"/>
-    <mergeCell ref="CI32:CK32"/>
-    <mergeCell ref="CE23:CF23"/>
-    <mergeCell ref="CJ23:CK23"/>
-    <mergeCell ref="CE24:CF24"/>
-    <mergeCell ref="CJ24:CK24"/>
-    <mergeCell ref="CE25:CF25"/>
-    <mergeCell ref="CJ25:CK25"/>
-    <mergeCell ref="CE26:CF26"/>
-    <mergeCell ref="CJ26:CK26"/>
-    <mergeCell ref="CD27:CF27"/>
-    <mergeCell ref="CI27:CK27"/>
-    <mergeCell ref="CD11:CF11"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="CD13:CF13"/>
-    <mergeCell ref="CI13:CK13"/>
-    <mergeCell ref="CD21:CF21"/>
-    <mergeCell ref="CI21:CK21"/>
-    <mergeCell ref="CD22:CE22"/>
-    <mergeCell ref="CI22:CJ22"/>
-    <mergeCell ref="CE6:CF6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CI7:CK7"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CI8:CK8"/>
-    <mergeCell ref="CD9:CF9"/>
-    <mergeCell ref="CI9:CK9"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="CI10:CK10"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CJ5:CK5"/>
-    <mergeCell ref="BT29:BV29"/>
-    <mergeCell ref="BY29:CA29"/>
-    <mergeCell ref="BT30:BV30"/>
-    <mergeCell ref="BY30:CA30"/>
-    <mergeCell ref="BT31:BV31"/>
-    <mergeCell ref="BY31:CA31"/>
-    <mergeCell ref="BT32:BV32"/>
-    <mergeCell ref="BY32:CA32"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="BY33:CA33"/>
-    <mergeCell ref="BU24:BV24"/>
-    <mergeCell ref="BZ24:CA24"/>
-    <mergeCell ref="BU25:BV25"/>
-    <mergeCell ref="BZ25:CA25"/>
-    <mergeCell ref="BU26:BV26"/>
-    <mergeCell ref="BZ26:CA26"/>
-    <mergeCell ref="BT27:BV27"/>
-    <mergeCell ref="BY27:CA27"/>
-    <mergeCell ref="BT28:BV28"/>
-    <mergeCell ref="BY28:CA28"/>
-    <mergeCell ref="BY12:CA12"/>
-    <mergeCell ref="BT13:BV13"/>
-    <mergeCell ref="BY13:CA13"/>
-    <mergeCell ref="BT21:BV21"/>
-    <mergeCell ref="BY21:CA21"/>
-    <mergeCell ref="BT22:BU22"/>
-    <mergeCell ref="BY22:BZ22"/>
-    <mergeCell ref="BU23:BV23"/>
-    <mergeCell ref="BZ23:CA23"/>
-    <mergeCell ref="BJ33:BL33"/>
-    <mergeCell ref="BO33:BQ33"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="BY7:CA7"/>
-    <mergeCell ref="BT8:BV8"/>
-    <mergeCell ref="BY8:CA8"/>
-    <mergeCell ref="BT9:BV9"/>
-    <mergeCell ref="BY9:CA9"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="BY10:CA10"/>
-    <mergeCell ref="BT11:BV11"/>
-    <mergeCell ref="BY11:CA11"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="BJ28:BL28"/>
-    <mergeCell ref="BO28:BQ28"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BO29:BQ29"/>
-    <mergeCell ref="BJ30:BL30"/>
-    <mergeCell ref="BO30:BQ30"/>
-    <mergeCell ref="BJ31:BL31"/>
-    <mergeCell ref="BO31:BQ31"/>
-    <mergeCell ref="BJ32:BL32"/>
-    <mergeCell ref="BO32:BQ32"/>
-    <mergeCell ref="BK23:BL23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="BK24:BL24"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="BK25:BL25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="BK26:BL26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="BJ27:BL27"/>
-    <mergeCell ref="BO27:BQ27"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="BO12:BQ12"/>
-    <mergeCell ref="BJ13:BL13"/>
-    <mergeCell ref="BO13:BQ13"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BO21:BQ21"/>
-    <mergeCell ref="BJ22:BK22"/>
-    <mergeCell ref="BO22:BP22"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BO7:BQ7"/>
-    <mergeCell ref="BJ8:BL8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BJ9:BL9"/>
-    <mergeCell ref="BO9:BQ9"/>
-    <mergeCell ref="BJ10:BL10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="AZ29:BB29"/>
-    <mergeCell ref="BE29:BG29"/>
-    <mergeCell ref="AZ30:BB30"/>
-    <mergeCell ref="BE30:BG30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BE31:BG31"/>
-    <mergeCell ref="AZ32:BB32"/>
-    <mergeCell ref="BE32:BG32"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="BE33:BG33"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BF24:BG24"/>
-    <mergeCell ref="BA25:BB25"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BF26:BG26"/>
-    <mergeCell ref="AZ27:BB27"/>
-    <mergeCell ref="BE27:BG27"/>
-    <mergeCell ref="AZ28:BB28"/>
-    <mergeCell ref="BE28:BG28"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="AZ13:BB13"/>
-    <mergeCell ref="BE13:BG13"/>
-    <mergeCell ref="AZ21:BB21"/>
-    <mergeCell ref="BE21:BG21"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BE22:BF22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BE7:BG7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BE8:BG8"/>
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="BE9:BG9"/>
-    <mergeCell ref="AZ10:BB10"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AU22:AV22"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AP34:AR34"/>
-    <mergeCell ref="AU34:AW34"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AU35:AW35"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AU36:AW36"/>
-    <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="CS12:CU12"/>
+    <mergeCell ref="CN13:CP13"/>
+    <mergeCell ref="CS13:CU13"/>
+    <mergeCell ref="CN21:CP21"/>
+    <mergeCell ref="CS21:CU21"/>
+    <mergeCell ref="CN22:CO22"/>
+    <mergeCell ref="CS22:CT22"/>
+    <mergeCell ref="CO23:CP23"/>
+    <mergeCell ref="CT23:CU23"/>
+    <mergeCell ref="CO24:CP24"/>
+    <mergeCell ref="CT24:CU24"/>
+    <mergeCell ref="CO25:CP25"/>
+    <mergeCell ref="CT25:CU25"/>
+    <mergeCell ref="CO26:CP26"/>
+    <mergeCell ref="CT26:CU26"/>
+    <mergeCell ref="CN27:CP27"/>
+    <mergeCell ref="CS27:CU27"/>
+    <mergeCell ref="CN33:CP33"/>
+    <mergeCell ref="CS33:CU33"/>
+    <mergeCell ref="CN28:CP28"/>
+    <mergeCell ref="CS28:CU28"/>
+    <mergeCell ref="CN29:CP29"/>
+    <mergeCell ref="CS29:CU29"/>
+    <mergeCell ref="CN30:CP30"/>
+    <mergeCell ref="CS30:CU30"/>
+    <mergeCell ref="CN31:CP31"/>
+    <mergeCell ref="CS31:CU31"/>
+    <mergeCell ref="CN32:CP32"/>
+    <mergeCell ref="CS32:CU32"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/formQR.xlsx
+++ b/formQR.xlsx
@@ -30,7 +30,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,87 +656,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1019175" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="600075" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1033,99 +951,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="1" width="2.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="2.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="30" max="31" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="50" max="51" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="55" max="55" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="59" max="59" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="60" max="61" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="62" max="62" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="63" max="63" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="64" max="64" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="66" max="66" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="68" max="68" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="70" max="71" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="72" max="72" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="74" max="74" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="75" max="75" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="76" max="76" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="80" max="81" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="86" max="86" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="87" max="87" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="88" max="88" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="89" max="89" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="90" max="91" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="94" max="94" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="95" max="95" customWidth="true" style="21" width="5.28515625" collapsed="true"/>
-    <col min="96" max="96" customWidth="true" style="1" width="5.28515625" collapsed="true"/>
-    <col min="97" max="97" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="98" max="98" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="99" max="99" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="100" max="101" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="102" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="2.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="2.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="51" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="71" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="81" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="91" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="5.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="5.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="101" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:99" s="40" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4687,7 +4605,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="40" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4701,7 +4618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
